--- a/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:36:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:33:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-04T08:33:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:34:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-04T08:34:00.000Z</t>
+          <t>2024-07-04T09:35:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-04T09:36:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-04T09:33:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:47:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-04T09:34:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-04T09:35:00.000Z</t>
+          <t>2024-07-04T09:48:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU72"/>
+  <dimension ref="A1:AU73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
+          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-04T03:57:00.000Z</t>
+          <t>2024-07-06T08:51:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-0344784760f74bcc9b55b672299a1911</t>
+          <t>https://www.notion.so/1-77beaf39139f468c8b7a9dfbffdc34ce</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
+          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-03T09:52:00.000Z</t>
+          <t>2024-07-04T03:57:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-d37aca6076a9490aa5ce5ba95dc756e3</t>
+          <t>https://www.notion.so/2-0344784760f74bcc9b55b672299a1911</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
+          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-02T02:58:00.000Z</t>
+          <t>2024-07-03T09:52:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-e0bee04d4ecb4601928c0d8895b609ff</t>
+          <t>https://www.notion.so/3-d37aca6076a9490aa5ce5ba95dc756e3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
+          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-01T07:45:00.000Z</t>
+          <t>2024-07-02T02:58:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-06f84bee3de04d8ea89d0d662e49da6f</t>
+          <t>https://www.notion.so/4-e0bee04d4ecb4601928c0d8895b609ff</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
+          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-06-30T09:08:00.000Z</t>
+          <t>2024-07-01T07:45:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-9c68fce37d4f4432a9b2e94a31b35cb8</t>
+          <t>https://www.notion.so/5-06f84bee3de04d8ea89d0d662e49da6f</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
+          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-29T09:34:00.000Z</t>
+          <t>2024-06-30T09:08:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-f4840e299c1d43c3837e0d16a331afc5</t>
+          <t>https://www.notion.so/6-9c68fce37d4f4432a9b2e94a31b35cb8</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
+          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-27T05:20:00.000Z</t>
+          <t>2024-06-29T09:34:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-413abd2bd960425d830b670598ce73e3</t>
+          <t>https://www.notion.so/7-f4840e299c1d43c3837e0d16a331afc5</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
+          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-27T05:20:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-7f65d6ca1a4147e390c31c67b654a580</t>
+          <t>https://www.notion.so/8-413abd2bd960425d830b670598ce73e3</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
+          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-5368b5a82d914fc3a5f194c7162f5048</t>
+          <t>https://www.notion.so/9-7f65d6ca1a4147e390c31c67b654a580</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
+          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-8701f2d293c34e0085672e3e7631cdb8</t>
+          <t>https://www.notion.so/10-5368b5a82d914fc3a5f194c7162f5048</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
+          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-456dae273fe84d68bdf84f10f987d889</t>
+          <t>https://www.notion.so/11-8701f2d293c34e0085672e3e7631cdb8</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,7 +2867,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
+          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-ccfa10878ca8496b8e932819f304be25</t>
+          <t>https://www.notion.so/12-456dae273fe84d68bdf84f10f987d889</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
+          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-1c8d62843aae418c92089c391cbbf64d</t>
+          <t>https://www.notion.so/13-ccfa10878ca8496b8e932819f304be25</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
+          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-ac86b813bcdf4436856ff6d3737b416c</t>
+          <t>https://www.notion.so/14-1c8d62843aae418c92089c391cbbf64d</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
+          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-8e3a71e5f9274e4fb215d54c0188294e</t>
+          <t>https://www.notion.so/15-ac86b813bcdf4436856ff6d3737b416c</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
+          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-bc3f46b564954ce290fb3abd2ad49c48</t>
+          <t>https://www.notion.so/16-8e3a71e5f9274e4fb215d54c0188294e</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
+          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-2dcf2fedb2f345f787374acf8616b370</t>
+          <t>https://www.notion.so/17-bc3f46b564954ce290fb3abd2ad49c48</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
+          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-887b24410fb94d5d86f359c23164bb5d</t>
+          <t>https://www.notion.so/18-2dcf2fedb2f345f787374acf8616b370</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
+          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-b002fbe7cff2401fb9bad07fd6cc561f</t>
+          <t>https://www.notion.so/19-887b24410fb94d5d86f359c23164bb5d</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
+          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-df6bda30993c4e7aab4794d2c47b686c</t>
+          <t>https://www.notion.so/20-b002fbe7cff2401fb9bad07fd6cc561f</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
+          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-05ebb8d49dc141599836122e738bf488</t>
+          <t>https://www.notion.so/21-df6bda30993c4e7aab4794d2c47b686c</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
+          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-2ac05bc7172c4aa4b654799d67afe9e3</t>
+          <t>https://www.notion.so/22-05ebb8d49dc141599836122e738bf488</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
+          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-ffe6c77991f74c50b15dd0453a138e44</t>
+          <t>https://www.notion.so/23-2ac05bc7172c4aa4b654799d67afe9e3</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
+          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-2b0f762dd9a1460ab13f2736f1b47f93</t>
+          <t>https://www.notion.so/24-ffe6c77991f74c50b15dd0453a138e44</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
+          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-8716b812f61b4f9c90a0142d28bdca52</t>
+          <t>https://www.notion.so/25-2b0f762dd9a1460ab13f2736f1b47f93</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
+          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-670caeaf380a49d780a2f4774180a454</t>
+          <t>https://www.notion.so/26-8716b812f61b4f9c90a0142d28bdca52</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
+          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-4159c13e192d4b3ca97a4b8514d8725c</t>
+          <t>https://www.notion.so/27-670caeaf380a49d780a2f4774180a454</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
+          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-cf3e7eac935546569394e931803f630d</t>
+          <t>https://www.notion.so/28-4159c13e192d4b3ca97a4b8514d8725c</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
+          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-9df7353497164a8ab24939853ee869da</t>
+          <t>https://www.notion.so/29-cf3e7eac935546569394e931803f630d</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
+          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-5346b50987b446f79918eecb88e8cf6a</t>
+          <t>https://www.notion.so/30-9df7353497164a8ab24939853ee869da</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
+          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-a5122c4330234baabe9f0dd89011734c</t>
+          <t>https://www.notion.so/31-5346b50987b446f79918eecb88e8cf6a</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
+          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-a532e7cf90914f2e9e8d88f03ae7f109</t>
+          <t>https://www.notion.so/32-a5122c4330234baabe9f0dd89011734c</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
+          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-ecbeca945cb643fdb3eaaa736eb36655</t>
+          <t>https://www.notion.so/33-a532e7cf90914f2e9e8d88f03ae7f109</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
+          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-0cb9eb84b38a4c77b4fbc39974d76a86</t>
+          <t>https://www.notion.so/34-ecbeca945cb643fdb3eaaa736eb36655</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
+          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-71579228ff4f4c82ab8de40170d28c84</t>
+          <t>https://www.notion.so/35-0cb9eb84b38a4c77b4fbc39974d76a86</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
+          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-808bf9c3006a400293f08edfcc7f0f77</t>
+          <t>https://www.notion.so/36-71579228ff4f4c82ab8de40170d28c84</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
+          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-f6aa15d581a744cdb711a7c11cd8091b</t>
+          <t>https://www.notion.so/37-808bf9c3006a400293f08edfcc7f0f77</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
+          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-8f93fb5b6434414db1585a6d8373e0cb</t>
+          <t>https://www.notion.so/38-f6aa15d581a744cdb711a7c11cd8091b</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
+          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-5f697f46bc4547b0af9fb79d2f89615c</t>
+          <t>https://www.notion.so/39-8f93fb5b6434414db1585a6d8373e0cb</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
+          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-0d51e83ddaba4f7f98a5265e6f893acc</t>
+          <t>https://www.notion.so/40-5f697f46bc4547b0af9fb79d2f89615c</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
+          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-b6442ee624444519ba61ee66f711f543</t>
+          <t>https://www.notion.so/41-0d51e83ddaba4f7f98a5265e6f893acc</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
+          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
+          <t>https://www.notion.so/42-b6442ee624444519ba61ee66f711f543</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
+          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
+          <t>https://www.notion.so/43-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
+          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-5ae18489d18540dbbfc41263a08c863e</t>
+          <t>https://www.notion.so/44-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
+          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-2cc2a8737fd94612a974d6e1f3cfcad0</t>
+          <t>https://www.notion.so/45-5ae18489d18540dbbfc41263a08c863e</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
+          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-1bbc9ed697b3463aa7073252641dd198</t>
+          <t>https://www.notion.so/46-2cc2a8737fd94612a974d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
+          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
+          <t>https://www.notion.so/47-1bbc9ed697b3463aa7073252641dd198</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
+          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-de2a36cf877144f0a9a3cd55abfe271b</t>
+          <t>https://www.notion.so/48-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
+          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-52391eb5b8b04d4ca021f5c63b61d834</t>
+          <t>https://www.notion.so/49-de2a36cf877144f0a9a3cd55abfe271b</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
+          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-68bb50dcb72047b7998376df9b3742f6</t>
+          <t>https://www.notion.so/50-52391eb5b8b04d4ca021f5c63b61d834</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
+          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-58b1fa10c5cf4bcdbe34669b0c698923</t>
+          <t>https://www.notion.so/51-68bb50dcb72047b7998376df9b3742f6</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
+          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-c3ede5ddeeba4a2687538586469f6e8a</t>
+          <t>https://www.notion.so/52-58b1fa10c5cf4bcdbe34669b0c698923</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
+          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:10:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-46806830e1bd4cb594a526deedae2a38</t>
+          <t>https://www.notion.so/53-c3ede5ddeeba4a2687538586469f6e8a</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
+          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-2e1d33d8b8334ccaacee1f03482d66eb</t>
+          <t>https://www.notion.so/54-46806830e1bd4cb594a526deedae2a38</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
+          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-96324ff37f5948f0b916fc6536c5dade</t>
+          <t>https://www.notion.so/55-2e1d33d8b8334ccaacee1f03482d66eb</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
+          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-0e7dfb28877148948e464365dc6f2ad2</t>
+          <t>https://www.notion.so/56-96324ff37f5948f0b916fc6536c5dade</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
+          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-843f0e9037ff45919e450424e4cbac9e</t>
+          <t>https://www.notion.so/57-0e7dfb28877148948e464365dc6f2ad2</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
+          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-6049f3d742d048388a7a1856688cc253</t>
+          <t>https://www.notion.so/58-843f0e9037ff45919e450424e4cbac9e</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
+          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-612cdb5927f9493bb67472aff3b5927b</t>
+          <t>https://www.notion.so/59-6049f3d742d048388a7a1856688cc253</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
+          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-27085ca3d5144473a3bbda984c52e7e4</t>
+          <t>https://www.notion.so/60-612cdb5927f9493bb67472aff3b5927b</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
+          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-5be9f11cc64f4f61bb71e7d2fbf96855</t>
+          <t>https://www.notion.so/61-27085ca3d5144473a3bbda984c52e7e4</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
+          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-3f9e3e71188e48d5997a71070175e42b</t>
+          <t>https://www.notion.so/62-5be9f11cc64f4f61bb71e7d2fbf96855</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
+          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-c4a99c5cf44e4039a0458ad12b4f6046</t>
+          <t>https://www.notion.so/63-3f9e3e71188e48d5997a71070175e42b</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,17 +13215,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
+          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2024-06-25T15:36:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-04T09:47:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-214991f646494c4db5957aa6576c69ad</t>
+          <t>https://www.notion.so/64-c4a99c5cf44e4039a0458ad12b4f6046</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
+          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-d9f9ae69896d4f76b57208645f10e3fa</t>
+          <t>https://www.notion.so/65-214991f646494c4db5957aa6576c69ad</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
+          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-73f7f862f11441db92210fde8f9c580d</t>
+          <t>https://www.notion.so/66-d9f9ae69896d4f76b57208645f10e3fa</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
+          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-631d954b83a847d48683983aad0b002d</t>
+          <t>https://www.notion.so/67-73f7f862f11441db92210fde8f9c580d</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
+          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-3e313c4511094d1996f73d46baff66af</t>
+          <t>https://www.notion.so/68-631d954b83a847d48683983aad0b002d</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,17 +14210,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
+          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2024-06-25T08:24:00.000Z</t>
+          <t>2024-06-25T15:36:00.000Z</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-15dc290bde0b4ca9ba770946c5f13582</t>
+          <t>https://www.notion.so/69-3e313c4511094d1996f73d46baff66af</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14244,7 +14244,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
+          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-85a1185c5d12479f808c48ad22a864c1</t>
+          <t>https://www.notion.so/70-15dc290bde0b4ca9ba770946c5f13582</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-04T09:48:00.000Z</t>
+          <t>2024-07-06T13:11:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-b4c82aa77e7f4289b0ba1b14e683031d</t>
+          <t>https://www.notion.so/71-85a1185c5d12479f808c48ad22a864c1</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14796,6 +14796,205 @@
       <c r="AU72" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '71', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '71', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2024-07-06T13:11:00.000Z</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/72-b4c82aa77e7f4289b0ba1b14e683031d</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC73" t="n">
+        <v>685000</v>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE73" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH73" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI73" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM73" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN73" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO73" t="n">
+        <v>-685000</v>
+      </c>
+      <c r="AP73" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ73" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU73" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '72', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '72', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:58:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-06T13:10:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:55:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-06T13:11:00.000Z</t>
+          <t>2024-07-08T01:56:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU73"/>
+  <dimension ref="A1:AU82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
+          <t>ab7f95ce-43b3-42b1-83b5-0578395cef2d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-06T08:51:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-77beaf39139f468c8b7a9dfbffdc34ce</t>
+          <t>https://www.notion.so/81-ab7f95ce43b342b183b50578395cef2d</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>1753000</v>
+        <v>5985000</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr"/>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="AO2" t="n">
-        <v>-1753000</v>
+        <v>-5985000</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '1', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '1', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '81', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '81', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
+          <t>3b58dea8-d569-439c-9d28-37bc5cb00b87</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-04T03:57:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-0344784760f74bcc9b55b672299a1911</t>
+          <t>https://www.notion.so/80-3b58dea8d569439c9d2837bc5cb00b87</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>546000</v>
+        <v>89000</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="AF3" t="n">
-        <v>10000000</v>
+        <v>7000000</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr"/>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="AO3" t="n">
-        <v>4454000</v>
+        <v>6911000</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="AR3" t="n">
-        <v>5000000</v>
+        <v>7000000</v>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '2', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '2', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '80', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '80', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
+          <t>0fecdb7c-3c37-4eea-9728-9e9e308f8f91</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-03T09:52:00.000Z</t>
+          <t>2024-07-15T04:38:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-d37aca6076a9490aa5ce5ba95dc756e3</t>
+          <t>https://www.notion.so/1-0fecdb7c3c374eea97289e9e308f8f91</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>18000000</v>
+        <v>1753000</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="AO4" t="n">
-        <v>-18000000</v>
+        <v>-1753000</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '3', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '3', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '1', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '1', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
+          <t>e64e264f-45f0-48db-8349-7eb369265ce0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-02T02:58:00.000Z</t>
+          <t>2024-07-14T14:34:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-e0bee04d4ecb4601928c0d8895b609ff</t>
+          <t>https://www.notion.so/2-e64e264f45f048db83497eb369265ce0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>350000</v>
+        <v>546000</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="AF5" t="n">
-        <v>21000000</v>
+        <v>10000000</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr"/>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="AO5" t="n">
-        <v>20650000</v>
+        <v>4454000</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="AR5" t="n">
-        <v>21000000</v>
+        <v>5000000</v>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '4', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '4', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '2', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '2', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
+          <t>6c9a4fbe-94ba-4813-a444-2725e44cd033</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-01T07:45:00.000Z</t>
+          <t>2024-07-13T09:28:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-06f84bee3de04d8ea89d0d662e49da6f</t>
+          <t>https://www.notion.so/3-6c9a4fbe94ba4813a4442725e44cd033</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="AF6" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr"/>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="AO6" t="n">
-        <v>1000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="AR6" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '5', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '5', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '3', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '3', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
+          <t>5cd2df68-475f-4500-b2d7-678411a240a9</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-06-30T09:08:00.000Z</t>
+          <t>2024-07-12T09:53:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-9c68fce37d4f4432a9b2e94a31b35cb8</t>
+          <t>https://www.notion.so/4-5cd2df68475f4500b2d7678411a240a9</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="AF7" t="n">
-        <v>4500000</v>
+        <v>21000000</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr"/>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="AO7" t="n">
-        <v>4500000</v>
+        <v>20650000</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="AR7" t="n">
-        <v>4500000</v>
+        <v>21000000</v>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '6', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '6', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '4', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '4', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
+          <t>9afdbbb6-3c71-4c0c-9dde-e729964648b8</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-06-29T09:34:00.000Z</t>
+          <t>2024-07-11T06:12:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-f4840e299c1d43c3837e0d16a331afc5</t>
+          <t>https://www.notion.so/5-9afdbbb63c714c0c9ddee729964648b8</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>15000000</v>
+        <v>3000000</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>1700000</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="AF8" t="n">
-        <v>30000000</v>
+        <v>4000000</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="AO8" t="n">
-        <v>13300000</v>
+        <v>1000000</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="AR8" t="n">
-        <v>15000000</v>
+        <v>1000000</v>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '7', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '7', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '5', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '5', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
+          <t>fb2d1794-0cdc-46f0-a9a1-07162fa1770c</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-06-27T05:20:00.000Z</t>
+          <t>2024-07-09T08:22:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-413abd2bd960425d830b670598ce73e3</t>
+          <t>https://www.notion.so/6-fb2d17940cdc46f0a9a107162fa1770c</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>1030000</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="AF9" t="n">
-        <v>10000000</v>
+        <v>4500000</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr"/>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="AO9" t="n">
-        <v>8970000</v>
+        <v>4500000</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="AR9" t="n">
-        <v>10000000</v>
+        <v>4500000</v>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '8', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '8', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '6', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '6', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
+          <t>107624f7-7695-4a1b-b0ba-d8f486d99ffc</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-07-08T04:11:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-7f65d6ca1a4147e390c31c67b654a580</t>
+          <t>https://www.notion.so/7-107624f776954a1bb0bad8f486d99ffc</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>25000000</v>
+        <v>15000000</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>500000</v>
+        <v>1700000</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="AF10" t="n">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="AO10" t="n">
-        <v>9500000</v>
+        <v>13300000</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="AR10" t="n">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '9', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '9', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '7', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '7', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
+          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-07-06T08:51:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-5368b5a82d914fc3a5f194c7162f5048</t>
+          <t>https://www.notion.so/8-77beaf39139f468c8b7a9dfbffdc34ce</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>9324000</v>
+        <v>1030000</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="AF11" t="n">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="AO11" t="n">
-        <v>676000</v>
+        <v>8970000</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '10', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '10', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '8', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '8', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
+          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-07-04T03:57:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:15:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-8701f2d293c34e0085672e3e7631cdb8</t>
+          <t>https://www.notion.so/9-0344784760f74bcc9b55b672299a1911</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>17700000</v>
+        <v>500000</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="AF12" t="n">
-        <v>11000000</v>
+        <v>35000000</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="AO12" t="n">
-        <v>-6700000</v>
+        <v>9500000</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="AR12" t="n">
-        <v>11000000</v>
+        <v>10000000</v>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '11', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '11', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '9', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '9', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
+          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-07-03T09:52:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-456dae273fe84d68bdf84f10f987d889</t>
+          <t>https://www.notion.so/10-d37aca6076a9490aa5ce5ba95dc756e3</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>350000</v>
+        <v>9324000</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="AO13" t="n">
-        <v>-350000</v>
+        <v>676000</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '12', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '12', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '10', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '10', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
+          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-07-02T02:58:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-ccfa10878ca8496b8e932819f304be25</t>
+          <t>https://www.notion.so/11-e0bee04d4ecb4601928c0d8895b609ff</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>55000</v>
+        <v>17700000</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr"/>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="AO14" t="n">
-        <v>-55000</v>
+        <v>-6700000</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>11000000</v>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '13', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '13', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '11', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '11', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
+          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-07-01T07:45:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-1c8d62843aae418c92089c391cbbf64d</t>
+          <t>https://www.notion.so/12-06f84bee3de04d8ea89d0d662e49da6f</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>350000</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="AF15" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr"/>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="AO15" t="n">
-        <v>1500000</v>
+        <v>-350000</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="AR15" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '14', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '14', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '12', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '12', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
+          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-06-30T09:08:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-ac86b813bcdf4436856ff6d3737b416c</t>
+          <t>https://www.notion.so/13-9c68fce37d4f4432a9b2e94a31b35cb8</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>9700000</v>
+        <v>55000</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="AF16" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr"/>
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="AO16" t="n">
-        <v>-7700000</v>
+        <v>-55000</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="AR16" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '15', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '15', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '13', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '13', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
+          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-06-29T09:34:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-8e3a71e5f9274e4fb215d54c0188294e</t>
+          <t>https://www.notion.so/14-f4840e299c1d43c3837e0d16a331afc5</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="AF17" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr"/>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="AO17" t="n">
-        <v>8000000</v>
+        <v>1500000</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="AR17" t="n">
-        <v>10000000</v>
+        <v>1500000</v>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '16', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '16', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '14', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '14', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
+          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-06-27T05:20:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-bc3f46b564954ce290fb3abd2ad49c48</t>
+          <t>https://www.notion.so/15-413abd2bd960425d830b670598ce73e3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>250000</v>
+        <v>9700000</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="AF18" t="n">
-        <v>10000000</v>
+        <v>2000000</v>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr"/>
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="AO18" t="n">
-        <v>4750000</v>
+        <v>-7700000</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="AR18" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '17', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '17', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '15', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '15', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
+          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-2dcf2fedb2f345f787374acf8616b370</t>
+          <t>https://www.notion.so/16-7f65d6ca1a4147e390c31c67b654a580</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>150000</v>
+        <v>2000000</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="AF19" t="n">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="AO19" t="n">
-        <v>9850000</v>
+        <v>8000000</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '18', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '18', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '16', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '16', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
+          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-887b24410fb94d5d86f359c23164bb5d</t>
+          <t>https://www.notion.so/17-5368b5a82d914fc3a5f194c7162f5048</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>145000</v>
+        <v>250000</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="AF20" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr"/>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="AO20" t="n">
-        <v>2855000</v>
+        <v>4750000</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="AR20" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '19', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '19', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '17', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '17', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
+          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-b002fbe7cff2401fb9bad07fd6cc561f</t>
+          <t>https://www.notion.so/18-8701f2d293c34e0085672e3e7631cdb8</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>1700000</v>
+        <v>150000</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr"/>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="AO21" t="n">
-        <v>-1700000</v>
+        <v>9850000</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '20', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '20', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '18', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '18', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
+          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-df6bda30993c4e7aab4794d2c47b686c</t>
+          <t>https://www.notion.so/19-456dae273fe84d68bdf84f10f987d889</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4770,7 +4770,7 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>145000</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr"/>
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="AO22" t="n">
-        <v>3000000</v>
+        <v>2855000</v>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '21', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '21', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '19', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '19', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
+          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-05ebb8d49dc141599836122e738bf488</t>
+          <t>https://www.notion.so/20-ccfa10878ca8496b8e932819f304be25</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>1050000</v>
+        <v>1700000</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="AF23" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr"/>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="AO23" t="n">
-        <v>-550000</v>
+        <v>-1700000</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="AR23" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '22', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '22', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '20', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '20', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5056,17 +5056,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
+          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-2ac05bc7172c4aa4b654799d67afe9e3</t>
+          <t>https://www.notion.so/21-1c8d62843aae418c92089c391cbbf64d</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>14000000</v>
+        <v>0</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -5155,34 +5155,34 @@
         </is>
       </c>
       <c r="Z24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF24" t="n">
         <v>3000000</v>
       </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>Vds%5C</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AC24" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>bwGG</t>
-        </is>
-      </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AF24" t="n">
-        <v>5500000</v>
-      </c>
       <c r="AG24" t="inlineStr">
         <is>
           <t>kciy</t>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr"/>
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="AO24" t="n">
-        <v>14000000</v>
+        <v>3000000</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="AR24" t="n">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '23', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '23', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '21', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '21', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5255,17 +5255,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
+          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-ffe6c77991f74c50b15dd0453a138e44</t>
+          <t>https://www.notion.so/22-ac86b813bcdf4436856ff6d3737b416c</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>15110000</v>
+        <v>1050000</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="AF25" t="n">
-        <v>40500000</v>
+        <v>500000</v>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-04-07</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr"/>
@@ -5415,7 +5415,7 @@
         </is>
       </c>
       <c r="AO25" t="n">
-        <v>25390000</v>
+        <v>-550000</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="AR25" t="n">
-        <v>40500000</v>
+        <v>500000</v>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '24', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '24', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '22', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '22', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5454,17 +5454,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
+          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-2b0f762dd9a1460ab13f2736f1b47f93</t>
+          <t>https://www.notion.so/23-8e3a71e5f9274e4fb215d54c0188294e</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5535,26 +5535,26 @@
         </is>
       </c>
       <c r="V26" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z26" t="n">
         <v>3000000</v>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>Q%5B%5Bp</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>Vds%5C</t>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>190000</v>
+        <v>2500000</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>5500000</v>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr"/>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="AO26" t="n">
-        <v>2810000</v>
+        <v>14000000</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '25', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '25', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '23', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '23', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5653,17 +5653,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
+          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-8716b812f61b4f9c90a0142d28bdca52</t>
+          <t>https://www.notion.so/24-bc3f46b564954ce290fb3abd2ad49c48</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>15110000</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="AF27" t="n">
-        <v>1000000</v>
+        <v>40500000</v>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr"/>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="AO27" t="n">
-        <v>1000000</v>
+        <v>25390000</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="AR27" t="n">
-        <v>1000000</v>
+        <v>40500000</v>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '26', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '26', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '24', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '24', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5852,17 +5852,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
+          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-670caeaf380a49d780a2f4774180a454</t>
+          <t>https://www.notion.so/25-2dcf2fedb2f345f787374acf8616b370</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>1140000</v>
+        <v>190000</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="AF28" t="n">
-        <v>1900000</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr"/>
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="AO28" t="n">
-        <v>760000</v>
+        <v>2810000</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="AR28" t="n">
-        <v>1900000</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '27', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '27', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '25', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '25', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6051,17 +6051,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
+          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-4159c13e192d4b3ca97a4b8514d8725c</t>
+          <t>https://www.notion.so/26-887b24410fb94d5d86f359c23164bb5d</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>2024-04-14</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr"/>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="AO29" t="n">
-        <v>-18000000</v>
+        <v>1000000</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '28', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '28', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '26', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '26', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6250,17 +6250,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
+          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-cf3e7eac935546569394e931803f630d</t>
+          <t>https://www.notion.so/27-b002fbe7cff2401fb9bad07fd6cc561f</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6318,7 +6318,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>4745000</v>
+        <v>1140000</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         </is>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1900000</v>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr"/>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="AO30" t="n">
-        <v>-4745000</v>
+        <v>760000</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>1900000</v>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '29', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '29', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '27', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '27', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
+          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-9df7353497164a8ab24939853ee869da</t>
+          <t>https://www.notion.so/28-df6bda30993c4e7aab4794d2c47b686c</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         </is>
       </c>
       <c r="Z31" t="n">
-        <v>14000000</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>27996000</v>
+        <v>18000000</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         </is>
       </c>
       <c r="AF31" t="n">
-        <v>39000000</v>
+        <v>0</v>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2024-04-14</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr"/>
@@ -6609,7 +6609,7 @@
         </is>
       </c>
       <c r="AO31" t="n">
-        <v>-2996000</v>
+        <v>-18000000</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="AR31" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '30', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '30', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '28', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '28', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
+          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-5346b50987b446f79918eecb88e8cf6a</t>
+          <t>https://www.notion.so/29-05ebb8d49dc141599836122e738bf488</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>775000</v>
+        <v>4745000</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="AF32" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr"/>
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="AO32" t="n">
-        <v>1225000</v>
+        <v>-4745000</v>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="AR32" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '31', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '31', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '29', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '29', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
+          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-a5122c4330234baabe9f0dd89011734c</t>
+          <t>https://www.notion.so/30-2ac05bc7172c4aa4b654799d67afe9e3</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="Z33" t="n">
-        <v>500000</v>
+        <v>14000000</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>2000000</v>
+        <v>27996000</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="AF33" t="n">
-        <v>2500000</v>
+        <v>39000000</v>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-21</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr"/>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="AO33" t="n">
-        <v>0</v>
+        <v>-2996000</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="AR33" t="n">
-        <v>2000000</v>
+        <v>25000000</v>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '32', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '32', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '30', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '30', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
+          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-a532e7cf90914f2e9e8d88f03ae7f109</t>
+          <t>https://www.notion.so/31-ffe6c77991f74c50b15dd0453a138e44</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7158,7 +7158,7 @@
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>250000</v>
+        <v>775000</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="AF34" t="n">
-        <v>12000000</v>
+        <v>2000000</v>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr"/>
@@ -7206,7 +7206,7 @@
         </is>
       </c>
       <c r="AO34" t="n">
-        <v>11750000</v>
+        <v>1225000</v>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="AR34" t="n">
-        <v>12000000</v>
+        <v>2000000</v>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '33', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '33', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '31', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '31', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
+          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-ecbeca945cb643fdb3eaaa736eb36655</t>
+          <t>https://www.notion.so/32-2b0f762dd9a1460ab13f2736f1b47f93</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7313,7 +7313,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>2200000</v>
+        <v>2000000</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         </is>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr"/>
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="AO35" t="n">
-        <v>-2200000</v>
+        <v>0</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '34', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '34', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '32', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '32', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
+          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-08T01:58:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-0cb9eb84b38a4c77b4fbc39974d76a86</t>
+          <t>https://www.notion.so/33-8716b812f61b4f9c90a0142d28bdca52</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>250000</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         </is>
       </c>
       <c r="AF36" t="n">
-        <v>60000000</v>
+        <v>12000000</v>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr"/>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="AO36" t="n">
-        <v>53000000</v>
+        <v>11750000</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="AR36" t="n">
-        <v>53000000</v>
+        <v>12000000</v>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '35', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '35', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '33', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '33', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
+          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-71579228ff4f4c82ab8de40170d28c84</t>
+          <t>https://www.notion.so/34-670caeaf380a49d780a2f4774180a454</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="Z37" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="AF37" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>2024-05-05</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr"/>
@@ -7803,7 +7803,7 @@
         </is>
       </c>
       <c r="AO37" t="n">
-        <v>10000000</v>
+        <v>-2200000</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         </is>
       </c>
       <c r="AR37" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '36', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '36', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '34', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '34', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
+          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-808bf9c3006a400293f08edfcc7f0f77</t>
+          <t>https://www.notion.so/35-4159c13e192d4b3ca97a4b8514d8725c</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -7910,7 +7910,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -7923,26 +7923,26 @@
         </is>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z38" t="n">
         <v>7000000</v>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>Q%5B%5Bp</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="Z38" t="n">
-        <v>0</v>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>Vds%5C</t>
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>60000000</v>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr"/>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="AO38" t="n">
-        <v>7000000</v>
+        <v>53000000</v>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         </is>
       </c>
       <c r="AR38" t="n">
-        <v>0</v>
+        <v>53000000</v>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="AU38" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '37', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '37', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '35', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '35', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
+          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-f6aa15d581a744cdb711a7c11cd8091b</t>
+          <t>https://www.notion.so/36-cf3e7eac935546569394e931803f630d</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         </is>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
+          <t>2024-05-05</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr"/>
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="AO39" t="n">
-        <v>-2500000</v>
+        <v>10000000</v>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="AR39" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '38', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '38', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '36', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '36', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
+          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-8f93fb5b6434414db1585a6d8373e0cb</t>
+          <t>https://www.notion.so/37-9df7353497164a8ab24939853ee869da</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="AF40" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr"/>
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="AO40" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         </is>
       </c>
       <c r="AR40" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="AU40" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '39', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '39', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '37', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '37', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
+          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-5f697f46bc4547b0af9fb79d2f89615c</t>
+          <t>https://www.notion.so/38-5346b50987b446f79918eecb88e8cf6a</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>1300000</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         </is>
       </c>
       <c r="AF41" t="n">
-        <v>2300000</v>
+        <v>0</v>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr"/>
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="AO41" t="n">
-        <v>1000000</v>
+        <v>-2500000</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="AR41" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AS41" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '40', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '40', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '38', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '38', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
+          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-0d51e83ddaba4f7f98a5265e6f893acc</t>
+          <t>https://www.notion.so/39-a5122c4330234baabe9f0dd89011734c</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="Z42" t="n">
-        <v>17000000</v>
+        <v>2000000</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="AC42" t="n">
-        <v>6590000</v>
+        <v>0</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="AF42" t="n">
-        <v>25000000</v>
+        <v>6000000</v>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr"/>
@@ -8798,7 +8798,7 @@
         </is>
       </c>
       <c r="AO42" t="n">
-        <v>1410000</v>
+        <v>4000000</v>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         </is>
       </c>
       <c r="AR42" t="n">
-        <v>8000000</v>
+        <v>4000000</v>
       </c>
       <c r="AS42" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="AU42" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '41', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '41', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '39', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '39', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
+          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-b6442ee624444519ba61ee66f711f543</t>
+          <t>https://www.notion.so/40-a532e7cf90914f2e9e8d88f03ae7f109</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -8905,7 +8905,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="V43" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         </is>
       </c>
       <c r="Z43" t="n">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         </is>
       </c>
       <c r="AF43" t="n">
-        <v>0</v>
+        <v>2300000</v>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr"/>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="AO43" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AS43" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '42', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '42', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '40', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '40', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
+          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
+          <t>https://www.notion.so/41-ecbeca945cb643fdb3eaaa736eb36655</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9104,7 +9104,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="V44" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>17000000</v>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         </is>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>6590000</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         </is>
       </c>
       <c r="AF44" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="AO44" t="n">
-        <v>7000000</v>
+        <v>1410000</v>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         </is>
       </c>
       <c r="AR44" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="AS44" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="AU44" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '43', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '43', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '41', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '41', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
+          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-15T10:24:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
+          <t>https://www.notion.so/42-0cb9eb84b38a4c77b4fbc39974d76a86</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         </is>
       </c>
       <c r="AC45" t="n">
-        <v>130000</v>
+        <v>0</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr"/>
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="AO45" t="n">
-        <v>-130000</v>
+        <v>2000000</v>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '44', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '44', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '42', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '42', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
+          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-5ae18489d18540dbbfc41263a08c863e</t>
+          <t>https://www.notion.so/43-71579228ff4f4c82ab8de40170d28c84</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9515,7 +9515,7 @@
         </is>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>730000</v>
+        <v>0</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="AJ46" t="inlineStr"/>
@@ -9594,7 +9594,7 @@
         </is>
       </c>
       <c r="AO46" t="n">
-        <v>-730000</v>
+        <v>7000000</v>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="AU46" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '45', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '45', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '43', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '43', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
+          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:16:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-2cc2a8737fd94612a974d6e1f3cfcad0</t>
+          <t>https://www.notion.so/44-808bf9c3006a400293f08edfcc7f0f77</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9701,7 +9701,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>1000000</v>
+        <v>130000</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         </is>
       </c>
       <c r="AF47" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr"/>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="AO47" t="n">
-        <v>6000000</v>
+        <v>-130000</v>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="AR47" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="AS47" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '46', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '46', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '44', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '44', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
+          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-1bbc9ed697b3463aa7073252641dd198</t>
+          <t>https://www.notion.so/45-f6aa15d581a744cdb711a7c11cd8091b</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="AC48" t="n">
-        <v>250000</v>
+        <v>730000</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>2024-06-08</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="AJ48" t="inlineStr"/>
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="AO48" t="n">
-        <v>-250000</v>
+        <v>-730000</v>
       </c>
       <c r="AP48" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="AU48" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '47', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '47', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '45', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '45', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
+          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
+          <t>https://www.notion.so/46-8f93fb5b6434414db1585a6d8373e0cb</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10143,7 +10143,7 @@
         </is>
       </c>
       <c r="AC49" t="n">
-        <v>1100000</v>
+        <v>1000000</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         </is>
       </c>
       <c r="AF49" t="n">
-        <v>30000000</v>
+        <v>7000000</v>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>2024-06-09</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="AJ49" t="inlineStr"/>
@@ -10191,7 +10191,7 @@
         </is>
       </c>
       <c r="AO49" t="n">
-        <v>28900000</v>
+        <v>6000000</v>
       </c>
       <c r="AP49" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         </is>
       </c>
       <c r="AR49" t="n">
-        <v>30000000</v>
+        <v>7000000</v>
       </c>
       <c r="AS49" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
       </c>
       <c r="AU49" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '48', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '48', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '46', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '46', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
+          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-de2a36cf877144f0a9a3cd55abfe271b</t>
+          <t>https://www.notion.so/47-5f697f46bc4547b0af9fb79d2f89615c</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="AC50" t="n">
-        <v>150000</v>
+        <v>250000</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-08</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr"/>
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="AO50" t="n">
-        <v>-150000</v>
+        <v>-250000</v>
       </c>
       <c r="AP50" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="AU50" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '49', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '49', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '47', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '47', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
+          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-52391eb5b8b04d4ca021f5c63b61d834</t>
+          <t>https://www.notion.so/48-0d51e83ddaba4f7f98a5265e6f893acc</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10541,7 +10541,7 @@
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>2330000</v>
+        <v>1100000</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         </is>
       </c>
       <c r="AF51" t="n">
-        <v>2800000</v>
+        <v>30000000</v>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-09</t>
         </is>
       </c>
       <c r="AJ51" t="inlineStr"/>
@@ -10589,7 +10589,7 @@
         </is>
       </c>
       <c r="AO51" t="n">
-        <v>470000</v>
+        <v>28900000</v>
       </c>
       <c r="AP51" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         </is>
       </c>
       <c r="AR51" t="n">
-        <v>2800000</v>
+        <v>30000000</v>
       </c>
       <c r="AS51" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="AU51" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '50', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '50', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '48', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '48', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
+          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-68bb50dcb72047b7998376df9b3742f6</t>
+          <t>https://www.notion.so/49-b6442ee624444519ba61ee66f711f543</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>1266000</v>
+        <v>150000</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         </is>
       </c>
       <c r="AF52" t="n">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr"/>
@@ -10788,7 +10788,7 @@
         </is>
       </c>
       <c r="AO52" t="n">
-        <v>5234000</v>
+        <v>-150000</v>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         </is>
       </c>
       <c r="AR52" t="n">
-        <v>6500000</v>
+        <v>0</v>
       </c>
       <c r="AS52" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '51', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '51', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '49', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '49', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
+          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-58b1fa10c5cf4bcdbe34669b0c698923</t>
+          <t>https://www.notion.so/50-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -10895,7 +10895,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         </is>
       </c>
       <c r="AC53" t="n">
-        <v>3050000</v>
+        <v>2330000</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         </is>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="AJ53" t="inlineStr"/>
@@ -10987,7 +10987,7 @@
         </is>
       </c>
       <c r="AO53" t="n">
-        <v>-3050000</v>
+        <v>470000</v>
       </c>
       <c r="AP53" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         </is>
       </c>
       <c r="AR53" t="n">
-        <v>0</v>
+        <v>2800000</v>
       </c>
       <c r="AS53" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="AU53" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '52', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '52', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '50', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '50', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
+          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-c3ede5ddeeba4a2687538586469f6e8a</t>
+          <t>https://www.notion.so/51-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11138,7 +11138,7 @@
         </is>
       </c>
       <c r="AC54" t="n">
-        <v>240000</v>
+        <v>1266000</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         </is>
       </c>
       <c r="AF54" t="n">
-        <v>8000000</v>
+        <v>6500000</v>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="AJ54" t="inlineStr"/>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="AO54" t="n">
-        <v>7760000</v>
+        <v>5234000</v>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         </is>
       </c>
       <c r="AR54" t="n">
-        <v>8000000</v>
+        <v>6500000</v>
       </c>
       <c r="AS54" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="AU54" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '53', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '53', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '51', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '51', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
+          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-08T01:55:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-46806830e1bd4cb594a526deedae2a38</t>
+          <t>https://www.notion.so/52-5ae18489d18540dbbfc41263a08c863e</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11293,7 +11293,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         </is>
       </c>
       <c r="V55" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>75000</v>
+        <v>3050000</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="AF55" t="n">
-        <v>4400000</v>
+        <v>0</v>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="AJ55" t="inlineStr"/>
@@ -11385,7 +11385,7 @@
         </is>
       </c>
       <c r="AO55" t="n">
-        <v>8325000</v>
+        <v>-3050000</v>
       </c>
       <c r="AP55" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         </is>
       </c>
       <c r="AR55" t="n">
-        <v>4400000</v>
+        <v>0</v>
       </c>
       <c r="AS55" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="AU55" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '54', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '54', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '52', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '52', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
+          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-2e1d33d8b8334ccaacee1f03482d66eb</t>
+          <t>https://www.notion.so/53-2cc2a8737fd94612a974d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11492,7 +11492,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         </is>
       </c>
       <c r="V56" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         </is>
       </c>
       <c r="Z56" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         </is>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         </is>
       </c>
       <c r="AF56" t="n">
-        <v>7500000</v>
+        <v>8000000</v>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="AJ56" t="inlineStr"/>
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="AO56" t="n">
-        <v>5500000</v>
+        <v>7760000</v>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         </is>
       </c>
       <c r="AR56" t="n">
-        <v>4500000</v>
+        <v>8000000</v>
       </c>
       <c r="AS56" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="AU56" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '55', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '55', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '53', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '53', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
+          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-96324ff37f5948f0b916fc6536c5dade</t>
+          <t>https://www.notion.so/54-1bbc9ed697b3463aa7073252641dd198</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11691,7 +11691,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         </is>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="Z57" t="n">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         </is>
       </c>
       <c r="AC57" t="n">
-        <v>500000</v>
+        <v>75000</v>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         </is>
       </c>
       <c r="AF57" t="n">
-        <v>3500000</v>
+        <v>4400000</v>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr"/>
@@ -11783,7 +11783,7 @@
         </is>
       </c>
       <c r="AO57" t="n">
-        <v>2300000</v>
+        <v>8325000</v>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="AR57" t="n">
-        <v>2800000</v>
+        <v>4400000</v>
       </c>
       <c r="AS57" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '56', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '56', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '54', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '54', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
+          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-0e7dfb28877148948e464365dc6f2ad2</t>
+          <t>https://www.notion.so/55-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -11890,7 +11890,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         </is>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="Z58" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>18376000</v>
+        <v>0</v>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         </is>
       </c>
       <c r="AF58" t="n">
-        <v>0</v>
+        <v>7500000</v>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AJ58" t="inlineStr"/>
@@ -11982,7 +11982,7 @@
         </is>
       </c>
       <c r="AO58" t="n">
-        <v>-18376000</v>
+        <v>5500000</v>
       </c>
       <c r="AP58" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         </is>
       </c>
       <c r="AR58" t="n">
-        <v>0</v>
+        <v>4500000</v>
       </c>
       <c r="AS58" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="AU58" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '57', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '57', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '55', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '55', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
+          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-843f0e9037ff45919e450424e4cbac9e</t>
+          <t>https://www.notion.so/56-de2a36cf877144f0a9a3cd55abfe271b</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12102,26 +12102,26 @@
         </is>
       </c>
       <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z59" t="n">
         <v>700000</v>
       </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>Q%5B%5Bp</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>formula</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="Z59" t="n">
-        <v>0</v>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>Vds%5C</t>
@@ -12133,7 +12133,7 @@
         </is>
       </c>
       <c r="AC59" t="n">
-        <v>1584000</v>
+        <v>500000</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="AF59" t="n">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="AJ59" t="inlineStr"/>
@@ -12181,7 +12181,7 @@
         </is>
       </c>
       <c r="AO59" t="n">
-        <v>2116000</v>
+        <v>2300000</v>
       </c>
       <c r="AP59" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         </is>
       </c>
       <c r="AR59" t="n">
-        <v>3000000</v>
+        <v>2800000</v>
       </c>
       <c r="AS59" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="AU59" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '58', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '58', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '56', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '56', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
+          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-6049f3d742d048388a7a1856688cc253</t>
+          <t>https://www.notion.so/57-52391eb5b8b04d4ca021f5c63b61d834</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="AC60" t="n">
-        <v>200000</v>
+        <v>18376000</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AJ60" t="inlineStr"/>
@@ -12380,7 +12380,7 @@
         </is>
       </c>
       <c r="AO60" t="n">
-        <v>-200000</v>
+        <v>-18376000</v>
       </c>
       <c r="AP60" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="AU60" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '59', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '59', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '57', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '57', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
+          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-612cdb5927f9493bb67472aff3b5927b</t>
+          <t>https://www.notion.so/58-68bb50dcb72047b7998376df9b3742f6</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         </is>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         </is>
       </c>
       <c r="AC61" t="n">
-        <v>0</v>
+        <v>1584000</v>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         </is>
       </c>
       <c r="AF61" t="n">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="AG61" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AJ61" t="inlineStr"/>
@@ -12579,7 +12579,7 @@
         </is>
       </c>
       <c r="AO61" t="n">
-        <v>8900000</v>
+        <v>2116000</v>
       </c>
       <c r="AP61" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         </is>
       </c>
       <c r="AR61" t="n">
-        <v>8900000</v>
+        <v>3000000</v>
       </c>
       <c r="AS61" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="AU61" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '60', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '60', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '58', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '58', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
+          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-27085ca3d5144473a3bbda984c52e7e4</t>
+          <t>https://www.notion.so/59-58b1fa10c5cf4bcdbe34669b0c698923</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12686,7 +12686,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         </is>
       </c>
       <c r="AC62" t="n">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         </is>
       </c>
       <c r="AF62" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="AJ62" t="inlineStr"/>
@@ -12778,7 +12778,7 @@
         </is>
       </c>
       <c r="AO62" t="n">
-        <v>0</v>
+        <v>-200000</v>
       </c>
       <c r="AP62" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         </is>
       </c>
       <c r="AR62" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AS62" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '61', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '61', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '59', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '59', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
+          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-5be9f11cc64f4f61bb71e7d2fbf96855</t>
+          <t>https://www.notion.so/60-c3ede5ddeeba4a2687538586469f6e8a</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         </is>
       </c>
       <c r="AC63" t="n">
-        <v>4749000</v>
+        <v>0</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="AF63" t="n">
-        <v>0</v>
+        <v>8900000</v>
       </c>
       <c r="AG63" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="AJ63" t="inlineStr"/>
@@ -12977,7 +12977,7 @@
         </is>
       </c>
       <c r="AO63" t="n">
-        <v>-4749000</v>
+        <v>8900000</v>
       </c>
       <c r="AP63" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         </is>
       </c>
       <c r="AR63" t="n">
-        <v>0</v>
+        <v>8900000</v>
       </c>
       <c r="AS63" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="AU63" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '62', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '62', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '60', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '60', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
+          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-3f9e3e71188e48d5997a71070175e42b</t>
+          <t>https://www.notion.so/61-46806830e1bd4cb594a526deedae2a38</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="Z64" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         </is>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         </is>
       </c>
       <c r="AF64" t="n">
-        <v>3000000</v>
+        <v>1000000</v>
       </c>
       <c r="AG64" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="AJ64" t="inlineStr"/>
@@ -13176,7 +13176,7 @@
         </is>
       </c>
       <c r="AO64" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AP64" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         </is>
       </c>
       <c r="AR64" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="AS64" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="AU64" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '63', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '63', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '61', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '61', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
+          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-c4a99c5cf44e4039a0458ad12b4f6046</t>
+          <t>https://www.notion.so/62-2e1d33d8b8334ccaacee1f03482d66eb</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13327,7 +13327,7 @@
         </is>
       </c>
       <c r="AC65" t="n">
-        <v>213000</v>
+        <v>4749000</v>
       </c>
       <c r="AD65" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AJ65" t="inlineStr"/>
@@ -13375,7 +13375,7 @@
         </is>
       </c>
       <c r="AO65" t="n">
-        <v>-213000</v>
+        <v>-4749000</v>
       </c>
       <c r="AP65" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
       </c>
       <c r="AU65" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '64', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '64', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '62', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '62', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -13414,17 +13414,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
+          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2024-06-25T15:36:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-214991f646494c4db5957aa6576c69ad</t>
+          <t>https://www.notion.so/63-96324ff37f5948f0b916fc6536c5dade</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         </is>
       </c>
       <c r="V66" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="Z66" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         </is>
       </c>
       <c r="AC66" t="n">
-        <v>2187000</v>
+        <v>0</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         </is>
       </c>
       <c r="AF66" t="n">
-        <v>11100000</v>
+        <v>3000000</v>
       </c>
       <c r="AG66" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AJ66" t="inlineStr"/>
@@ -13574,7 +13574,7 @@
         </is>
       </c>
       <c r="AO66" t="n">
-        <v>9913000</v>
+        <v>1500000</v>
       </c>
       <c r="AP66" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         </is>
       </c>
       <c r="AR66" t="n">
-        <v>11100000</v>
+        <v>1500000</v>
       </c>
       <c r="AS66" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
       </c>
       <c r="AU66" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '65', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '65', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '63', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '63', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -13613,17 +13613,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
+          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2024-06-25T15:36:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-d9f9ae69896d4f76b57208645f10e3fa</t>
+          <t>https://www.notion.so/64-0e7dfb28877148948e464365dc6f2ad2</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13694,7 +13694,7 @@
         </is>
       </c>
       <c r="V67" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="AC67" t="n">
-        <v>1080000</v>
+        <v>213000</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr"/>
@@ -13773,7 +13773,7 @@
         </is>
       </c>
       <c r="AO67" t="n">
-        <v>920000</v>
+        <v>-213000</v>
       </c>
       <c r="AP67" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '66', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '66', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '64', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '64', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -13812,17 +13812,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
+          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2024-06-25T15:36:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-73f7f862f11441db92210fde8f9c580d</t>
+          <t>https://www.notion.so/65-843f0e9037ff45919e450424e4cbac9e</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -13880,7 +13880,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="AC68" t="n">
-        <v>13758000</v>
+        <v>2187000</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         </is>
       </c>
       <c r="AF68" t="n">
-        <v>3500000</v>
+        <v>11100000</v>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="AJ68" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
         </is>
       </c>
       <c r="AO68" t="n">
-        <v>-10258000</v>
+        <v>9913000</v>
       </c>
       <c r="AP68" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         </is>
       </c>
       <c r="AR68" t="n">
-        <v>3500000</v>
+        <v>11100000</v>
       </c>
       <c r="AS68" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
       </c>
       <c r="AU68" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '67', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '67', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '65', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '65', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -14011,17 +14011,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
+          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2024-06-25T15:36:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-631d954b83a847d48683983aad0b002d</t>
+          <t>https://www.notion.so/66-6049f3d742d048388a7a1856688cc253</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14079,7 +14079,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         </is>
       </c>
       <c r="AC69" t="n">
-        <v>6800000</v>
+        <v>1080000</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         </is>
       </c>
       <c r="AF69" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AG69" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
       </c>
       <c r="AI69" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="AJ69" t="inlineStr"/>
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="AO69" t="n">
-        <v>-3800000</v>
+        <v>920000</v>
       </c>
       <c r="AP69" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         </is>
       </c>
       <c r="AR69" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AS69" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
       </c>
       <c r="AU69" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '68', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '68', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '66', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '66', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -14210,17 +14210,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
+          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2024-06-25T15:36:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-3e313c4511094d1996f73d46baff66af</t>
+          <t>https://www.notion.so/67-612cdb5927f9493bb67472aff3b5927b</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14291,7 +14291,7 @@
         </is>
       </c>
       <c r="V70" t="n">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         </is>
       </c>
       <c r="AC70" t="n">
-        <v>530000</v>
+        <v>13758000</v>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         </is>
       </c>
       <c r="AF70" t="n">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="AG70" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr"/>
@@ -14370,7 +14370,7 @@
         </is>
       </c>
       <c r="AO70" t="n">
-        <v>1770000</v>
+        <v>-10258000</v>
       </c>
       <c r="AP70" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         </is>
       </c>
       <c r="AR70" t="n">
-        <v>1500000</v>
+        <v>3500000</v>
       </c>
       <c r="AS70" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="AU70" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '69', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '69', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '67', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '67', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -14409,17 +14409,17 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
+          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2024-06-25T08:24:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-15dc290bde0b4ca9ba770946c5f13582</t>
+          <t>https://www.notion.so/68-27085ca3d5144473a3bbda984c52e7e4</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -14477,7 +14477,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="AC71" t="n">
-        <v>1280000</v>
+        <v>1800000</v>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         </is>
       </c>
       <c r="AF71" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AG71" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
       </c>
       <c r="AI71" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="AJ71" t="inlineStr"/>
@@ -14569,7 +14569,7 @@
         </is>
       </c>
       <c r="AO71" t="n">
-        <v>-1280000</v>
+        <v>1200000</v>
       </c>
       <c r="AP71" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         </is>
       </c>
       <c r="AR71" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AS71" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
       </c>
       <c r="AU71" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '70', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '70', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '68', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '68', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -14608,17 +14608,17 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
+          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2024-06-25T08:24:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-85a1185c5d12479f808c48ad22a864c1</t>
+          <t>https://www.notion.so/69-5be9f11cc64f4f61bb71e7d2fbf96855</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14642,7 +14642,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -14676,7 +14676,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         </is>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         </is>
       </c>
       <c r="AC72" t="n">
-        <v>40000</v>
+        <v>530000</v>
       </c>
       <c r="AD72" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="AF72" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="AJ72" t="inlineStr"/>
@@ -14768,7 +14768,7 @@
         </is>
       </c>
       <c r="AO72" t="n">
-        <v>-40000</v>
+        <v>1770000</v>
       </c>
       <c r="AP72" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         </is>
       </c>
       <c r="AR72" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AS72" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '71', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '71', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '69', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '69', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -14807,17 +14807,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2024-06-25T08:24:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-08T01:56:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-b4c82aa77e7f4289b0ba1b14e683031d</t>
+          <t>https://www.notion.so/70-3f9e3e71188e48d5997a71070175e42b</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -14841,7 +14841,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
@@ -14919,7 +14919,7 @@
         </is>
       </c>
       <c r="AC73" t="n">
-        <v>685000</v>
+        <v>1280000</v>
       </c>
       <c r="AD73" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
       </c>
       <c r="AI73" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="AJ73" t="inlineStr"/>
@@ -14967,34 +14967,1825 @@
         </is>
       </c>
       <c r="AO73" t="n">
+        <v>-1280000</v>
+      </c>
+      <c r="AP73" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ73" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU73" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '70', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '70', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2024-06-25T15:39:00.000Z</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2024-07-17T12:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/71-c4a99c5cf44e4039a0458ad12b4f6046</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC74" t="n">
+        <v>40000</v>
+      </c>
+      <c r="AD74" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE74" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI74" t="inlineStr">
+        <is>
+          <t>2024-07-04</t>
+        </is>
+      </c>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM74" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN74" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO74" t="n">
+        <v>-40000</v>
+      </c>
+      <c r="AP74" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ74" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS74" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU74" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '71', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '71', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2024-06-25T15:36:00.000Z</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2024-07-17T12:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/72-214991f646494c4db5957aa6576c69ad</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC75" t="n">
+        <v>685000</v>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH75" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI75" t="inlineStr">
+        <is>
+          <t>2024-07-06</t>
+        </is>
+      </c>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM75" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN75" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO75" t="n">
         <v>-685000</v>
       </c>
-      <c r="AP73" t="inlineStr">
+      <c r="AP75" t="inlineStr">
         <is>
           <t>pq%3Ci</t>
         </is>
       </c>
-      <c r="AQ73" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="AR73" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS73" t="inlineStr">
+      <c r="AQ75" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR75" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS75" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AT73" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="AU73" t="inlineStr">
+      <c r="AU75" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '72', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '72', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2024-06-25T15:36:00.000Z</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2024-07-17T12:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/73-d9f9ae69896d4f76b57208645f10e3fa</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z76" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD76" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE76" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF76" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="AG76" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH76" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI76" t="inlineStr">
+        <is>
+          <t>2024-07-08</t>
+        </is>
+      </c>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN76" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO76" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AP76" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ76" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR76" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="AS76" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU76" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '73', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '73', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2024-06-25T15:36:00.000Z</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2024-07-17T12:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/74-73f7f862f11441db92210fde8f9c580d</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE77" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF77" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="AG77" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI77" t="inlineStr">
+        <is>
+          <t>2024-07-09</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN77" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO77" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="AP77" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ77" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR77" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="AS77" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU77" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '74', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '74', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2024-06-25T15:36:00.000Z</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2024-07-17T12:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/75-631d954b83a847d48683983aad0b002d</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC78" t="n">
+        <v>108000</v>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE78" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF78" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AG78" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH78" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI78" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM78" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN78" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO78" t="n">
+        <v>1392000</v>
+      </c>
+      <c r="AP78" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ78" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR78" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="AS78" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU78" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '75', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '75', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2024-06-25T15:36:00.000Z</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2024-07-17T12:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/76-3e313c4511094d1996f73d46baff66af</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE79" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF79" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AG79" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH79" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI79" t="inlineStr">
+        <is>
+          <t>2024-07-12</t>
+        </is>
+      </c>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM79" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN79" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO79" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AP79" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ79" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR79" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AS79" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU79" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '76', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '76', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2024-07-17T12:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/77-15dc290bde0b4ca9ba770946c5f13582</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S80" t="n">
+        <v>2</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z80" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC80" t="n">
+        <v>6020000</v>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF80" t="n">
+        <v>13300000</v>
+      </c>
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>2024-07-13</t>
+        </is>
+      </c>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM80" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN80" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO80" t="n">
+        <v>4780000</v>
+      </c>
+      <c r="AP80" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ80" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR80" t="n">
+        <v>10800000</v>
+      </c>
+      <c r="AS80" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU80" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '77', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '77', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2024-07-17T12:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/78-85a1185c5d12479f808c48ad22a864c1</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF81" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH81" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI81" t="inlineStr">
+        <is>
+          <t>2024-07-14</t>
+        </is>
+      </c>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM81" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN81" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO81" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="AP81" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ81" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR81" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT81" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU81" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '78', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '78', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2024-07-17T12:17:00.000Z</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/79-b4c82aa77e7f4289b0ba1b14e683031d</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V82" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH82" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI82" t="inlineStr">
+        <is>
+          <t>2024-07-15</t>
+        </is>
+      </c>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM82" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO82" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="AP82" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ82" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS82" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT82" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU82" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '79', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '79', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-ab7f95ce43b342b183b50578395cef2d</t>
+          <t>https://www.notion.so/1-ab7f95ce43b342b183b50578395cef2d</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -790,7 +790,7 @@
         </is>
       </c>
       <c r="AC2" t="n">
-        <v>5985000</v>
+        <v>1753000</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2024-07-17</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr"/>
@@ -838,7 +838,7 @@
         </is>
       </c>
       <c r="AO2" t="n">
-        <v>-5985000</v>
+        <v>-1753000</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '81', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '81', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '1', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '1', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-3b58dea8d569439c9d2837bc5cb00b87</t>
+          <t>https://www.notion.so/2-3b58dea8d569439c9d2837bc5cb00b87</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>89000</v>
+        <v>546000</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="AF3" t="n">
-        <v>7000000</v>
+        <v>10000000</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr"/>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="AO3" t="n">
-        <v>6911000</v>
+        <v>4454000</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="AR3" t="n">
-        <v>7000000</v>
+        <v>5000000</v>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '80', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '80', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '2', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '2', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-0fecdb7c3c374eea97289e9e308f8f91</t>
+          <t>https://www.notion.so/3-0fecdb7c3c374eea97289e9e308f8f91</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="AC4" t="n">
-        <v>1753000</v>
+        <v>18000000</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="AO4" t="n">
-        <v>-1753000</v>
+        <v>-18000000</v>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '1', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '1', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '3', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '3', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-e64e264f45f048db83497eb369265ce0</t>
+          <t>https://www.notion.so/4-e64e264f45f048db83497eb369265ce0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         </is>
       </c>
       <c r="Z5" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="AC5" t="n">
-        <v>546000</v>
+        <v>350000</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="AF5" t="n">
-        <v>10000000</v>
+        <v>21000000</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr"/>
@@ -1435,7 +1435,7 @@
         </is>
       </c>
       <c r="AO5" t="n">
-        <v>4454000</v>
+        <v>20650000</v>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="AR5" t="n">
-        <v>5000000</v>
+        <v>21000000</v>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '2', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '2', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '4', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '4', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-6c9a4fbe94ba4813a4442725e44cd033</t>
+          <t>https://www.notion.so/5-6c9a4fbe94ba4813a4442725e44cd033</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="AC6" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
@@ -1599,7 +1599,7 @@
         </is>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr"/>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="AO6" t="n">
-        <v>-18000000</v>
+        <v>1000000</v>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
         </is>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '3', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '3', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '5', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '5', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-5cd2df68475f4500b2d7678411a240a9</t>
+          <t>https://www.notion.so/6-5cd2df68475f4500b2d7678411a240a9</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1741,7 +1741,7 @@
         </is>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
         </is>
       </c>
       <c r="AC7" t="n">
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="AF7" t="n">
-        <v>21000000</v>
+        <v>4500000</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr"/>
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="AO7" t="n">
-        <v>20650000</v>
+        <v>4500000</v>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="AR7" t="n">
-        <v>21000000</v>
+        <v>4500000</v>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '4', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '4', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '6', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '6', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-9afdbbb63c714c0c9ddee729964648b8</t>
+          <t>https://www.notion.so/7-9afdbbb63c714c0c9ddee729964648b8</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="Z8" t="n">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1700000</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="AF8" t="n">
-        <v>4000000</v>
+        <v>30000000</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="AO8" t="n">
-        <v>1000000</v>
+        <v>13300000</v>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
@@ -2045,7 +2045,7 @@
         </is>
       </c>
       <c r="AR8" t="n">
-        <v>1000000</v>
+        <v>15000000</v>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '5', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '5', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '7', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '7', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-fb2d17940cdc46f0a9a107162fa1770c</t>
+          <t>https://www.notion.so/8-fb2d17940cdc46f0a9a107162fa1770c</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1030000</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="AF9" t="n">
-        <v>4500000</v>
+        <v>10000000</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr"/>
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="AO9" t="n">
-        <v>4500000</v>
+        <v>8970000</v>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="AR9" t="n">
-        <v>4500000</v>
+        <v>10000000</v>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '6', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '6', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '8', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '8', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-107624f776954a1bb0bad8f486d99ffc</t>
+          <t>https://www.notion.so/9-107624f776954a1bb0bad8f486d99ffc</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="Z10" t="n">
-        <v>15000000</v>
+        <v>25000000</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>1700000</v>
+        <v>500000</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         </is>
       </c>
       <c r="AF10" t="n">
-        <v>30000000</v>
+        <v>35000000</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="AO10" t="n">
-        <v>13300000</v>
+        <v>9500000</v>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         </is>
       </c>
       <c r="AR10" t="n">
-        <v>15000000</v>
+        <v>10000000</v>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '7', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '7', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '9', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '9', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-77beaf39139f468c8b7a9dfbffdc34ce</t>
+          <t>https://www.notion.so/10-77beaf39139f468c8b7a9dfbffdc34ce</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         </is>
       </c>
       <c r="AC11" t="n">
-        <v>1030000</v>
+        <v>9324000</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         </is>
       </c>
       <c r="AF11" t="n">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="AO11" t="n">
-        <v>8970000</v>
+        <v>676000</v>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '8', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '8', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '10', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '10', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-17T12:15:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-0344784760f74bcc9b55b672299a1911</t>
+          <t>https://www.notion.so/11-0344784760f74bcc9b55b672299a1911</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="Z12" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>500000</v>
+        <v>17700000</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="AF12" t="n">
-        <v>35000000</v>
+        <v>11000000</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr"/>
@@ -2828,7 +2828,7 @@
         </is>
       </c>
       <c r="AO12" t="n">
-        <v>9500000</v>
+        <v>-6700000</v>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="AR12" t="n">
-        <v>10000000</v>
+        <v>11000000</v>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '9', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '9', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '11', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '11', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:23:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-d37aca6076a9490aa5ce5ba95dc756e3</t>
+          <t>https://www.notion.so/12-d37aca6076a9490aa5ce5ba95dc756e3</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="Z13" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>9324000</v>
+        <v>350000</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="AF13" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr"/>
@@ -3027,7 +3027,7 @@
         </is>
       </c>
       <c r="AO13" t="n">
-        <v>676000</v>
+        <v>-350000</v>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         </is>
       </c>
       <c r="AR13" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '10', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '10', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '12', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '12', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-e0bee04d4ecb4601928c0d8895b609ff</t>
+          <t>https://www.notion.so/13-e0bee04d4ecb4601928c0d8895b609ff</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="AC14" t="n">
-        <v>17700000</v>
+        <v>55000</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr"/>
@@ -3226,7 +3226,7 @@
         </is>
       </c>
       <c r="AO14" t="n">
-        <v>-6700000</v>
+        <v>-55000</v>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="AR14" t="n">
-        <v>11000000</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '11', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '11', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '13', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '13', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-06f84bee3de04d8ea89d0d662e49da6f</t>
+          <t>https://www.notion.so/14-06f84bee3de04d8ea89d0d662e49da6f</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         </is>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="AC15" t="n">
-        <v>350000</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         </is>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
@@ -3404,7 +3404,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr"/>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="AO15" t="n">
-        <v>-350000</v>
+        <v>1500000</v>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
@@ -3438,7 +3438,7 @@
         </is>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="AU15" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '12', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '12', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '14', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '14', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-9c68fce37d4f4432a9b2e94a31b35cb8</t>
+          <t>https://www.notion.so/15-9c68fce37d4f4432a9b2e94a31b35cb8</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>55000</v>
+        <v>9700000</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-03-31</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr"/>
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="AO16" t="n">
-        <v>-55000</v>
+        <v>-7700000</v>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
@@ -3651,7 +3651,7 @@
       </c>
       <c r="AU16" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '13', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '13', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '15', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '15', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-f4840e299c1d43c3837e0d16a331afc5</t>
+          <t>https://www.notion.so/16-f4840e299c1d43c3837e0d16a331afc5</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="Z17" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="AF17" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr"/>
@@ -3823,7 +3823,7 @@
         </is>
       </c>
       <c r="AO17" t="n">
-        <v>1500000</v>
+        <v>8000000</v>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="AR17" t="n">
-        <v>1500000</v>
+        <v>10000000</v>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '14', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '14', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '16', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '16', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-413abd2bd960425d830b670598ce73e3</t>
+          <t>https://www.notion.so/17-413abd2bd960425d830b670598ce73e3</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="AC18" t="n">
-        <v>9700000</v>
+        <v>250000</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         </is>
       </c>
       <c r="AF18" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>2024-03-31</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr"/>
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="AO18" t="n">
-        <v>-7700000</v>
+        <v>4750000</v>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
@@ -4035,7 +4035,7 @@
         </is>
       </c>
       <c r="AR18" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
@@ -4049,7 +4049,7 @@
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '15', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '15', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '17', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '17', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-7f65d6ca1a4147e390c31c67b654a580</t>
+          <t>https://www.notion.so/18-7f65d6ca1a4147e390c31c67b654a580</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4129,7 +4129,7 @@
         </is>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>2000000</v>
+        <v>150000</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="AF19" t="n">
-        <v>10000000</v>
+        <v>15000000</v>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="AO19" t="n">
-        <v>8000000</v>
+        <v>9850000</v>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="AU19" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '16', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '16', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '18', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '18', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-5368b5a82d914fc3a5f194c7162f5048</t>
+          <t>https://www.notion.so/19-5368b5a82d914fc3a5f194c7162f5048</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4359,7 +4359,7 @@
         </is>
       </c>
       <c r="Z20" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="AC20" t="n">
-        <v>250000</v>
+        <v>145000</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="AF20" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>2024-04-02</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr"/>
@@ -4420,7 +4420,7 @@
         </is>
       </c>
       <c r="AO20" t="n">
-        <v>4750000</v>
+        <v>2855000</v>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         </is>
       </c>
       <c r="AR20" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="AS20" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="AU20" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '17', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '17', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '19', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '19', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-8701f2d293c34e0085672e3e7631cdb8</t>
+          <t>https://www.notion.so/20-8701f2d293c34e0085672e3e7631cdb8</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         </is>
       </c>
       <c r="Z21" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="AC21" t="n">
-        <v>150000</v>
+        <v>1700000</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="AF21" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr"/>
@@ -4619,7 +4619,7 @@
         </is>
       </c>
       <c r="AO21" t="n">
-        <v>9850000</v>
+        <v>-1700000</v>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="AR21" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
       </c>
       <c r="AU21" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '18', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '18', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '20', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '20', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-456dae273fe84d68bdf84f10f987d889</t>
+          <t>https://www.notion.so/21-456dae273fe84d68bdf84f10f987d889</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4770,7 +4770,7 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>145000</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr"/>
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="AO22" t="n">
-        <v>2855000</v>
+        <v>3000000</v>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="AU22" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '19', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '19', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '21', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '21', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-ccfa10878ca8496b8e932819f304be25</t>
+          <t>https://www.notion.so/22-ccfa10878ca8496b8e932819f304be25</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -4925,7 +4925,7 @@
         </is>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>1700000</v>
+        <v>1050000</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-04-07</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr"/>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="AO23" t="n">
-        <v>-1700000</v>
+        <v>-550000</v>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
       </c>
       <c r="AU23" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '20', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '20', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '22', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '22', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-1c8d62843aae418c92089c391cbbf64d</t>
+          <t>https://www.notion.so/23-1c8d62843aae418c92089c391cbbf64d</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5124,7 +5124,7 @@
         </is>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         </is>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="AF24" t="n">
-        <v>3000000</v>
+        <v>5500000</v>
       </c>
       <c r="AG24" t="inlineStr">
         <is>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2024-04-08</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr"/>
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="AO24" t="n">
-        <v>3000000</v>
+        <v>14000000</v>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         </is>
       </c>
       <c r="AR24" t="n">
-        <v>3000000</v>
+        <v>2500000</v>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
@@ -5243,7 +5243,7 @@
       </c>
       <c r="AU24" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '21', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '21', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '23', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '23', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-ac86b813bcdf4436856ff6d3737b416c</t>
+          <t>https://www.notion.so/24-ac86b813bcdf4436856ff6d3737b416c</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>1050000</v>
+        <v>15110000</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="AF25" t="n">
-        <v>500000</v>
+        <v>40500000</v>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr"/>
@@ -5415,7 +5415,7 @@
         </is>
       </c>
       <c r="AO25" t="n">
-        <v>-550000</v>
+        <v>25390000</v>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="AR25" t="n">
-        <v>500000</v>
+        <v>40500000</v>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="AU25" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '22', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '22', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '24', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '24', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-8e3a71e5f9274e4fb215d54c0188294e</t>
+          <t>https://www.notion.so/25-8e3a71e5f9274e4fb215d54c0188294e</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5522,7 +5522,7 @@
         </is>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -5535,7 +5535,7 @@
         </is>
       </c>
       <c r="V26" t="n">
-        <v>14000000</v>
+        <v>3000000</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         </is>
       </c>
       <c r="Z26" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>2500000</v>
+        <v>190000</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="AF26" t="n">
-        <v>5500000</v>
+        <v>0</v>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>2024-04-08</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr"/>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="AO26" t="n">
-        <v>14000000</v>
+        <v>2810000</v>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="AR26" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="AU26" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '23', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '23', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '25', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '25', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-bc3f46b564954ce290fb3abd2ad49c48</t>
+          <t>https://www.notion.so/26-bc3f46b564954ce290fb3abd2ad49c48</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="AC27" t="n">
-        <v>15110000</v>
+        <v>0</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
@@ -5778,7 +5778,7 @@
         </is>
       </c>
       <c r="AF27" t="n">
-        <v>40500000</v>
+        <v>1000000</v>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr"/>
@@ -5813,7 +5813,7 @@
         </is>
       </c>
       <c r="AO27" t="n">
-        <v>25390000</v>
+        <v>1000000</v>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="AR27" t="n">
-        <v>40500000</v>
+        <v>1000000</v>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="AU27" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '24', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '24', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '26', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '26', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-2dcf2fedb2f345f787374acf8616b370</t>
+          <t>https://www.notion.so/27-2dcf2fedb2f345f787374acf8616b370</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -5920,7 +5920,7 @@
         </is>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -5964,7 +5964,7 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>190000</v>
+        <v>1140000</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
         </is>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1900000</v>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr"/>
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="AO28" t="n">
-        <v>2810000</v>
+        <v>760000</v>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
@@ -6025,7 +6025,7 @@
         </is>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>1900000</v>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
@@ -6039,7 +6039,7 @@
       </c>
       <c r="AU28" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '25', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '25', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '27', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '27', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-887b24410fb94d5d86f359c23164bb5d</t>
+          <t>https://www.notion.so/28-887b24410fb94d5d86f359c23164bb5d</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -6163,7 +6163,7 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="AF29" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-14</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr"/>
@@ -6211,7 +6211,7 @@
         </is>
       </c>
       <c r="AO29" t="n">
-        <v>1000000</v>
+        <v>-18000000</v>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         </is>
       </c>
       <c r="AR29" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '26', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '26', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '28', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '28', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-b002fbe7cff2401fb9bad07fd6cc561f</t>
+          <t>https://www.notion.so/29-b002fbe7cff2401fb9bad07fd6cc561f</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6318,7 +6318,7 @@
         </is>
       </c>
       <c r="S30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>1140000</v>
+        <v>4745000</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         </is>
       </c>
       <c r="AF30" t="n">
-        <v>1900000</v>
+        <v>0</v>
       </c>
       <c r="AG30" t="inlineStr">
         <is>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr"/>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="AO30" t="n">
-        <v>760000</v>
+        <v>-4745000</v>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="AR30" t="n">
-        <v>1900000</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="AU30" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '27', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '27', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '29', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '29', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-df6bda30993c4e7aab4794d2c47b686c</t>
+          <t>https://www.notion.so/30-df6bda30993c4e7aab4794d2c47b686c</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6517,7 +6517,7 @@
         </is>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         </is>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>14000000</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="AC31" t="n">
-        <v>18000000</v>
+        <v>27996000</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         </is>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>39000000</v>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
@@ -6588,7 +6588,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>2024-04-14</t>
+          <t>2024-04-21</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr"/>
@@ -6609,7 +6609,7 @@
         </is>
       </c>
       <c r="AO31" t="n">
-        <v>-18000000</v>
+        <v>-2996000</v>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
       </c>
       <c r="AU31" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '28', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '28', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '30', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '30', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-05ebb8d49dc141599836122e738bf488</t>
+          <t>https://www.notion.so/31-05ebb8d49dc141599836122e738bf488</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6716,7 +6716,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>4745000</v>
+        <v>775000</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -6773,7 +6773,7 @@
         </is>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AG32" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr"/>
@@ -6808,7 +6808,7 @@
         </is>
       </c>
       <c r="AO32" t="n">
-        <v>-4745000</v>
+        <v>1225000</v>
       </c>
       <c r="AP32" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
@@ -6835,7 +6835,7 @@
       </c>
       <c r="AU32" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '29', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '29', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '31', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '31', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-2ac05bc7172c4aa4b654799d67afe9e3</t>
+          <t>https://www.notion.so/32-2ac05bc7172c4aa4b654799d67afe9e3</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="Z33" t="n">
-        <v>14000000</v>
+        <v>500000</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
@@ -6959,7 +6959,7 @@
         </is>
       </c>
       <c r="AC33" t="n">
-        <v>27996000</v>
+        <v>2000000</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="AF33" t="n">
-        <v>39000000</v>
+        <v>2500000</v>
       </c>
       <c r="AG33" t="inlineStr">
         <is>
@@ -6986,7 +6986,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>2024-04-21</t>
+          <t>2024-04-25</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr"/>
@@ -7007,7 +7007,7 @@
         </is>
       </c>
       <c r="AO33" t="n">
-        <v>-2996000</v>
+        <v>0</v>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
@@ -7020,7 +7020,7 @@
         </is>
       </c>
       <c r="AR33" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
       </c>
       <c r="AU33" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '30', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '30', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '32', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '32', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-ffe6c77991f74c50b15dd0453a138e44</t>
+          <t>https://www.notion.so/33-ffe6c77991f74c50b15dd0453a138e44</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7158,7 +7158,7 @@
         </is>
       </c>
       <c r="AC34" t="n">
-        <v>775000</v>
+        <v>250000</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="AF34" t="n">
-        <v>2000000</v>
+        <v>12000000</v>
       </c>
       <c r="AG34" t="inlineStr">
         <is>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-04-26</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr"/>
@@ -7206,7 +7206,7 @@
         </is>
       </c>
       <c r="AO34" t="n">
-        <v>1225000</v>
+        <v>11750000</v>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
@@ -7219,7 +7219,7 @@
         </is>
       </c>
       <c r="AR34" t="n">
-        <v>2000000</v>
+        <v>12000000</v>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="AU34" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '31', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '31', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '33', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '33', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-2b0f762dd9a1460ab13f2736f1b47f93</t>
+          <t>https://www.notion.so/34-2b0f762dd9a1460ab13f2736f1b47f93</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7313,7 +7313,7 @@
         </is>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="Z35" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
@@ -7357,7 +7357,7 @@
         </is>
       </c>
       <c r="AC35" t="n">
-        <v>2000000</v>
+        <v>2200000</v>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
@@ -7370,7 +7370,7 @@
         </is>
       </c>
       <c r="AF35" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>2024-04-25</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr"/>
@@ -7405,7 +7405,7 @@
         </is>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>-2200000</v>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="AR35" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
@@ -7432,7 +7432,7 @@
       </c>
       <c r="AU35" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '32', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '32', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '34', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '34', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-8716b812f61b4f9c90a0142d28bdca52</t>
+          <t>https://www.notion.so/35-8716b812f61b4f9c90a0142d28bdca52</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="Z36" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         </is>
       </c>
       <c r="AF36" t="n">
-        <v>12000000</v>
+        <v>60000000</v>
       </c>
       <c r="AG36" t="inlineStr">
         <is>
@@ -7583,7 +7583,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>2024-04-26</t>
+          <t>2024-05-04</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr"/>
@@ -7604,7 +7604,7 @@
         </is>
       </c>
       <c r="AO36" t="n">
-        <v>11750000</v>
+        <v>53000000</v>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         </is>
       </c>
       <c r="AR36" t="n">
-        <v>12000000</v>
+        <v>53000000</v>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
@@ -7631,7 +7631,7 @@
       </c>
       <c r="AU36" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '33', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '33', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '35', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '35', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-670caeaf380a49d780a2f4774180a454</t>
+          <t>https://www.notion.so/36-670caeaf380a49d780a2f4774180a454</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>2200000</v>
+        <v>0</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="AF37" t="n">
-        <v>0</v>
+        <v>25000000</v>
       </c>
       <c r="AG37" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-05-05</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr"/>
@@ -7803,7 +7803,7 @@
         </is>
       </c>
       <c r="AO37" t="n">
-        <v>-2200000</v>
+        <v>10000000</v>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
@@ -7816,7 +7816,7 @@
         </is>
       </c>
       <c r="AR37" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
       </c>
       <c r="AU37" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '34', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '34', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '36', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '36', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-4159c13e192d4b3ca97a4b8514d8725c</t>
+          <t>https://www.notion.so/37-4159c13e192d4b3ca97a4b8514d8725c</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -7910,7 +7910,7 @@
         </is>
       </c>
       <c r="S38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
@@ -7923,7 +7923,7 @@
         </is>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -7941,7 +7941,7 @@
         </is>
       </c>
       <c r="Z38" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
@@ -7967,7 +7967,7 @@
         </is>
       </c>
       <c r="AF38" t="n">
-        <v>60000000</v>
+        <v>0</v>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>2024-05-04</t>
+          <t>2024-05-15</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr"/>
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="AO38" t="n">
-        <v>53000000</v>
+        <v>7000000</v>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         </is>
       </c>
       <c r="AR38" t="n">
-        <v>53000000</v>
+        <v>0</v>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="AU38" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '35', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '35', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '37', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '37', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-cf3e7eac935546569394e931803f630d</t>
+          <t>https://www.notion.so/38-cf3e7eac935546569394e931803f630d</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8109,7 +8109,7 @@
         </is>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         </is>
       </c>
       <c r="Z39" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         </is>
       </c>
       <c r="AC39" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         </is>
       </c>
       <c r="AF39" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>2024-05-05</t>
+          <t>2024-05-18</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr"/>
@@ -8201,7 +8201,7 @@
         </is>
       </c>
       <c r="AO39" t="n">
-        <v>10000000</v>
+        <v>-2500000</v>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="AR39" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
@@ -8228,7 +8228,7 @@
       </c>
       <c r="AU39" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '36', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '36', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '38', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '38', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-9df7353497164a8ab24939853ee869da</t>
+          <t>https://www.notion.so/39-9df7353497164a8ab24939853ee869da</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="V40" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -8339,7 +8339,7 @@
         </is>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
@@ -8365,7 +8365,7 @@
         </is>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="AG40" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>2024-05-15</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr"/>
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="AO40" t="n">
-        <v>7000000</v>
+        <v>4000000</v>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         </is>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
@@ -8427,7 +8427,7 @@
       </c>
       <c r="AU40" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '37', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '37', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '39', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '39', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-5346b50987b446f79918eecb88e8cf6a</t>
+          <t>https://www.notion.so/40-5346b50987b446f79918eecb88e8cf6a</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -8538,7 +8538,7 @@
         </is>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
@@ -8551,7 +8551,7 @@
         </is>
       </c>
       <c r="AC41" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="AD41" t="inlineStr">
         <is>
@@ -8564,7 +8564,7 @@
         </is>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>2300000</v>
       </c>
       <c r="AG41" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>2024-05-18</t>
+          <t>2024-06-01</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr"/>
@@ -8599,7 +8599,7 @@
         </is>
       </c>
       <c r="AO41" t="n">
-        <v>-2500000</v>
+        <v>1000000</v>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="AR41" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AS41" t="inlineStr">
         <is>
@@ -8626,7 +8626,7 @@
       </c>
       <c r="AU41" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '38', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '38', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '40', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '40', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-a5122c4330234baabe9f0dd89011734c</t>
+          <t>https://www.notion.so/41-a5122c4330234baabe9f0dd89011734c</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="Z42" t="n">
-        <v>2000000</v>
+        <v>17000000</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>6590000</v>
       </c>
       <c r="AD42" t="inlineStr">
         <is>
@@ -8763,7 +8763,7 @@
         </is>
       </c>
       <c r="AF42" t="n">
-        <v>6000000</v>
+        <v>25000000</v>
       </c>
       <c r="AG42" t="inlineStr">
         <is>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2024-06-02</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr"/>
@@ -8798,7 +8798,7 @@
         </is>
       </c>
       <c r="AO42" t="n">
-        <v>4000000</v>
+        <v>1410000</v>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         </is>
       </c>
       <c r="AR42" t="n">
-        <v>4000000</v>
+        <v>8000000</v>
       </c>
       <c r="AS42" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="AU42" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '39', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '39', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '41', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '41', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-a532e7cf90914f2e9e8d88f03ae7f109</t>
+          <t>https://www.notion.so/42-a532e7cf90914f2e9e8d88f03ae7f109</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -8905,7 +8905,7 @@
         </is>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -8918,7 +8918,7 @@
         </is>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -8936,7 +8936,7 @@
         </is>
       </c>
       <c r="Z43" t="n">
-        <v>1300000</v>
+        <v>0</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         </is>
       </c>
       <c r="AF43" t="n">
-        <v>2300000</v>
+        <v>0</v>
       </c>
       <c r="AG43" t="inlineStr">
         <is>
@@ -8976,7 +8976,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>2024-06-01</t>
+          <t>2024-06-03</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr"/>
@@ -8997,7 +8997,7 @@
         </is>
       </c>
       <c r="AO43" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="AP43" t="inlineStr">
         <is>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="AR43" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AS43" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="AU43" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '40', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '40', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '42', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '42', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-ecbeca945cb643fdb3eaaa736eb36655</t>
+          <t>https://www.notion.so/43-ecbeca945cb643fdb3eaaa736eb36655</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9104,7 +9104,7 @@
         </is>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -9117,7 +9117,7 @@
         </is>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -9135,7 +9135,7 @@
         </is>
       </c>
       <c r="Z44" t="n">
-        <v>17000000</v>
+        <v>0</v>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
@@ -9148,7 +9148,7 @@
         </is>
       </c>
       <c r="AC44" t="n">
-        <v>6590000</v>
+        <v>0</v>
       </c>
       <c r="AD44" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         </is>
       </c>
       <c r="AF44" t="n">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="AG44" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>2024-06-02</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="AO44" t="n">
-        <v>1410000</v>
+        <v>7000000</v>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
@@ -9209,7 +9209,7 @@
         </is>
       </c>
       <c r="AR44" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="AS44" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
       </c>
       <c r="AU44" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '41', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '41', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '43', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '43', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-15T10:24:00.000Z</t>
+          <t>2024-07-17T17:24:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-0cb9eb84b38a4c77b4fbc39974d76a86</t>
+          <t>https://www.notion.so/44-0cb9eb84b38a4c77b4fbc39974d76a86</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9316,7 +9316,7 @@
         </is>
       </c>
       <c r="V45" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         </is>
       </c>
       <c r="AC45" t="n">
-        <v>0</v>
+        <v>130000</v>
       </c>
       <c r="AD45" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>2024-06-03</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr"/>
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="AO45" t="n">
-        <v>2000000</v>
+        <v>-130000</v>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
@@ -9422,7 +9422,7 @@
       </c>
       <c r="AU45" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '42', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '42', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '44', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '44', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-71579228ff4f4c82ab8de40170d28c84</t>
+          <t>https://www.notion.so/45-71579228ff4f4c82ab8de40170d28c84</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9515,7 +9515,7 @@
         </is>
       </c>
       <c r="V46" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>730000</v>
       </c>
       <c r="AD46" t="inlineStr">
         <is>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-06-06</t>
         </is>
       </c>
       <c r="AJ46" t="inlineStr"/>
@@ -9594,7 +9594,7 @@
         </is>
       </c>
       <c r="AO46" t="n">
-        <v>7000000</v>
+        <v>-730000</v>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="AU46" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '43', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '43', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '45', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '45', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-17T12:16:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-808bf9c3006a400293f08edfcc7f0f77</t>
+          <t>https://www.notion.so/46-808bf9c3006a400293f08edfcc7f0f77</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9701,7 +9701,7 @@
         </is>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>130000</v>
+        <v>1000000</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -9758,7 +9758,7 @@
         </is>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="AG47" t="inlineStr">
         <is>
@@ -9772,7 +9772,7 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-06-07</t>
         </is>
       </c>
       <c r="AJ47" t="inlineStr"/>
@@ -9793,7 +9793,7 @@
         </is>
       </c>
       <c r="AO47" t="n">
-        <v>-130000</v>
+        <v>6000000</v>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
@@ -9806,7 +9806,7 @@
         </is>
       </c>
       <c r="AR47" t="n">
-        <v>0</v>
+        <v>7000000</v>
       </c>
       <c r="AS47" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
       </c>
       <c r="AU47" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '44', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '44', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '46', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '46', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-f6aa15d581a744cdb711a7c11cd8091b</t>
+          <t>https://www.notion.so/47-f6aa15d581a744cdb711a7c11cd8091b</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="AC48" t="n">
-        <v>730000</v>
+        <v>250000</v>
       </c>
       <c r="AD48" t="inlineStr">
         <is>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>2024-06-06</t>
+          <t>2024-06-08</t>
         </is>
       </c>
       <c r="AJ48" t="inlineStr"/>
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="AO48" t="n">
-        <v>-730000</v>
+        <v>-250000</v>
       </c>
       <c r="AP48" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="AU48" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '45', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '45', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '47', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '47', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-8f93fb5b6434414db1585a6d8373e0cb</t>
+          <t>https://www.notion.so/48-8f93fb5b6434414db1585a6d8373e0cb</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10143,7 +10143,7 @@
         </is>
       </c>
       <c r="AC49" t="n">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
@@ -10156,7 +10156,7 @@
         </is>
       </c>
       <c r="AF49" t="n">
-        <v>7000000</v>
+        <v>30000000</v>
       </c>
       <c r="AG49" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2024-06-09</t>
         </is>
       </c>
       <c r="AJ49" t="inlineStr"/>
@@ -10191,7 +10191,7 @@
         </is>
       </c>
       <c r="AO49" t="n">
-        <v>6000000</v>
+        <v>28900000</v>
       </c>
       <c r="AP49" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         </is>
       </c>
       <c r="AR49" t="n">
-        <v>7000000</v>
+        <v>30000000</v>
       </c>
       <c r="AS49" t="inlineStr">
         <is>
@@ -10218,7 +10218,7 @@
       </c>
       <c r="AU49" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '46', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '46', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '48', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '48', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-5f697f46bc4547b0af9fb79d2f89615c</t>
+          <t>https://www.notion.so/49-5f697f46bc4547b0af9fb79d2f89615c</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="AC50" t="n">
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="AD50" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>2024-06-08</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr"/>
@@ -10390,7 +10390,7 @@
         </is>
       </c>
       <c r="AO50" t="n">
-        <v>-250000</v>
+        <v>-150000</v>
       </c>
       <c r="AP50" t="inlineStr">
         <is>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="AU50" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '47', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '47', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '49', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '49', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-0d51e83ddaba4f7f98a5265e6f893acc</t>
+          <t>https://www.notion.so/50-0d51e83ddaba4f7f98a5265e6f893acc</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10541,7 +10541,7 @@
         </is>
       </c>
       <c r="AC51" t="n">
-        <v>1100000</v>
+        <v>2330000</v>
       </c>
       <c r="AD51" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         </is>
       </c>
       <c r="AF51" t="n">
-        <v>30000000</v>
+        <v>2800000</v>
       </c>
       <c r="AG51" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>2024-06-09</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="AJ51" t="inlineStr"/>
@@ -10589,7 +10589,7 @@
         </is>
       </c>
       <c r="AO51" t="n">
-        <v>28900000</v>
+        <v>470000</v>
       </c>
       <c r="AP51" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         </is>
       </c>
       <c r="AR51" t="n">
-        <v>30000000</v>
+        <v>2800000</v>
       </c>
       <c r="AS51" t="inlineStr">
         <is>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="AU51" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '48', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '48', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '50', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '50', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-b6442ee624444519ba61ee66f711f543</t>
+          <t>https://www.notion.so/51-b6442ee624444519ba61ee66f711f543</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -10740,7 +10740,7 @@
         </is>
       </c>
       <c r="AC52" t="n">
-        <v>150000</v>
+        <v>1266000</v>
       </c>
       <c r="AD52" t="inlineStr">
         <is>
@@ -10753,7 +10753,7 @@
         </is>
       </c>
       <c r="AF52" t="n">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="AG52" t="inlineStr">
         <is>
@@ -10767,7 +10767,7 @@
       </c>
       <c r="AI52" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr"/>
@@ -10788,7 +10788,7 @@
         </is>
       </c>
       <c r="AO52" t="n">
-        <v>-150000</v>
+        <v>5234000</v>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         </is>
       </c>
       <c r="AR52" t="n">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="AS52" t="inlineStr">
         <is>
@@ -10815,7 +10815,7 @@
       </c>
       <c r="AU52" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '49', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '49', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '51', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '51', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
+          <t>https://www.notion.so/52-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -10895,7 +10895,7 @@
         </is>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         </is>
       </c>
       <c r="AC53" t="n">
-        <v>2330000</v>
+        <v>3050000</v>
       </c>
       <c r="AD53" t="inlineStr">
         <is>
@@ -10952,7 +10952,7 @@
         </is>
       </c>
       <c r="AF53" t="n">
-        <v>2800000</v>
+        <v>0</v>
       </c>
       <c r="AG53" t="inlineStr">
         <is>
@@ -10966,7 +10966,7 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-06-13</t>
         </is>
       </c>
       <c r="AJ53" t="inlineStr"/>
@@ -10987,7 +10987,7 @@
         </is>
       </c>
       <c r="AO53" t="n">
-        <v>470000</v>
+        <v>-3050000</v>
       </c>
       <c r="AP53" t="inlineStr">
         <is>
@@ -11000,7 +11000,7 @@
         </is>
       </c>
       <c r="AR53" t="n">
-        <v>2800000</v>
+        <v>0</v>
       </c>
       <c r="AS53" t="inlineStr">
         <is>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="AU53" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '50', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '50', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '52', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '52', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
+          <t>https://www.notion.so/53-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11138,7 +11138,7 @@
         </is>
       </c>
       <c r="AC54" t="n">
-        <v>1266000</v>
+        <v>240000</v>
       </c>
       <c r="AD54" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         </is>
       </c>
       <c r="AF54" t="n">
-        <v>6500000</v>
+        <v>8000000</v>
       </c>
       <c r="AG54" t="inlineStr">
         <is>
@@ -11165,7 +11165,7 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>2024-06-12</t>
+          <t>2024-06-14</t>
         </is>
       </c>
       <c r="AJ54" t="inlineStr"/>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="AO54" t="n">
-        <v>5234000</v>
+        <v>7760000</v>
       </c>
       <c r="AP54" t="inlineStr">
         <is>
@@ -11199,7 +11199,7 @@
         </is>
       </c>
       <c r="AR54" t="n">
-        <v>6500000</v>
+        <v>8000000</v>
       </c>
       <c r="AS54" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="AU54" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '51', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '51', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '53', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '53', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-5ae18489d18540dbbfc41263a08c863e</t>
+          <t>https://www.notion.so/54-5ae18489d18540dbbfc41263a08c863e</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11293,7 +11293,7 @@
         </is>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -11306,7 +11306,7 @@
         </is>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -11337,7 +11337,7 @@
         </is>
       </c>
       <c r="AC55" t="n">
-        <v>3050000</v>
+        <v>75000</v>
       </c>
       <c r="AD55" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>4400000</v>
       </c>
       <c r="AG55" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>2024-06-13</t>
+          <t>2024-06-16</t>
         </is>
       </c>
       <c r="AJ55" t="inlineStr"/>
@@ -11385,7 +11385,7 @@
         </is>
       </c>
       <c r="AO55" t="n">
-        <v>-3050000</v>
+        <v>8325000</v>
       </c>
       <c r="AP55" t="inlineStr">
         <is>
@@ -11398,7 +11398,7 @@
         </is>
       </c>
       <c r="AR55" t="n">
-        <v>0</v>
+        <v>4400000</v>
       </c>
       <c r="AS55" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="AU55" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '52', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '52', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '54', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '54', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-2cc2a8737fd94612a974d6e1f3cfcad0</t>
+          <t>https://www.notion.so/55-2cc2a8737fd94612a974d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11492,7 +11492,7 @@
         </is>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T56" t="inlineStr">
         <is>
@@ -11505,7 +11505,7 @@
         </is>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="W56" t="inlineStr">
         <is>
@@ -11523,7 +11523,7 @@
         </is>
       </c>
       <c r="Z56" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         </is>
       </c>
       <c r="AC56" t="n">
-        <v>240000</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         </is>
       </c>
       <c r="AF56" t="n">
-        <v>8000000</v>
+        <v>7500000</v>
       </c>
       <c r="AG56" t="inlineStr">
         <is>
@@ -11563,7 +11563,7 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>2024-06-14</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="AJ56" t="inlineStr"/>
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="AO56" t="n">
-        <v>7760000</v>
+        <v>5500000</v>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
@@ -11597,7 +11597,7 @@
         </is>
       </c>
       <c r="AR56" t="n">
-        <v>8000000</v>
+        <v>4500000</v>
       </c>
       <c r="AS56" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
       </c>
       <c r="AU56" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '53', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '53', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '55', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '55', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-1bbc9ed697b3463aa7073252641dd198</t>
+          <t>https://www.notion.so/56-1bbc9ed697b3463aa7073252641dd198</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11691,7 +11691,7 @@
         </is>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -11704,7 +11704,7 @@
         </is>
       </c>
       <c r="V57" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         </is>
       </c>
       <c r="Z57" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
@@ -11735,7 +11735,7 @@
         </is>
       </c>
       <c r="AC57" t="n">
-        <v>75000</v>
+        <v>500000</v>
       </c>
       <c r="AD57" t="inlineStr">
         <is>
@@ -11748,7 +11748,7 @@
         </is>
       </c>
       <c r="AF57" t="n">
-        <v>4400000</v>
+        <v>3500000</v>
       </c>
       <c r="AG57" t="inlineStr">
         <is>
@@ -11762,7 +11762,7 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>2024-06-16</t>
+          <t>2024-06-18</t>
         </is>
       </c>
       <c r="AJ57" t="inlineStr"/>
@@ -11783,7 +11783,7 @@
         </is>
       </c>
       <c r="AO57" t="n">
-        <v>8325000</v>
+        <v>2300000</v>
       </c>
       <c r="AP57" t="inlineStr">
         <is>
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="AR57" t="n">
-        <v>4400000</v>
+        <v>2800000</v>
       </c>
       <c r="AS57" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
       </c>
       <c r="AU57" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '54', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '54', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '56', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '56', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
+          <t>https://www.notion.so/57-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -11890,7 +11890,7 @@
         </is>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -11903,7 +11903,7 @@
         </is>
       </c>
       <c r="V58" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="Z58" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
@@ -11934,7 +11934,7 @@
         </is>
       </c>
       <c r="AC58" t="n">
-        <v>0</v>
+        <v>18376000</v>
       </c>
       <c r="AD58" t="inlineStr">
         <is>
@@ -11947,7 +11947,7 @@
         </is>
       </c>
       <c r="AF58" t="n">
-        <v>7500000</v>
+        <v>0</v>
       </c>
       <c r="AG58" t="inlineStr">
         <is>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-19</t>
         </is>
       </c>
       <c r="AJ58" t="inlineStr"/>
@@ -11982,7 +11982,7 @@
         </is>
       </c>
       <c r="AO58" t="n">
-        <v>5500000</v>
+        <v>-18376000</v>
       </c>
       <c r="AP58" t="inlineStr">
         <is>
@@ -11995,7 +11995,7 @@
         </is>
       </c>
       <c r="AR58" t="n">
-        <v>4500000</v>
+        <v>0</v>
       </c>
       <c r="AS58" t="inlineStr">
         <is>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="AU58" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '55', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '55', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '57', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '57', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-de2a36cf877144f0a9a3cd55abfe271b</t>
+          <t>https://www.notion.so/58-de2a36cf877144f0a9a3cd55abfe271b</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         </is>
       </c>
       <c r="Z59" t="n">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         </is>
       </c>
       <c r="AC59" t="n">
-        <v>500000</v>
+        <v>1584000</v>
       </c>
       <c r="AD59" t="inlineStr">
         <is>
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="AF59" t="n">
-        <v>3500000</v>
+        <v>3000000</v>
       </c>
       <c r="AG59" t="inlineStr">
         <is>
@@ -12160,7 +12160,7 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>2024-06-18</t>
+          <t>2024-06-20</t>
         </is>
       </c>
       <c r="AJ59" t="inlineStr"/>
@@ -12181,7 +12181,7 @@
         </is>
       </c>
       <c r="AO59" t="n">
-        <v>2300000</v>
+        <v>2116000</v>
       </c>
       <c r="AP59" t="inlineStr">
         <is>
@@ -12194,7 +12194,7 @@
         </is>
       </c>
       <c r="AR59" t="n">
-        <v>2800000</v>
+        <v>3000000</v>
       </c>
       <c r="AS59" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
       </c>
       <c r="AU59" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '56', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '56', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '58', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '58', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-52391eb5b8b04d4ca021f5c63b61d834</t>
+          <t>https://www.notion.so/59-52391eb5b8b04d4ca021f5c63b61d834</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="AC60" t="n">
-        <v>18376000</v>
+        <v>200000</v>
       </c>
       <c r="AD60" t="inlineStr">
         <is>
@@ -12359,7 +12359,7 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>2024-06-19</t>
+          <t>2024-06-21</t>
         </is>
       </c>
       <c r="AJ60" t="inlineStr"/>
@@ -12380,7 +12380,7 @@
         </is>
       </c>
       <c r="AO60" t="n">
-        <v>-18376000</v>
+        <v>-200000</v>
       </c>
       <c r="AP60" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
       </c>
       <c r="AU60" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '57', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '57', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '59', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '59', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-68bb50dcb72047b7998376df9b3742f6</t>
+          <t>https://www.notion.so/60-68bb50dcb72047b7998376df9b3742f6</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12487,7 +12487,7 @@
         </is>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T61" t="inlineStr">
         <is>
@@ -12500,7 +12500,7 @@
         </is>
       </c>
       <c r="V61" t="n">
-        <v>700000</v>
+        <v>0</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -12531,7 +12531,7 @@
         </is>
       </c>
       <c r="AC61" t="n">
-        <v>1584000</v>
+        <v>0</v>
       </c>
       <c r="AD61" t="inlineStr">
         <is>
@@ -12544,7 +12544,7 @@
         </is>
       </c>
       <c r="AF61" t="n">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="AG61" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>2024-06-20</t>
+          <t>2024-06-22</t>
         </is>
       </c>
       <c r="AJ61" t="inlineStr"/>
@@ -12579,7 +12579,7 @@
         </is>
       </c>
       <c r="AO61" t="n">
-        <v>2116000</v>
+        <v>8900000</v>
       </c>
       <c r="AP61" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         </is>
       </c>
       <c r="AR61" t="n">
-        <v>3000000</v>
+        <v>8900000</v>
       </c>
       <c r="AS61" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="AU61" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '58', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '58', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '60', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '60', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-58b1fa10c5cf4bcdbe34669b0c698923</t>
+          <t>https://www.notion.so/61-58b1fa10c5cf4bcdbe34669b0c698923</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12686,7 +12686,7 @@
         </is>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -12730,7 +12730,7 @@
         </is>
       </c>
       <c r="AC62" t="n">
-        <v>200000</v>
+        <v>1000000</v>
       </c>
       <c r="AD62" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         </is>
       </c>
       <c r="AF62" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AG62" t="inlineStr">
         <is>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>2024-06-21</t>
+          <t>2024-06-23</t>
         </is>
       </c>
       <c r="AJ62" t="inlineStr"/>
@@ -12778,7 +12778,7 @@
         </is>
       </c>
       <c r="AO62" t="n">
-        <v>-200000</v>
+        <v>0</v>
       </c>
       <c r="AP62" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         </is>
       </c>
       <c r="AR62" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AS62" t="inlineStr">
         <is>
@@ -12805,7 +12805,7 @@
       </c>
       <c r="AU62" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '59', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '59', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '61', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '61', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-c3ede5ddeeba4a2687538586469f6e8a</t>
+          <t>https://www.notion.so/62-c3ede5ddeeba4a2687538586469f6e8a</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         </is>
       </c>
       <c r="AC63" t="n">
-        <v>0</v>
+        <v>4749000</v>
       </c>
       <c r="AD63" t="inlineStr">
         <is>
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="AF63" t="n">
-        <v>8900000</v>
+        <v>0</v>
       </c>
       <c r="AG63" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>2024-06-22</t>
+          <t>2024-06-24</t>
         </is>
       </c>
       <c r="AJ63" t="inlineStr"/>
@@ -12977,7 +12977,7 @@
         </is>
       </c>
       <c r="AO63" t="n">
-        <v>8900000</v>
+        <v>-4749000</v>
       </c>
       <c r="AP63" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         </is>
       </c>
       <c r="AR63" t="n">
-        <v>8900000</v>
+        <v>0</v>
       </c>
       <c r="AS63" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="AU63" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '60', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '60', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '62', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '62', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-46806830e1bd4cb594a526deedae2a38</t>
+          <t>https://www.notion.so/63-46806830e1bd4cb594a526deedae2a38</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13115,7 +13115,7 @@
         </is>
       </c>
       <c r="Z64" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
@@ -13128,7 +13128,7 @@
         </is>
       </c>
       <c r="AC64" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AD64" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         </is>
       </c>
       <c r="AF64" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="AG64" t="inlineStr">
         <is>
@@ -13155,7 +13155,7 @@
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>2024-06-23</t>
+          <t>2024-06-25</t>
         </is>
       </c>
       <c r="AJ64" t="inlineStr"/>
@@ -13176,7 +13176,7 @@
         </is>
       </c>
       <c r="AO64" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="AP64" t="inlineStr">
         <is>
@@ -13189,7 +13189,7 @@
         </is>
       </c>
       <c r="AR64" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="AS64" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
       </c>
       <c r="AU64" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '61', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '61', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '63', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '63', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-2e1d33d8b8334ccaacee1f03482d66eb</t>
+          <t>https://www.notion.so/64-2e1d33d8b8334ccaacee1f03482d66eb</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13327,7 +13327,7 @@
         </is>
       </c>
       <c r="AC65" t="n">
-        <v>4749000</v>
+        <v>213000</v>
       </c>
       <c r="AD65" t="inlineStr">
         <is>
@@ -13354,7 +13354,7 @@
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>2024-06-24</t>
+          <t>2024-06-26</t>
         </is>
       </c>
       <c r="AJ65" t="inlineStr"/>
@@ -13375,7 +13375,7 @@
         </is>
       </c>
       <c r="AO65" t="n">
-        <v>-4749000</v>
+        <v>-213000</v>
       </c>
       <c r="AP65" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
       </c>
       <c r="AU65" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '62', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '62', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '64', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '64', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-96324ff37f5948f0b916fc6536c5dade</t>
+          <t>https://www.notion.so/65-96324ff37f5948f0b916fc6536c5dade</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T66" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         </is>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="Z66" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         </is>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>2187000</v>
       </c>
       <c r="AD66" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         </is>
       </c>
       <c r="AF66" t="n">
-        <v>3000000</v>
+        <v>11100000</v>
       </c>
       <c r="AG66" t="inlineStr">
         <is>
@@ -13553,7 +13553,7 @@
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>2024-06-25</t>
+          <t>2024-06-27</t>
         </is>
       </c>
       <c r="AJ66" t="inlineStr"/>
@@ -13574,7 +13574,7 @@
         </is>
       </c>
       <c r="AO66" t="n">
-        <v>1500000</v>
+        <v>9913000</v>
       </c>
       <c r="AP66" t="inlineStr">
         <is>
@@ -13587,7 +13587,7 @@
         </is>
       </c>
       <c r="AR66" t="n">
-        <v>1500000</v>
+        <v>11100000</v>
       </c>
       <c r="AS66" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
       </c>
       <c r="AU66" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '63', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '63', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '65', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '65', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-0e7dfb28877148948e464365dc6f2ad2</t>
+          <t>https://www.notion.so/66-0e7dfb28877148948e464365dc6f2ad2</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13694,7 +13694,7 @@
         </is>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="W67" t="inlineStr">
         <is>
@@ -13725,7 +13725,7 @@
         </is>
       </c>
       <c r="AC67" t="n">
-        <v>213000</v>
+        <v>1080000</v>
       </c>
       <c r="AD67" t="inlineStr">
         <is>
@@ -13752,7 +13752,7 @@
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>2024-06-26</t>
+          <t>2024-06-29</t>
         </is>
       </c>
       <c r="AJ67" t="inlineStr"/>
@@ -13773,7 +13773,7 @@
         </is>
       </c>
       <c r="AO67" t="n">
-        <v>-213000</v>
+        <v>920000</v>
       </c>
       <c r="AP67" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
       </c>
       <c r="AU67" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '64', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '64', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '66', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '66', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-843f0e9037ff45919e450424e4cbac9e</t>
+          <t>https://www.notion.so/67-843f0e9037ff45919e450424e4cbac9e</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -13880,7 +13880,7 @@
         </is>
       </c>
       <c r="S68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T68" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         </is>
       </c>
       <c r="V68" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="AC68" t="n">
-        <v>2187000</v>
+        <v>13758000</v>
       </c>
       <c r="AD68" t="inlineStr">
         <is>
@@ -13937,7 +13937,7 @@
         </is>
       </c>
       <c r="AF68" t="n">
-        <v>11100000</v>
+        <v>3500000</v>
       </c>
       <c r="AG68" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>2024-06-27</t>
+          <t>2024-06-30</t>
         </is>
       </c>
       <c r="AJ68" t="inlineStr"/>
@@ -13972,7 +13972,7 @@
         </is>
       </c>
       <c r="AO68" t="n">
-        <v>9913000</v>
+        <v>-10258000</v>
       </c>
       <c r="AP68" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         </is>
       </c>
       <c r="AR68" t="n">
-        <v>11100000</v>
+        <v>3500000</v>
       </c>
       <c r="AS68" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
       </c>
       <c r="AU68" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '65', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '65', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '67', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '67', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-6049f3d742d048388a7a1856688cc253</t>
+          <t>https://www.notion.so/68-6049f3d742d048388a7a1856688cc253</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14079,7 +14079,7 @@
         </is>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         </is>
       </c>
       <c r="V69" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -14123,7 +14123,7 @@
         </is>
       </c>
       <c r="AC69" t="n">
-        <v>1080000</v>
+        <v>1800000</v>
       </c>
       <c r="AD69" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
         </is>
       </c>
       <c r="AF69" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AG69" t="inlineStr">
         <is>
@@ -14150,7 +14150,7 @@
       </c>
       <c r="AI69" t="inlineStr">
         <is>
-          <t>2024-06-29</t>
+          <t>2024-07-01</t>
         </is>
       </c>
       <c r="AJ69" t="inlineStr"/>
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="AO69" t="n">
-        <v>920000</v>
+        <v>1200000</v>
       </c>
       <c r="AP69" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         </is>
       </c>
       <c r="AR69" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AS69" t="inlineStr">
         <is>
@@ -14198,7 +14198,7 @@
       </c>
       <c r="AU69" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '66', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '66', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '68', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '68', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-612cdb5927f9493bb67472aff3b5927b</t>
+          <t>https://www.notion.so/69-612cdb5927f9493bb67472aff3b5927b</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14291,7 +14291,7 @@
         </is>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         </is>
       </c>
       <c r="AC70" t="n">
-        <v>13758000</v>
+        <v>530000</v>
       </c>
       <c r="AD70" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         </is>
       </c>
       <c r="AF70" t="n">
-        <v>3500000</v>
+        <v>1500000</v>
       </c>
       <c r="AG70" t="inlineStr">
         <is>
@@ -14349,7 +14349,7 @@
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-02</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr"/>
@@ -14370,7 +14370,7 @@
         </is>
       </c>
       <c r="AO70" t="n">
-        <v>-10258000</v>
+        <v>1770000</v>
       </c>
       <c r="AP70" t="inlineStr">
         <is>
@@ -14383,7 +14383,7 @@
         </is>
       </c>
       <c r="AR70" t="n">
-        <v>3500000</v>
+        <v>1500000</v>
       </c>
       <c r="AS70" t="inlineStr">
         <is>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="AU70" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '67', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '67', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '69', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '69', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-27085ca3d5144473a3bbda984c52e7e4</t>
+          <t>https://www.notion.so/70-27085ca3d5144473a3bbda984c52e7e4</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14477,7 +14477,7 @@
         </is>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="AC71" t="n">
-        <v>1800000</v>
+        <v>1280000</v>
       </c>
       <c r="AD71" t="inlineStr">
         <is>
@@ -14534,7 +14534,7 @@
         </is>
       </c>
       <c r="AF71" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AG71" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
       </c>
       <c r="AI71" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="AJ71" t="inlineStr"/>
@@ -14569,7 +14569,7 @@
         </is>
       </c>
       <c r="AO71" t="n">
-        <v>1200000</v>
+        <v>-1280000</v>
       </c>
       <c r="AP71" t="inlineStr">
         <is>
@@ -14582,7 +14582,7 @@
         </is>
       </c>
       <c r="AR71" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="AS71" t="inlineStr">
         <is>
@@ -14596,7 +14596,7 @@
       </c>
       <c r="AU71" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '68', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '68', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '70', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '70', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-5be9f11cc64f4f61bb71e7d2fbf96855</t>
+          <t>https://www.notion.so/71-5be9f11cc64f4f61bb71e7d2fbf96855</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14676,7 +14676,7 @@
         </is>
       </c>
       <c r="S72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         </is>
       </c>
       <c r="V72" t="n">
-        <v>800000</v>
+        <v>0</v>
       </c>
       <c r="W72" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         </is>
       </c>
       <c r="AC72" t="n">
-        <v>530000</v>
+        <v>40000</v>
       </c>
       <c r="AD72" t="inlineStr">
         <is>
@@ -14733,7 +14733,7 @@
         </is>
       </c>
       <c r="AF72" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AG72" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-04</t>
         </is>
       </c>
       <c r="AJ72" t="inlineStr"/>
@@ -14768,7 +14768,7 @@
         </is>
       </c>
       <c r="AO72" t="n">
-        <v>1770000</v>
+        <v>-40000</v>
       </c>
       <c r="AP72" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         </is>
       </c>
       <c r="AR72" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
       <c r="AS72" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
       </c>
       <c r="AU72" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '69', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '69', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '71', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '71', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:21:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-3f9e3e71188e48d5997a71070175e42b</t>
+          <t>https://www.notion.so/72-3f9e3e71188e48d5997a71070175e42b</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -14919,7 +14919,7 @@
         </is>
       </c>
       <c r="AC73" t="n">
-        <v>1280000</v>
+        <v>685000</v>
       </c>
       <c r="AD73" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
       </c>
       <c r="AI73" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-07-06</t>
         </is>
       </c>
       <c r="AJ73" t="inlineStr"/>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="AO73" t="n">
-        <v>-1280000</v>
+        <v>-685000</v>
       </c>
       <c r="AP73" t="inlineStr">
         <is>
@@ -14994,7 +14994,7 @@
       </c>
       <c r="AU73" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '70', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '70', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '72', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '72', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:22:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-c4a99c5cf44e4039a0458ad12b4f6046</t>
+          <t>https://www.notion.so/73-c4a99c5cf44e4039a0458ad12b4f6046</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15074,7 +15074,7 @@
         </is>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" t="inlineStr">
         <is>
@@ -15105,7 +15105,7 @@
         </is>
       </c>
       <c r="Z74" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         </is>
       </c>
       <c r="AC74" t="n">
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="AD74" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         </is>
       </c>
       <c r="AF74" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="AG74" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="AI74" t="inlineStr">
         <is>
-          <t>2024-07-04</t>
+          <t>2024-07-08</t>
         </is>
       </c>
       <c r="AJ74" t="inlineStr"/>
@@ -15166,7 +15166,7 @@
         </is>
       </c>
       <c r="AO74" t="n">
-        <v>-40000</v>
+        <v>3000000</v>
       </c>
       <c r="AP74" t="inlineStr">
         <is>
@@ -15179,7 +15179,7 @@
         </is>
       </c>
       <c r="AR74" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="AS74" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
       </c>
       <c r="AU74" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '71', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '71', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '73', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '73', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:22:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-214991f646494c4db5957aa6576c69ad</t>
+          <t>https://www.notion.so/74-214991f646494c4db5957aa6576c69ad</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15273,7 +15273,7 @@
         </is>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         </is>
       </c>
       <c r="AC75" t="n">
-        <v>685000</v>
+        <v>0</v>
       </c>
       <c r="AD75" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         </is>
       </c>
       <c r="AF75" t="n">
-        <v>0</v>
+        <v>1350000</v>
       </c>
       <c r="AG75" t="inlineStr">
         <is>
@@ -15344,7 +15344,7 @@
       </c>
       <c r="AI75" t="inlineStr">
         <is>
-          <t>2024-07-06</t>
+          <t>2024-07-09</t>
         </is>
       </c>
       <c r="AJ75" t="inlineStr"/>
@@ -15365,7 +15365,7 @@
         </is>
       </c>
       <c r="AO75" t="n">
-        <v>-685000</v>
+        <v>1350000</v>
       </c>
       <c r="AP75" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         </is>
       </c>
       <c r="AR75" t="n">
-        <v>0</v>
+        <v>1350000</v>
       </c>
       <c r="AS75" t="inlineStr">
         <is>
@@ -15392,7 +15392,7 @@
       </c>
       <c r="AU75" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '72', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '72', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '74', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '74', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:22:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-d9f9ae69896d4f76b57208645f10e3fa</t>
+          <t>https://www.notion.so/75-d9f9ae69896d4f76b57208645f10e3fa</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15503,7 +15503,7 @@
         </is>
       </c>
       <c r="Z76" t="n">
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
@@ -15516,7 +15516,7 @@
         </is>
       </c>
       <c r="AC76" t="n">
-        <v>0</v>
+        <v>108000</v>
       </c>
       <c r="AD76" t="inlineStr">
         <is>
@@ -15529,7 +15529,7 @@
         </is>
       </c>
       <c r="AF76" t="n">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
       <c r="AG76" t="inlineStr">
         <is>
@@ -15543,7 +15543,7 @@
       </c>
       <c r="AI76" t="inlineStr">
         <is>
-          <t>2024-07-08</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="AJ76" t="inlineStr"/>
@@ -15564,7 +15564,7 @@
         </is>
       </c>
       <c r="AO76" t="n">
-        <v>3000000</v>
+        <v>1392000</v>
       </c>
       <c r="AP76" t="inlineStr">
         <is>
@@ -15577,7 +15577,7 @@
         </is>
       </c>
       <c r="AR76" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="AS76" t="inlineStr">
         <is>
@@ -15591,7 +15591,7 @@
       </c>
       <c r="AU76" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '73', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '73', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '75', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '75', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:22:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-73f7f862f11441db92210fde8f9c580d</t>
+          <t>https://www.notion.so/76-73f7f862f11441db92210fde8f9c580d</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15728,7 +15728,7 @@
         </is>
       </c>
       <c r="AF77" t="n">
-        <v>1350000</v>
+        <v>2500000</v>
       </c>
       <c r="AG77" t="inlineStr">
         <is>
@@ -15742,7 +15742,7 @@
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-07-12</t>
         </is>
       </c>
       <c r="AJ77" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         </is>
       </c>
       <c r="AO77" t="n">
-        <v>1350000</v>
+        <v>2500000</v>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         </is>
       </c>
       <c r="AR77" t="n">
-        <v>1350000</v>
+        <v>2500000</v>
       </c>
       <c r="AS77" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
       </c>
       <c r="AU77" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '74', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '74', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '76', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '76', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:22:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-631d954b83a847d48683983aad0b002d</t>
+          <t>https://www.notion.so/77-631d954b83a847d48683983aad0b002d</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -15870,7 +15870,7 @@
         </is>
       </c>
       <c r="S78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T78" t="inlineStr">
         <is>
@@ -15901,7 +15901,7 @@
         </is>
       </c>
       <c r="Z78" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
@@ -15914,7 +15914,7 @@
         </is>
       </c>
       <c r="AC78" t="n">
-        <v>108000</v>
+        <v>6020000</v>
       </c>
       <c r="AD78" t="inlineStr">
         <is>
@@ -15927,7 +15927,7 @@
         </is>
       </c>
       <c r="AF78" t="n">
-        <v>1500000</v>
+        <v>13300000</v>
       </c>
       <c r="AG78" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
       </c>
       <c r="AI78" t="inlineStr">
         <is>
-          <t>2024-07-11</t>
+          <t>2024-07-13</t>
         </is>
       </c>
       <c r="AJ78" t="inlineStr"/>
@@ -15962,7 +15962,7 @@
         </is>
       </c>
       <c r="AO78" t="n">
-        <v>1392000</v>
+        <v>4780000</v>
       </c>
       <c r="AP78" t="inlineStr">
         <is>
@@ -15975,7 +15975,7 @@
         </is>
       </c>
       <c r="AR78" t="n">
-        <v>1500000</v>
+        <v>10800000</v>
       </c>
       <c r="AS78" t="inlineStr">
         <is>
@@ -15989,7 +15989,7 @@
       </c>
       <c r="AU78" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '75', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '75', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '77', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '77', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:22:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-3e313c4511094d1996f73d46baff66af</t>
+          <t>https://www.notion.so/78-3e313c4511094d1996f73d46baff66af</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         </is>
       </c>
       <c r="AF79" t="n">
-        <v>2500000</v>
+        <v>4000000</v>
       </c>
       <c r="AG79" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
       </c>
       <c r="AI79" t="inlineStr">
         <is>
-          <t>2024-07-12</t>
+          <t>2024-07-14</t>
         </is>
       </c>
       <c r="AJ79" t="inlineStr"/>
@@ -16161,7 +16161,7 @@
         </is>
       </c>
       <c r="AO79" t="n">
-        <v>2500000</v>
+        <v>4000000</v>
       </c>
       <c r="AP79" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         </is>
       </c>
       <c r="AR79" t="n">
-        <v>2500000</v>
+        <v>4000000</v>
       </c>
       <c r="AS79" t="inlineStr">
         <is>
@@ -16188,7 +16188,7 @@
       </c>
       <c r="AU79" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '76', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '76', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '78', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '78', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:22:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-15dc290bde0b4ca9ba770946c5f13582</t>
+          <t>https://www.notion.so/79-15dc290bde0b4ca9ba770946c5f13582</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16268,7 +16268,7 @@
         </is>
       </c>
       <c r="S80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T80" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         </is>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>2500000</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -16299,7 +16299,7 @@
         </is>
       </c>
       <c r="Z80" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
@@ -16312,7 +16312,7 @@
         </is>
       </c>
       <c r="AC80" t="n">
-        <v>6020000</v>
+        <v>0</v>
       </c>
       <c r="AD80" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         </is>
       </c>
       <c r="AF80" t="n">
-        <v>13300000</v>
+        <v>0</v>
       </c>
       <c r="AG80" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
       </c>
       <c r="AI80" t="inlineStr">
         <is>
-          <t>2024-07-13</t>
+          <t>2024-07-15</t>
         </is>
       </c>
       <c r="AJ80" t="inlineStr"/>
@@ -16360,7 +16360,7 @@
         </is>
       </c>
       <c r="AO80" t="n">
-        <v>4780000</v>
+        <v>2500000</v>
       </c>
       <c r="AP80" t="inlineStr">
         <is>
@@ -16373,7 +16373,7 @@
         </is>
       </c>
       <c r="AR80" t="n">
-        <v>10800000</v>
+        <v>0</v>
       </c>
       <c r="AS80" t="inlineStr">
         <is>
@@ -16387,7 +16387,7 @@
       </c>
       <c r="AU80" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '77', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '77', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '79', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '79', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:22:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-85a1185c5d12479f808c48ad22a864c1</t>
+          <t>https://www.notion.so/80-85a1185c5d12479f808c48ad22a864c1</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16511,7 +16511,7 @@
         </is>
       </c>
       <c r="AC81" t="n">
-        <v>0</v>
+        <v>89000</v>
       </c>
       <c r="AD81" t="inlineStr">
         <is>
@@ -16524,7 +16524,7 @@
         </is>
       </c>
       <c r="AF81" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="AG81" t="inlineStr">
         <is>
@@ -16538,7 +16538,7 @@
       </c>
       <c r="AI81" t="inlineStr">
         <is>
-          <t>2024-07-14</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="AJ81" t="inlineStr"/>
@@ -16559,7 +16559,7 @@
         </is>
       </c>
       <c r="AO81" t="n">
-        <v>4000000</v>
+        <v>6911000</v>
       </c>
       <c r="AP81" t="inlineStr">
         <is>
@@ -16572,7 +16572,7 @@
         </is>
       </c>
       <c r="AR81" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
       <c r="AS81" t="inlineStr">
         <is>
@@ -16586,7 +16586,7 @@
       </c>
       <c r="AU81" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '78', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '78', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '80', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '80', 'href': None}]</t>
         </is>
       </c>
     </row>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-17T17:22:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-b4c82aa77e7f4289b0ba1b14e683031d</t>
+          <t>https://www.notion.so/81-b4c82aa77e7f4289b0ba1b14e683031d</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16679,7 +16679,7 @@
         </is>
       </c>
       <c r="V82" t="n">
-        <v>2500000</v>
+        <v>0</v>
       </c>
       <c r="W82" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
         </is>
       </c>
       <c r="AC82" t="n">
-        <v>0</v>
+        <v>5985000</v>
       </c>
       <c r="AD82" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="AI82" t="inlineStr">
         <is>
-          <t>2024-07-15</t>
+          <t>2024-07-17</t>
         </is>
       </c>
       <c r="AJ82" t="inlineStr"/>
@@ -16758,7 +16758,7 @@
         </is>
       </c>
       <c r="AO82" t="n">
-        <v>2500000</v>
+        <v>-5985000</v>
       </c>
       <c r="AP82" t="inlineStr">
         <is>
@@ -16785,7 +16785,7 @@
       </c>
       <c r="AU82" t="inlineStr">
         <is>
-          <t>[{'type': 'text', 'text': {'content': '79', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '79', 'href': None}]</t>
+          <t>[{'type': 'text', 'text': {'content': '81', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '81', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU82"/>
+  <dimension ref="A1:AU83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ab7f95ce-43b3-42b1-83b5-0578395cef2d</t>
+          <t>8a14bd80-4464-4e14-9c3b-b8b92e5e34f1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-18T10:59:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-ab7f95ce43b342b183b50578395cef2d</t>
+          <t>https://www.notion.so/1-8a14bd8044644e149c3bb8b92e5e34f1</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,7 +877,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3b58dea8-d569-439c-9d28-37bc5cb00b87</t>
+          <t>ab7f95ce-43b3-42b1-83b5-0578395cef2d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-3b58dea8d569439c9d2837bc5cb00b87</t>
+          <t>https://www.notion.so/2-ab7f95ce43b342b183b50578395cef2d</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0fecdb7c-3c37-4eea-9728-9e9e308f8f91</t>
+          <t>3b58dea8-d569-439c-9d28-37bc5cb00b87</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-15T04:38:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-0fecdb7c3c374eea97289e9e308f8f91</t>
+          <t>https://www.notion.so/3-3b58dea8d569439c9d2837bc5cb00b87</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>e64e264f-45f0-48db-8349-7eb369265ce0</t>
+          <t>0fecdb7c-3c37-4eea-9728-9e9e308f8f91</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-14T14:34:00.000Z</t>
+          <t>2024-07-15T04:38:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-e64e264f45f048db83497eb369265ce0</t>
+          <t>https://www.notion.so/4-0fecdb7c3c374eea97289e9e308f8f91</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6c9a4fbe-94ba-4813-a444-2725e44cd033</t>
+          <t>e64e264f-45f0-48db-8349-7eb369265ce0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-13T09:28:00.000Z</t>
+          <t>2024-07-14T14:34:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-6c9a4fbe94ba4813a4442725e44cd033</t>
+          <t>https://www.notion.so/5-e64e264f45f048db83497eb369265ce0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5cd2df68-475f-4500-b2d7-678411a240a9</t>
+          <t>6c9a4fbe-94ba-4813-a444-2725e44cd033</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-12T09:53:00.000Z</t>
+          <t>2024-07-13T09:28:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-5cd2df68475f4500b2d7678411a240a9</t>
+          <t>https://www.notion.so/6-6c9a4fbe94ba4813a4442725e44cd033</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>9afdbbb6-3c71-4c0c-9dde-e729964648b8</t>
+          <t>5cd2df68-475f-4500-b2d7-678411a240a9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-11T06:12:00.000Z</t>
+          <t>2024-07-12T09:53:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-9afdbbb63c714c0c9ddee729964648b8</t>
+          <t>https://www.notion.so/7-5cd2df68475f4500b2d7678411a240a9</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>fb2d1794-0cdc-46f0-a9a1-07162fa1770c</t>
+          <t>9afdbbb6-3c71-4c0c-9dde-e729964648b8</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-09T08:22:00.000Z</t>
+          <t>2024-07-11T06:12:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-fb2d17940cdc46f0a9a107162fa1770c</t>
+          <t>https://www.notion.so/8-9afdbbb63c714c0c9ddee729964648b8</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>107624f7-7695-4a1b-b0ba-d8f486d99ffc</t>
+          <t>fb2d1794-0cdc-46f0-a9a1-07162fa1770c</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-08T04:11:00.000Z</t>
+          <t>2024-07-09T08:22:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-107624f776954a1bb0bad8f486d99ffc</t>
+          <t>https://www.notion.so/9-fb2d17940cdc46f0a9a107162fa1770c</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
+          <t>107624f7-7695-4a1b-b0ba-d8f486d99ffc</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-06T08:51:00.000Z</t>
+          <t>2024-07-08T04:11:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-77beaf39139f468c8b7a9dfbffdc34ce</t>
+          <t>https://www.notion.so/10-107624f776954a1bb0bad8f486d99ffc</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
+          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-04T03:57:00.000Z</t>
+          <t>2024-07-06T08:51:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-0344784760f74bcc9b55b672299a1911</t>
+          <t>https://www.notion.so/11-77beaf39139f468c8b7a9dfbffdc34ce</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
+          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-03T09:52:00.000Z</t>
+          <t>2024-07-04T03:57:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-17T17:23:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-d37aca6076a9490aa5ce5ba95dc756e3</t>
+          <t>https://www.notion.so/12-0344784760f74bcc9b55b672299a1911</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
+          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-02T02:58:00.000Z</t>
+          <t>2024-07-03T09:52:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-e0bee04d4ecb4601928c0d8895b609ff</t>
+          <t>https://www.notion.so/13-d37aca6076a9490aa5ce5ba95dc756e3</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
+          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-01T07:45:00.000Z</t>
+          <t>2024-07-02T02:58:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-06f84bee3de04d8ea89d0d662e49da6f</t>
+          <t>https://www.notion.so/14-e0bee04d4ecb4601928c0d8895b609ff</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
+          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-06-30T09:08:00.000Z</t>
+          <t>2024-07-01T07:45:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-9c68fce37d4f4432a9b2e94a31b35cb8</t>
+          <t>https://www.notion.so/15-06f84bee3de04d8ea89d0d662e49da6f</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
+          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-06-29T09:34:00.000Z</t>
+          <t>2024-06-30T09:08:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-f4840e299c1d43c3837e0d16a331afc5</t>
+          <t>https://www.notion.so/16-9c68fce37d4f4432a9b2e94a31b35cb8</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
+          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-06-27T05:20:00.000Z</t>
+          <t>2024-06-29T09:34:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-413abd2bd960425d830b670598ce73e3</t>
+          <t>https://www.notion.so/17-f4840e299c1d43c3837e0d16a331afc5</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
+          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-27T05:20:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-7f65d6ca1a4147e390c31c67b654a580</t>
+          <t>https://www.notion.so/18-413abd2bd960425d830b670598ce73e3</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,17 +4260,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
+          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-5368b5a82d914fc3a5f194c7162f5048</t>
+          <t>https://www.notion.so/19-7f65d6ca1a4147e390c31c67b654a580</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
+          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-8701f2d293c34e0085672e3e7631cdb8</t>
+          <t>https://www.notion.so/20-5368b5a82d914fc3a5f194c7162f5048</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
+          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-456dae273fe84d68bdf84f10f987d889</t>
+          <t>https://www.notion.so/21-8701f2d293c34e0085672e3e7631cdb8</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
+          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-ccfa10878ca8496b8e932819f304be25</t>
+          <t>https://www.notion.so/22-456dae273fe84d68bdf84f10f987d889</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
+          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-1c8d62843aae418c92089c391cbbf64d</t>
+          <t>https://www.notion.so/23-ccfa10878ca8496b8e932819f304be25</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
+          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-ac86b813bcdf4436856ff6d3737b416c</t>
+          <t>https://www.notion.so/24-1c8d62843aae418c92089c391cbbf64d</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
+          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-8e3a71e5f9274e4fb215d54c0188294e</t>
+          <t>https://www.notion.so/25-ac86b813bcdf4436856ff6d3737b416c</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
+          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-bc3f46b564954ce290fb3abd2ad49c48</t>
+          <t>https://www.notion.so/26-8e3a71e5f9274e4fb215d54c0188294e</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
+          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-2dcf2fedb2f345f787374acf8616b370</t>
+          <t>https://www.notion.so/27-bc3f46b564954ce290fb3abd2ad49c48</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
+          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-887b24410fb94d5d86f359c23164bb5d</t>
+          <t>https://www.notion.so/28-2dcf2fedb2f345f787374acf8616b370</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
+          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:58:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-b002fbe7cff2401fb9bad07fd6cc561f</t>
+          <t>https://www.notion.so/29-887b24410fb94d5d86f359c23164bb5d</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,17 +6449,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
+          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-df6bda30993c4e7aab4794d2c47b686c</t>
+          <t>https://www.notion.so/30-b002fbe7cff2401fb9bad07fd6cc561f</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
+          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-05ebb8d49dc141599836122e738bf488</t>
+          <t>https://www.notion.so/31-df6bda30993c4e7aab4794d2c47b686c</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
+          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-2ac05bc7172c4aa4b654799d67afe9e3</t>
+          <t>https://www.notion.so/32-05ebb8d49dc141599836122e738bf488</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
+          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-ffe6c77991f74c50b15dd0453a138e44</t>
+          <t>https://www.notion.so/33-2ac05bc7172c4aa4b654799d67afe9e3</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
+          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-2b0f762dd9a1460ab13f2736f1b47f93</t>
+          <t>https://www.notion.so/34-ffe6c77991f74c50b15dd0453a138e44</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
+          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-8716b812f61b4f9c90a0142d28bdca52</t>
+          <t>https://www.notion.so/35-2b0f762dd9a1460ab13f2736f1b47f93</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
+          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-670caeaf380a49d780a2f4774180a454</t>
+          <t>https://www.notion.so/36-8716b812f61b4f9c90a0142d28bdca52</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
+          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-4159c13e192d4b3ca97a4b8514d8725c</t>
+          <t>https://www.notion.so/37-670caeaf380a49d780a2f4774180a454</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
+          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-cf3e7eac935546569394e931803f630d</t>
+          <t>https://www.notion.so/38-4159c13e192d4b3ca97a4b8514d8725c</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
+          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-9df7353497164a8ab24939853ee869da</t>
+          <t>https://www.notion.so/39-cf3e7eac935546569394e931803f630d</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
+          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-5346b50987b446f79918eecb88e8cf6a</t>
+          <t>https://www.notion.so/40-9df7353497164a8ab24939853ee869da</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
+          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-a5122c4330234baabe9f0dd89011734c</t>
+          <t>https://www.notion.so/41-5346b50987b446f79918eecb88e8cf6a</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
+          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-a532e7cf90914f2e9e8d88f03ae7f109</t>
+          <t>https://www.notion.so/42-a5122c4330234baabe9f0dd89011734c</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
+          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-ecbeca945cb643fdb3eaaa736eb36655</t>
+          <t>https://www.notion.so/43-a532e7cf90914f2e9e8d88f03ae7f109</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
+          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-17T17:24:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-0cb9eb84b38a4c77b4fbc39974d76a86</t>
+          <t>https://www.notion.so/44-ecbeca945cb643fdb3eaaa736eb36655</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
+          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-71579228ff4f4c82ab8de40170d28c84</t>
+          <t>https://www.notion.so/45-0cb9eb84b38a4c77b4fbc39974d76a86</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
+          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-808bf9c3006a400293f08edfcc7f0f77</t>
+          <t>https://www.notion.so/46-71579228ff4f4c82ab8de40170d28c84</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
+          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-f6aa15d581a744cdb711a7c11cd8091b</t>
+          <t>https://www.notion.so/47-808bf9c3006a400293f08edfcc7f0f77</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
+          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-8f93fb5b6434414db1585a6d8373e0cb</t>
+          <t>https://www.notion.so/48-f6aa15d581a744cdb711a7c11cd8091b</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
+          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-5f697f46bc4547b0af9fb79d2f89615c</t>
+          <t>https://www.notion.so/49-8f93fb5b6434414db1585a6d8373e0cb</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
+          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-0d51e83ddaba4f7f98a5265e6f893acc</t>
+          <t>https://www.notion.so/50-5f697f46bc4547b0af9fb79d2f89615c</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
+          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-b6442ee624444519ba61ee66f711f543</t>
+          <t>https://www.notion.so/51-0d51e83ddaba4f7f98a5265e6f893acc</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
+          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
+          <t>https://www.notion.so/52-b6442ee624444519ba61ee66f711f543</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
+          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
+          <t>https://www.notion.so/53-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
+          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-5ae18489d18540dbbfc41263a08c863e</t>
+          <t>https://www.notion.so/54-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
+          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-2cc2a8737fd94612a974d6e1f3cfcad0</t>
+          <t>https://www.notion.so/55-5ae18489d18540dbbfc41263a08c863e</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
+          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-1bbc9ed697b3463aa7073252641dd198</t>
+          <t>https://www.notion.so/56-2cc2a8737fd94612a974d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
+          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
+          <t>https://www.notion.so/57-1bbc9ed697b3463aa7073252641dd198</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
+          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-de2a36cf877144f0a9a3cd55abfe271b</t>
+          <t>https://www.notion.so/58-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
+          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-52391eb5b8b04d4ca021f5c63b61d834</t>
+          <t>https://www.notion.so/59-de2a36cf877144f0a9a3cd55abfe271b</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
+          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-68bb50dcb72047b7998376df9b3742f6</t>
+          <t>https://www.notion.so/60-52391eb5b8b04d4ca021f5c63b61d834</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
+          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-58b1fa10c5cf4bcdbe34669b0c698923</t>
+          <t>https://www.notion.so/61-68bb50dcb72047b7998376df9b3742f6</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
+          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-c3ede5ddeeba4a2687538586469f6e8a</t>
+          <t>https://www.notion.so/62-58b1fa10c5cf4bcdbe34669b0c698923</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
+          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-46806830e1bd4cb594a526deedae2a38</t>
+          <t>https://www.notion.so/63-c3ede5ddeeba4a2687538586469f6e8a</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
+          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-2e1d33d8b8334ccaacee1f03482d66eb</t>
+          <t>https://www.notion.so/64-46806830e1bd4cb594a526deedae2a38</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
+          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-96324ff37f5948f0b916fc6536c5dade</t>
+          <t>https://www.notion.so/65-2e1d33d8b8334ccaacee1f03482d66eb</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
+          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-0e7dfb28877148948e464365dc6f2ad2</t>
+          <t>https://www.notion.so/66-96324ff37f5948f0b916fc6536c5dade</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
+          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-843f0e9037ff45919e450424e4cbac9e</t>
+          <t>https://www.notion.so/67-0e7dfb28877148948e464365dc6f2ad2</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
+          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-6049f3d742d048388a7a1856688cc253</t>
+          <t>https://www.notion.so/68-843f0e9037ff45919e450424e4cbac9e</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
+          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T15:59:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-612cdb5927f9493bb67472aff3b5927b</t>
+          <t>https://www.notion.so/69-6049f3d742d048388a7a1856688cc253</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
+          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-27085ca3d5144473a3bbda984c52e7e4</t>
+          <t>https://www.notion.so/70-612cdb5927f9493bb67472aff3b5927b</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
+          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-5be9f11cc64f4f61bb71e7d2fbf96855</t>
+          <t>https://www.notion.so/71-27085ca3d5144473a3bbda984c52e7e4</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
+          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-17T17:21:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-3f9e3e71188e48d5997a71070175e42b</t>
+          <t>https://www.notion.so/72-5be9f11cc64f4f61bb71e7d2fbf96855</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
+          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-c4a99c5cf44e4039a0458ad12b4f6046</t>
+          <t>https://www.notion.so/73-3f9e3e71188e48d5997a71070175e42b</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,17 +15205,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
+          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2024-06-25T15:36:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-214991f646494c4db5957aa6576c69ad</t>
+          <t>https://www.notion.so/74-c4a99c5cf44e4039a0458ad12b4f6046</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
+          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-d9f9ae69896d4f76b57208645f10e3fa</t>
+          <t>https://www.notion.so/75-214991f646494c4db5957aa6576c69ad</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
+          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-73f7f862f11441db92210fde8f9c580d</t>
+          <t>https://www.notion.so/76-d9f9ae69896d4f76b57208645f10e3fa</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
+          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-631d954b83a847d48683983aad0b002d</t>
+          <t>https://www.notion.so/77-73f7f862f11441db92210fde8f9c580d</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
+          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-3e313c4511094d1996f73d46baff66af</t>
+          <t>https://www.notion.so/78-631d954b83a847d48683983aad0b002d</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,17 +16200,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
+          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2024-06-25T08:24:00.000Z</t>
+          <t>2024-06-25T15:36:00.000Z</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-15dc290bde0b4ca9ba770946c5f13582</t>
+          <t>https://www.notion.so/79-3e313c4511094d1996f73d46baff66af</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16234,7 +16234,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
+          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-85a1185c5d12479f808c48ad22a864c1</t>
+          <t>https://www.notion.so/80-15dc290bde0b4ca9ba770946c5f13582</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-17T17:22:00.000Z</t>
+          <t>2024-07-18T16:00:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-b4c82aa77e7f4289b0ba1b14e683031d</t>
+          <t>https://www.notion.so/81-85a1185c5d12479f808c48ad22a864c1</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16786,6 +16786,205 @@
       <c r="AU82" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '81', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '81', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2024-07-18T16:00:00.000Z</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/82-b4c82aa77e7f4289b0ba1b14e683031d</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC83" t="n">
+        <v>80000</v>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH83" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI83" t="inlineStr">
+        <is>
+          <t>2024-07-18</t>
+        </is>
+      </c>
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM83" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN83" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO83" t="n">
+        <v>-80000</v>
+      </c>
+      <c r="AP83" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ83" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS83" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT83" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU83" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '82', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '82', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
@@ -688,7 +688,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -887,7 +887,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:00:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2280,7 +2280,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3474,7 +3474,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:01:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-18T15:58:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:02:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-18T15:59:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-18T16:00:00.000Z</t>
+          <t>2024-07-19T08:03:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>

--- a/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU83"/>
+  <dimension ref="A1:AU84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8a14bd80-4464-4e14-9c3b-b8b92e5e34f1</t>
+          <t>94fa7304-3963-4bcd-8356-5abbfce2a6f3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-18T10:59:00.000Z</t>
+          <t>2024-07-19T10:42:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-8a14bd8044644e149c3bb8b92e5e34f1</t>
+          <t>https://www.notion.so/1-94fa730439634bcd83565abbfce2a6f3</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ab7f95ce-43b3-42b1-83b5-0578395cef2d</t>
+          <t>8a14bd80-4464-4e14-9c3b-b8b92e5e34f1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-18T10:59:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-19T08:00:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-ab7f95ce43b342b183b50578395cef2d</t>
+          <t>https://www.notion.so/2-8a14bd8044644e149c3bb8b92e5e34f1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3b58dea8-d569-439c-9d28-37bc5cb00b87</t>
+          <t>ab7f95ce-43b3-42b1-83b5-0578395cef2d</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-3b58dea8d569439c9d2837bc5cb00b87</t>
+          <t>https://www.notion.so/3-ab7f95ce43b342b183b50578395cef2d</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0fecdb7c-3c37-4eea-9728-9e9e308f8f91</t>
+          <t>3b58dea8-d569-439c-9d28-37bc5cb00b87</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-15T04:38:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-0fecdb7c3c374eea97289e9e308f8f91</t>
+          <t>https://www.notion.so/4-3b58dea8d569439c9d2837bc5cb00b87</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>e64e264f-45f0-48db-8349-7eb369265ce0</t>
+          <t>0fecdb7c-3c37-4eea-9728-9e9e308f8f91</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-14T14:34:00.000Z</t>
+          <t>2024-07-15T04:38:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-e64e264f45f048db83497eb369265ce0</t>
+          <t>https://www.notion.so/5-0fecdb7c3c374eea97289e9e308f8f91</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6c9a4fbe-94ba-4813-a444-2725e44cd033</t>
+          <t>e64e264f-45f0-48db-8349-7eb369265ce0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-13T09:28:00.000Z</t>
+          <t>2024-07-14T14:34:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-6c9a4fbe94ba4813a4442725e44cd033</t>
+          <t>https://www.notion.so/6-e64e264f45f048db83497eb369265ce0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>5cd2df68-475f-4500-b2d7-678411a240a9</t>
+          <t>6c9a4fbe-94ba-4813-a444-2725e44cd033</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-12T09:53:00.000Z</t>
+          <t>2024-07-13T09:28:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-5cd2df68475f4500b2d7678411a240a9</t>
+          <t>https://www.notion.so/7-6c9a4fbe94ba4813a4442725e44cd033</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9afdbbb6-3c71-4c0c-9dde-e729964648b8</t>
+          <t>5cd2df68-475f-4500-b2d7-678411a240a9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-11T06:12:00.000Z</t>
+          <t>2024-07-12T09:53:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-9afdbbb63c714c0c9ddee729964648b8</t>
+          <t>https://www.notion.so/8-5cd2df68475f4500b2d7678411a240a9</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>fb2d1794-0cdc-46f0-a9a1-07162fa1770c</t>
+          <t>9afdbbb6-3c71-4c0c-9dde-e729964648b8</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-09T08:22:00.000Z</t>
+          <t>2024-07-11T06:12:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-fb2d17940cdc46f0a9a107162fa1770c</t>
+          <t>https://www.notion.so/9-9afdbbb63c714c0c9ddee729964648b8</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>107624f7-7695-4a1b-b0ba-d8f486d99ffc</t>
+          <t>fb2d1794-0cdc-46f0-a9a1-07162fa1770c</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-08T04:11:00.000Z</t>
+          <t>2024-07-09T08:22:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-107624f776954a1bb0bad8f486d99ffc</t>
+          <t>https://www.notion.so/10-fb2d17940cdc46f0a9a107162fa1770c</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
+          <t>107624f7-7695-4a1b-b0ba-d8f486d99ffc</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-06T08:51:00.000Z</t>
+          <t>2024-07-08T04:11:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-77beaf39139f468c8b7a9dfbffdc34ce</t>
+          <t>https://www.notion.so/11-107624f776954a1bb0bad8f486d99ffc</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
+          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-04T03:57:00.000Z</t>
+          <t>2024-07-06T08:51:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-0344784760f74bcc9b55b672299a1911</t>
+          <t>https://www.notion.so/12-77beaf39139f468c8b7a9dfbffdc34ce</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
+          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-03T09:52:00.000Z</t>
+          <t>2024-07-04T03:57:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-d37aca6076a9490aa5ce5ba95dc756e3</t>
+          <t>https://www.notion.so/13-0344784760f74bcc9b55b672299a1911</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
+          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-02T02:58:00.000Z</t>
+          <t>2024-07-03T09:52:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:51:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-e0bee04d4ecb4601928c0d8895b609ff</t>
+          <t>https://www.notion.so/14-d37aca6076a9490aa5ce5ba95dc756e3</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
+          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-07-01T07:45:00.000Z</t>
+          <t>2024-07-02T02:58:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-06f84bee3de04d8ea89d0d662e49da6f</t>
+          <t>https://www.notion.so/15-e0bee04d4ecb4601928c0d8895b609ff</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
+          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-06-30T09:08:00.000Z</t>
+          <t>2024-07-01T07:45:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-9c68fce37d4f4432a9b2e94a31b35cb8</t>
+          <t>https://www.notion.so/16-06f84bee3de04d8ea89d0d662e49da6f</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
+          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-06-29T09:34:00.000Z</t>
+          <t>2024-06-30T09:08:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-f4840e299c1d43c3837e0d16a331afc5</t>
+          <t>https://www.notion.so/17-9c68fce37d4f4432a9b2e94a31b35cb8</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
+          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-06-27T05:20:00.000Z</t>
+          <t>2024-06-29T09:34:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-413abd2bd960425d830b670598ce73e3</t>
+          <t>https://www.notion.so/18-f4840e299c1d43c3837e0d16a331afc5</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,17 +4260,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
+          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-27T05:20:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-7f65d6ca1a4147e390c31c67b654a580</t>
+          <t>https://www.notion.so/19-413abd2bd960425d830b670598ce73e3</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
+          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-5368b5a82d914fc3a5f194c7162f5048</t>
+          <t>https://www.notion.so/20-7f65d6ca1a4147e390c31c67b654a580</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,7 +4658,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
+          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-8701f2d293c34e0085672e3e7631cdb8</t>
+          <t>https://www.notion.so/21-5368b5a82d914fc3a5f194c7162f5048</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
+          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-456dae273fe84d68bdf84f10f987d889</t>
+          <t>https://www.notion.so/22-8701f2d293c34e0085672e3e7631cdb8</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
+          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-ccfa10878ca8496b8e932819f304be25</t>
+          <t>https://www.notion.so/23-456dae273fe84d68bdf84f10f987d889</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
+          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-19T08:01:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-1c8d62843aae418c92089c391cbbf64d</t>
+          <t>https://www.notion.so/24-ccfa10878ca8496b8e932819f304be25</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
+          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-ac86b813bcdf4436856ff6d3737b416c</t>
+          <t>https://www.notion.so/25-1c8d62843aae418c92089c391cbbf64d</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
+          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-8e3a71e5f9274e4fb215d54c0188294e</t>
+          <t>https://www.notion.so/26-ac86b813bcdf4436856ff6d3737b416c</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
+          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-bc3f46b564954ce290fb3abd2ad49c48</t>
+          <t>https://www.notion.so/27-8e3a71e5f9274e4fb215d54c0188294e</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
+          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-2dcf2fedb2f345f787374acf8616b370</t>
+          <t>https://www.notion.so/28-bc3f46b564954ce290fb3abd2ad49c48</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
+          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-887b24410fb94d5d86f359c23164bb5d</t>
+          <t>https://www.notion.so/29-2dcf2fedb2f345f787374acf8616b370</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
+          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-b002fbe7cff2401fb9bad07fd6cc561f</t>
+          <t>https://www.notion.so/30-887b24410fb94d5d86f359c23164bb5d</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,17 +6648,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
+          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-df6bda30993c4e7aab4794d2c47b686c</t>
+          <t>https://www.notion.so/31-b002fbe7cff2401fb9bad07fd6cc561f</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
+          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-05ebb8d49dc141599836122e738bf488</t>
+          <t>https://www.notion.so/32-df6bda30993c4e7aab4794d2c47b686c</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
+          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-2ac05bc7172c4aa4b654799d67afe9e3</t>
+          <t>https://www.notion.so/33-05ebb8d49dc141599836122e738bf488</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
+          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-ffe6c77991f74c50b15dd0453a138e44</t>
+          <t>https://www.notion.so/34-2ac05bc7172c4aa4b654799d67afe9e3</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
+          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-2b0f762dd9a1460ab13f2736f1b47f93</t>
+          <t>https://www.notion.so/35-ffe6c77991f74c50b15dd0453a138e44</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
+          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-8716b812f61b4f9c90a0142d28bdca52</t>
+          <t>https://www.notion.so/36-2b0f762dd9a1460ab13f2736f1b47f93</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
+          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-670caeaf380a49d780a2f4774180a454</t>
+          <t>https://www.notion.so/37-8716b812f61b4f9c90a0142d28bdca52</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
+          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-4159c13e192d4b3ca97a4b8514d8725c</t>
+          <t>https://www.notion.so/38-670caeaf380a49d780a2f4774180a454</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
+          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-cf3e7eac935546569394e931803f630d</t>
+          <t>https://www.notion.so/39-4159c13e192d4b3ca97a4b8514d8725c</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
+          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-9df7353497164a8ab24939853ee869da</t>
+          <t>https://www.notion.so/40-cf3e7eac935546569394e931803f630d</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
+          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-5346b50987b446f79918eecb88e8cf6a</t>
+          <t>https://www.notion.so/41-9df7353497164a8ab24939853ee869da</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
+          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-a5122c4330234baabe9f0dd89011734c</t>
+          <t>https://www.notion.so/42-5346b50987b446f79918eecb88e8cf6a</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
+          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-a532e7cf90914f2e9e8d88f03ae7f109</t>
+          <t>https://www.notion.so/43-a5122c4330234baabe9f0dd89011734c</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
+          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-ecbeca945cb643fdb3eaaa736eb36655</t>
+          <t>https://www.notion.so/44-a532e7cf90914f2e9e8d88f03ae7f109</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
+          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-0cb9eb84b38a4c77b4fbc39974d76a86</t>
+          <t>https://www.notion.so/45-ecbeca945cb643fdb3eaaa736eb36655</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
+          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:52:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-71579228ff4f4c82ab8de40170d28c84</t>
+          <t>https://www.notion.so/46-0cb9eb84b38a4c77b4fbc39974d76a86</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
+          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-808bf9c3006a400293f08edfcc7f0f77</t>
+          <t>https://www.notion.so/47-71579228ff4f4c82ab8de40170d28c84</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
+          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-f6aa15d581a744cdb711a7c11cd8091b</t>
+          <t>https://www.notion.so/48-808bf9c3006a400293f08edfcc7f0f77</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
+          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-8f93fb5b6434414db1585a6d8373e0cb</t>
+          <t>https://www.notion.so/49-f6aa15d581a744cdb711a7c11cd8091b</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
+          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-5f697f46bc4547b0af9fb79d2f89615c</t>
+          <t>https://www.notion.so/50-8f93fb5b6434414db1585a6d8373e0cb</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
+          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-0d51e83ddaba4f7f98a5265e6f893acc</t>
+          <t>https://www.notion.so/51-5f697f46bc4547b0af9fb79d2f89615c</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
+          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-b6442ee624444519ba61ee66f711f543</t>
+          <t>https://www.notion.so/52-0d51e83ddaba4f7f98a5265e6f893acc</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
+          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
+          <t>https://www.notion.so/53-b6442ee624444519ba61ee66f711f543</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
+          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
+          <t>https://www.notion.so/54-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
+          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-5ae18489d18540dbbfc41263a08c863e</t>
+          <t>https://www.notion.so/55-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
+          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-2cc2a8737fd94612a974d6e1f3cfcad0</t>
+          <t>https://www.notion.so/56-5ae18489d18540dbbfc41263a08c863e</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
+          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-19T08:02:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-1bbc9ed697b3463aa7073252641dd198</t>
+          <t>https://www.notion.so/57-2cc2a8737fd94612a974d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
+          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
+          <t>https://www.notion.so/58-1bbc9ed697b3463aa7073252641dd198</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
+          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-de2a36cf877144f0a9a3cd55abfe271b</t>
+          <t>https://www.notion.so/59-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
+          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-52391eb5b8b04d4ca021f5c63b61d834</t>
+          <t>https://www.notion.so/60-de2a36cf877144f0a9a3cd55abfe271b</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
+          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-68bb50dcb72047b7998376df9b3742f6</t>
+          <t>https://www.notion.so/61-52391eb5b8b04d4ca021f5c63b61d834</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
+          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-58b1fa10c5cf4bcdbe34669b0c698923</t>
+          <t>https://www.notion.so/62-68bb50dcb72047b7998376df9b3742f6</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
+          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-c3ede5ddeeba4a2687538586469f6e8a</t>
+          <t>https://www.notion.so/63-58b1fa10c5cf4bcdbe34669b0c698923</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
+          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-46806830e1bd4cb594a526deedae2a38</t>
+          <t>https://www.notion.so/64-c3ede5ddeeba4a2687538586469f6e8a</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
+          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-2e1d33d8b8334ccaacee1f03482d66eb</t>
+          <t>https://www.notion.so/65-46806830e1bd4cb594a526deedae2a38</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
+          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-96324ff37f5948f0b916fc6536c5dade</t>
+          <t>https://www.notion.so/66-2e1d33d8b8334ccaacee1f03482d66eb</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
+          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-0e7dfb28877148948e464365dc6f2ad2</t>
+          <t>https://www.notion.so/67-96324ff37f5948f0b916fc6536c5dade</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
+          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-843f0e9037ff45919e450424e4cbac9e</t>
+          <t>https://www.notion.so/68-0e7dfb28877148948e464365dc6f2ad2</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
+          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-6049f3d742d048388a7a1856688cc253</t>
+          <t>https://www.notion.so/69-843f0e9037ff45919e450424e4cbac9e</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
+          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-612cdb5927f9493bb67472aff3b5927b</t>
+          <t>https://www.notion.so/70-6049f3d742d048388a7a1856688cc253</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
+          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-27085ca3d5144473a3bbda984c52e7e4</t>
+          <t>https://www.notion.so/71-612cdb5927f9493bb67472aff3b5927b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
+          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-5be9f11cc64f4f61bb71e7d2fbf96855</t>
+          <t>https://www.notion.so/72-27085ca3d5144473a3bbda984c52e7e4</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
+          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-3f9e3e71188e48d5997a71070175e42b</t>
+          <t>https://www.notion.so/73-5be9f11cc64f4f61bb71e7d2fbf96855</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
+          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-c4a99c5cf44e4039a0458ad12b4f6046</t>
+          <t>https://www.notion.so/74-3f9e3e71188e48d5997a71070175e42b</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,17 +15404,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
+          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2024-06-25T15:36:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-214991f646494c4db5957aa6576c69ad</t>
+          <t>https://www.notion.so/75-c4a99c5cf44e4039a0458ad12b4f6046</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
+          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-d9f9ae69896d4f76b57208645f10e3fa</t>
+          <t>https://www.notion.so/76-214991f646494c4db5957aa6576c69ad</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
+          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-73f7f862f11441db92210fde8f9c580d</t>
+          <t>https://www.notion.so/77-d9f9ae69896d4f76b57208645f10e3fa</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
+          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:53:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-631d954b83a847d48683983aad0b002d</t>
+          <t>https://www.notion.so/78-73f7f862f11441db92210fde8f9c580d</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
+          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-3e313c4511094d1996f73d46baff66af</t>
+          <t>https://www.notion.so/79-631d954b83a847d48683983aad0b002d</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,17 +16399,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
+          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2024-06-25T08:24:00.000Z</t>
+          <t>2024-06-25T15:36:00.000Z</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-15dc290bde0b4ca9ba770946c5f13582</t>
+          <t>https://www.notion.so/80-3e313c4511094d1996f73d46baff66af</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
+          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-85a1185c5d12479f808c48ad22a864c1</t>
+          <t>https://www.notion.so/81-15dc290bde0b4ca9ba770946c5f13582</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-19T08:03:00.000Z</t>
+          <t>2024-07-19T12:49:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-b4c82aa77e7f4289b0ba1b14e683031d</t>
+          <t>https://www.notion.so/82-85a1185c5d12479f808c48ad22a864c1</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16985,6 +16985,205 @@
       <c r="AU83" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '82', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '82', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2024-07-19T12:49:00.000Z</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/83-b4c82aa77e7f4289b0ba1b14e683031d</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC84" t="n">
+        <v>517000</v>
+      </c>
+      <c r="AD84" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI84" t="inlineStr">
+        <is>
+          <t>2024-07-19</t>
+        </is>
+      </c>
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM84" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN84" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO84" t="n">
+        <v>-517000</v>
+      </c>
+      <c r="AP84" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ84" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS84" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT84" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU84" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '83', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '83', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU84"/>
+  <dimension ref="A1:AU85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>94fa7304-3963-4bcd-8356-5abbfce2a6f3</t>
+          <t>6e31e972-3b9d-4943-9bca-9623487e0a7d</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-19T10:42:00.000Z</t>
+          <t>2024-07-20T09:48:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-94fa730439634bcd83565abbfce2a6f3</t>
+          <t>https://www.notion.so/1-6e31e9723b9d49439bca9623487e0a7d</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8a14bd80-4464-4e14-9c3b-b8b92e5e34f1</t>
+          <t>94fa7304-3963-4bcd-8356-5abbfce2a6f3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-18T10:59:00.000Z</t>
+          <t>2024-07-19T10:42:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-8a14bd8044644e149c3bb8b92e5e34f1</t>
+          <t>https://www.notion.so/2-94fa730439634bcd83565abbfce2a6f3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ab7f95ce-43b3-42b1-83b5-0578395cef2d</t>
+          <t>8a14bd80-4464-4e14-9c3b-b8b92e5e34f1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-18T10:59:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-ab7f95ce43b342b183b50578395cef2d</t>
+          <t>https://www.notion.so/3-8a14bd8044644e149c3bb8b92e5e34f1</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3b58dea8-d569-439c-9d28-37bc5cb00b87</t>
+          <t>ab7f95ce-43b3-42b1-83b5-0578395cef2d</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-3b58dea8d569439c9d2837bc5cb00b87</t>
+          <t>https://www.notion.so/4-ab7f95ce43b342b183b50578395cef2d</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,17 +1474,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0fecdb7c-3c37-4eea-9728-9e9e308f8f91</t>
+          <t>3b58dea8-d569-439c-9d28-37bc5cb00b87</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-07-15T04:38:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-0fecdb7c3c374eea97289e9e308f8f91</t>
+          <t>https://www.notion.so/5-3b58dea8d569439c9d2837bc5cb00b87</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>e64e264f-45f0-48db-8349-7eb369265ce0</t>
+          <t>0fecdb7c-3c37-4eea-9728-9e9e308f8f91</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-14T14:34:00.000Z</t>
+          <t>2024-07-15T04:38:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-e64e264f45f048db83497eb369265ce0</t>
+          <t>https://www.notion.so/6-0fecdb7c3c374eea97289e9e308f8f91</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6c9a4fbe-94ba-4813-a444-2725e44cd033</t>
+          <t>e64e264f-45f0-48db-8349-7eb369265ce0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-13T09:28:00.000Z</t>
+          <t>2024-07-14T14:34:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:34:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-6c9a4fbe94ba4813a4442725e44cd033</t>
+          <t>https://www.notion.so/7-e64e264f45f048db83497eb369265ce0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>5cd2df68-475f-4500-b2d7-678411a240a9</t>
+          <t>6c9a4fbe-94ba-4813-a444-2725e44cd033</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-12T09:53:00.000Z</t>
+          <t>2024-07-13T09:28:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-5cd2df68475f4500b2d7678411a240a9</t>
+          <t>https://www.notion.so/8-6c9a4fbe94ba4813a4442725e44cd033</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9afdbbb6-3c71-4c0c-9dde-e729964648b8</t>
+          <t>5cd2df68-475f-4500-b2d7-678411a240a9</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-11T06:12:00.000Z</t>
+          <t>2024-07-12T09:53:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-9afdbbb63c714c0c9ddee729964648b8</t>
+          <t>https://www.notion.so/9-5cd2df68475f4500b2d7678411a240a9</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>fb2d1794-0cdc-46f0-a9a1-07162fa1770c</t>
+          <t>9afdbbb6-3c71-4c0c-9dde-e729964648b8</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-09T08:22:00.000Z</t>
+          <t>2024-07-11T06:12:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-fb2d17940cdc46f0a9a107162fa1770c</t>
+          <t>https://www.notion.so/10-9afdbbb63c714c0c9ddee729964648b8</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>107624f7-7695-4a1b-b0ba-d8f486d99ffc</t>
+          <t>fb2d1794-0cdc-46f0-a9a1-07162fa1770c</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-08T04:11:00.000Z</t>
+          <t>2024-07-09T08:22:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-107624f776954a1bb0bad8f486d99ffc</t>
+          <t>https://www.notion.so/11-fb2d17940cdc46f0a9a107162fa1770c</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
+          <t>107624f7-7695-4a1b-b0ba-d8f486d99ffc</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-06T08:51:00.000Z</t>
+          <t>2024-07-08T04:11:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-77beaf39139f468c8b7a9dfbffdc34ce</t>
+          <t>https://www.notion.so/12-107624f776954a1bb0bad8f486d99ffc</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
+          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-04T03:57:00.000Z</t>
+          <t>2024-07-06T08:51:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-0344784760f74bcc9b55b672299a1911</t>
+          <t>https://www.notion.so/13-77beaf39139f468c8b7a9dfbffdc34ce</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
+          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-03T09:52:00.000Z</t>
+          <t>2024-07-04T03:57:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-19T12:51:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-d37aca6076a9490aa5ce5ba95dc756e3</t>
+          <t>https://www.notion.so/14-0344784760f74bcc9b55b672299a1911</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
+          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-07-02T02:58:00.000Z</t>
+          <t>2024-07-03T09:52:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-e0bee04d4ecb4601928c0d8895b609ff</t>
+          <t>https://www.notion.so/15-d37aca6076a9490aa5ce5ba95dc756e3</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
+          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-07-01T07:45:00.000Z</t>
+          <t>2024-07-02T02:58:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-06f84bee3de04d8ea89d0d662e49da6f</t>
+          <t>https://www.notion.so/16-e0bee04d4ecb4601928c0d8895b609ff</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
+          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-06-30T09:08:00.000Z</t>
+          <t>2024-07-01T07:45:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-9c68fce37d4f4432a9b2e94a31b35cb8</t>
+          <t>https://www.notion.so/17-06f84bee3de04d8ea89d0d662e49da6f</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
+          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-06-29T09:34:00.000Z</t>
+          <t>2024-06-30T09:08:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-f4840e299c1d43c3837e0d16a331afc5</t>
+          <t>https://www.notion.so/18-9c68fce37d4f4432a9b2e94a31b35cb8</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,17 +4260,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
+          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-06-27T05:20:00.000Z</t>
+          <t>2024-06-29T09:34:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-413abd2bd960425d830b670598ce73e3</t>
+          <t>https://www.notion.so/19-f4840e299c1d43c3837e0d16a331afc5</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
+          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-27T05:20:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-7f65d6ca1a4147e390c31c67b654a580</t>
+          <t>https://www.notion.so/20-413abd2bd960425d830b670598ce73e3</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
+          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-5368b5a82d914fc3a5f194c7162f5048</t>
+          <t>https://www.notion.so/21-7f65d6ca1a4147e390c31c67b654a580</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
+          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-8701f2d293c34e0085672e3e7631cdb8</t>
+          <t>https://www.notion.so/22-5368b5a82d914fc3a5f194c7162f5048</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
+          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-456dae273fe84d68bdf84f10f987d889</t>
+          <t>https://www.notion.so/23-8701f2d293c34e0085672e3e7631cdb8</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
+          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-ccfa10878ca8496b8e932819f304be25</t>
+          <t>https://www.notion.so/24-456dae273fe84d68bdf84f10f987d889</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
+          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-1c8d62843aae418c92089c391cbbf64d</t>
+          <t>https://www.notion.so/25-ccfa10878ca8496b8e932819f304be25</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
+          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-ac86b813bcdf4436856ff6d3737b416c</t>
+          <t>https://www.notion.so/26-1c8d62843aae418c92089c391cbbf64d</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
+          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-8e3a71e5f9274e4fb215d54c0188294e</t>
+          <t>https://www.notion.so/27-ac86b813bcdf4436856ff6d3737b416c</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
+          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-bc3f46b564954ce290fb3abd2ad49c48</t>
+          <t>https://www.notion.so/28-8e3a71e5f9274e4fb215d54c0188294e</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
+          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-2dcf2fedb2f345f787374acf8616b370</t>
+          <t>https://www.notion.so/29-bc3f46b564954ce290fb3abd2ad49c48</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
+          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-887b24410fb94d5d86f359c23164bb5d</t>
+          <t>https://www.notion.so/30-2dcf2fedb2f345f787374acf8616b370</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
+          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-b002fbe7cff2401fb9bad07fd6cc561f</t>
+          <t>https://www.notion.so/31-887b24410fb94d5d86f359c23164bb5d</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,17 +6847,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
+          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-df6bda30993c4e7aab4794d2c47b686c</t>
+          <t>https://www.notion.so/32-b002fbe7cff2401fb9bad07fd6cc561f</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
+          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -7056,7 +7056,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-05ebb8d49dc141599836122e738bf488</t>
+          <t>https://www.notion.so/33-df6bda30993c4e7aab4794d2c47b686c</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
+          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-2ac05bc7172c4aa4b654799d67afe9e3</t>
+          <t>https://www.notion.so/34-05ebb8d49dc141599836122e738bf488</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
+          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-ffe6c77991f74c50b15dd0453a138e44</t>
+          <t>https://www.notion.so/35-2ac05bc7172c4aa4b654799d67afe9e3</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
+          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-2b0f762dd9a1460ab13f2736f1b47f93</t>
+          <t>https://www.notion.so/36-ffe6c77991f74c50b15dd0453a138e44</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
+          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-8716b812f61b4f9c90a0142d28bdca52</t>
+          <t>https://www.notion.so/37-2b0f762dd9a1460ab13f2736f1b47f93</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
+          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-670caeaf380a49d780a2f4774180a454</t>
+          <t>https://www.notion.so/38-8716b812f61b4f9c90a0142d28bdca52</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
+          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-4159c13e192d4b3ca97a4b8514d8725c</t>
+          <t>https://www.notion.so/39-670caeaf380a49d780a2f4774180a454</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
+          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-cf3e7eac935546569394e931803f630d</t>
+          <t>https://www.notion.so/40-4159c13e192d4b3ca97a4b8514d8725c</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
+          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-9df7353497164a8ab24939853ee869da</t>
+          <t>https://www.notion.so/41-cf3e7eac935546569394e931803f630d</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
+          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-5346b50987b446f79918eecb88e8cf6a</t>
+          <t>https://www.notion.so/42-9df7353497164a8ab24939853ee869da</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
+          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-a5122c4330234baabe9f0dd89011734c</t>
+          <t>https://www.notion.so/43-5346b50987b446f79918eecb88e8cf6a</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
+          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-a532e7cf90914f2e9e8d88f03ae7f109</t>
+          <t>https://www.notion.so/44-a5122c4330234baabe9f0dd89011734c</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
+          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-ecbeca945cb643fdb3eaaa736eb36655</t>
+          <t>https://www.notion.so/45-a532e7cf90914f2e9e8d88f03ae7f109</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
+          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-19T12:52:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-0cb9eb84b38a4c77b4fbc39974d76a86</t>
+          <t>https://www.notion.so/46-ecbeca945cb643fdb3eaaa736eb36655</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
+          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-71579228ff4f4c82ab8de40170d28c84</t>
+          <t>https://www.notion.so/47-0cb9eb84b38a4c77b4fbc39974d76a86</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
+          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-808bf9c3006a400293f08edfcc7f0f77</t>
+          <t>https://www.notion.so/48-71579228ff4f4c82ab8de40170d28c84</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
+          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-f6aa15d581a744cdb711a7c11cd8091b</t>
+          <t>https://www.notion.so/49-808bf9c3006a400293f08edfcc7f0f77</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
+          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-8f93fb5b6434414db1585a6d8373e0cb</t>
+          <t>https://www.notion.so/50-f6aa15d581a744cdb711a7c11cd8091b</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
+          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-5f697f46bc4547b0af9fb79d2f89615c</t>
+          <t>https://www.notion.so/51-8f93fb5b6434414db1585a6d8373e0cb</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
+          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-0d51e83ddaba4f7f98a5265e6f893acc</t>
+          <t>https://www.notion.so/52-5f697f46bc4547b0af9fb79d2f89615c</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
+          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:35:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-b6442ee624444519ba61ee66f711f543</t>
+          <t>https://www.notion.so/53-0d51e83ddaba4f7f98a5265e6f893acc</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
+          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
+          <t>https://www.notion.so/54-b6442ee624444519ba61ee66f711f543</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
+          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
+          <t>https://www.notion.so/55-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
+          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-5ae18489d18540dbbfc41263a08c863e</t>
+          <t>https://www.notion.so/56-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
+          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-2cc2a8737fd94612a974d6e1f3cfcad0</t>
+          <t>https://www.notion.so/57-5ae18489d18540dbbfc41263a08c863e</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
+          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-1bbc9ed697b3463aa7073252641dd198</t>
+          <t>https://www.notion.so/58-2cc2a8737fd94612a974d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
+          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
+          <t>https://www.notion.so/59-1bbc9ed697b3463aa7073252641dd198</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
+          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-de2a36cf877144f0a9a3cd55abfe271b</t>
+          <t>https://www.notion.so/60-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
+          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-52391eb5b8b04d4ca021f5c63b61d834</t>
+          <t>https://www.notion.so/61-de2a36cf877144f0a9a3cd55abfe271b</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
+          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-68bb50dcb72047b7998376df9b3742f6</t>
+          <t>https://www.notion.so/62-52391eb5b8b04d4ca021f5c63b61d834</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
+          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-58b1fa10c5cf4bcdbe34669b0c698923</t>
+          <t>https://www.notion.so/63-68bb50dcb72047b7998376df9b3742f6</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
+          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-c3ede5ddeeba4a2687538586469f6e8a</t>
+          <t>https://www.notion.so/64-58b1fa10c5cf4bcdbe34669b0c698923</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
+          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-46806830e1bd4cb594a526deedae2a38</t>
+          <t>https://www.notion.so/65-c3ede5ddeeba4a2687538586469f6e8a</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
+          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-2e1d33d8b8334ccaacee1f03482d66eb</t>
+          <t>https://www.notion.so/66-46806830e1bd4cb594a526deedae2a38</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
+          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-96324ff37f5948f0b916fc6536c5dade</t>
+          <t>https://www.notion.so/67-2e1d33d8b8334ccaacee1f03482d66eb</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
+          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-0e7dfb28877148948e464365dc6f2ad2</t>
+          <t>https://www.notion.so/68-96324ff37f5948f0b916fc6536c5dade</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
+          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-843f0e9037ff45919e450424e4cbac9e</t>
+          <t>https://www.notion.so/69-0e7dfb28877148948e464365dc6f2ad2</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
+          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-6049f3d742d048388a7a1856688cc253</t>
+          <t>https://www.notion.so/70-843f0e9037ff45919e450424e4cbac9e</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
+          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-612cdb5927f9493bb67472aff3b5927b</t>
+          <t>https://www.notion.so/71-6049f3d742d048388a7a1856688cc253</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
+          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-27085ca3d5144473a3bbda984c52e7e4</t>
+          <t>https://www.notion.so/72-612cdb5927f9493bb67472aff3b5927b</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
+          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-5be9f11cc64f4f61bb71e7d2fbf96855</t>
+          <t>https://www.notion.so/73-27085ca3d5144473a3bbda984c52e7e4</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
+          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-3f9e3e71188e48d5997a71070175e42b</t>
+          <t>https://www.notion.so/74-5be9f11cc64f4f61bb71e7d2fbf96855</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
+          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-c4a99c5cf44e4039a0458ad12b4f6046</t>
+          <t>https://www.notion.so/75-3f9e3e71188e48d5997a71070175e42b</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,17 +15603,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
+          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2024-06-25T15:36:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-214991f646494c4db5957aa6576c69ad</t>
+          <t>https://www.notion.so/76-c4a99c5cf44e4039a0458ad12b4f6046</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
+          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -15812,7 +15812,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-d9f9ae69896d4f76b57208645f10e3fa</t>
+          <t>https://www.notion.so/77-214991f646494c4db5957aa6576c69ad</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
+          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-19T12:53:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-73f7f862f11441db92210fde8f9c580d</t>
+          <t>https://www.notion.so/78-d9f9ae69896d4f76b57208645f10e3fa</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
+          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-631d954b83a847d48683983aad0b002d</t>
+          <t>https://www.notion.so/79-73f7f862f11441db92210fde8f9c580d</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
+          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-3e313c4511094d1996f73d46baff66af</t>
+          <t>https://www.notion.so/80-631d954b83a847d48683983aad0b002d</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,17 +16598,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
+          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2024-06-25T08:24:00.000Z</t>
+          <t>2024-06-25T15:36:00.000Z</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-15dc290bde0b4ca9ba770946c5f13582</t>
+          <t>https://www.notion.so/81-3e313c4511094d1996f73d46baff66af</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16632,7 +16632,7 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
+          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-85a1185c5d12479f808c48ad22a864c1</t>
+          <t>https://www.notion.so/82-15dc290bde0b4ca9ba770946c5f13582</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-19T12:49:00.000Z</t>
+          <t>2024-07-20T13:36:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-b4c82aa77e7f4289b0ba1b14e683031d</t>
+          <t>https://www.notion.so/83-85a1185c5d12479f808c48ad22a864c1</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17184,6 +17184,205 @@
       <c r="AU84" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '83', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '83', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2024-07-20T13:36:00.000Z</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/84-b4c82aa77e7f4289b0ba1b14e683031d</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE85" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF85" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AG85" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI85" t="inlineStr">
+        <is>
+          <t>2024-07-20</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM85" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN85" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO85" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AP85" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ85" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR85" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT85" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU85" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '84', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '84', 'href': None}]</t>
         </is>
       </c>
     </row>

--- a/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
+++ b/notion_data/LUY_KE_NGAY_LONG_XUYEN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU85"/>
+  <dimension ref="A1:AU86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -678,17 +678,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6e31e972-3b9d-4943-9bca-9623487e0a7d</t>
+          <t>25f7c61d-806e-44e4-b06a-d1cdd69e0209</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-07-20T09:48:00.000Z</t>
+          <t>2024-07-21T10:08:00.000Z</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.notion.so/1-6e31e9723b9d49439bca9623487e0a7d</t>
+          <t>https://www.notion.so/1-25f7c61d806e44e4b06ad1cdd69e0209</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -877,17 +877,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>94fa7304-3963-4bcd-8356-5abbfce2a6f3</t>
+          <t>6e31e972-3b9d-4943-9bca-9623487e0a7d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-07-19T10:42:00.000Z</t>
+          <t>2024-07-20T09:48:00.000Z</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -900,7 +900,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.notion.so/2-94fa730439634bcd83565abbfce2a6f3</t>
+          <t>https://www.notion.so/2-6e31e9723b9d49439bca9623487e0a7d</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8a14bd80-4464-4e14-9c3b-b8b92e5e34f1</t>
+          <t>94fa7304-3963-4bcd-8356-5abbfce2a6f3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-07-18T10:59:00.000Z</t>
+          <t>2024-07-19T10:42:00.000Z</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.notion.so/3-8a14bd8044644e149c3bb8b92e5e34f1</t>
+          <t>https://www.notion.so/3-94fa730439634bcd83565abbfce2a6f3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ab7f95ce-43b3-42b1-83b5-0578395cef2d</t>
+          <t>8a14bd80-4464-4e14-9c3b-b8b92e5e34f1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-07-17T12:17:00.000Z</t>
+          <t>2024-07-18T10:59:00.000Z</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1298,7 +1298,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.notion.so/4-ab7f95ce43b342b183b50578395cef2d</t>
+          <t>https://www.notion.so/4-8a14bd8044644e149c3bb8b92e5e34f1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3b58dea8-d569-439c-9d28-37bc5cb00b87</t>
+          <t>ab7f95ce-43b3-42b1-83b5-0578395cef2d</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.notion.so/5-3b58dea8d569439c9d2837bc5cb00b87</t>
+          <t>https://www.notion.so/5-ab7f95ce43b342b183b50578395cef2d</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0fecdb7c-3c37-4eea-9728-9e9e308f8f91</t>
+          <t>3b58dea8-d569-439c-9d28-37bc5cb00b87</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-07-15T04:38:00.000Z</t>
+          <t>2024-07-17T12:17:00.000Z</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.notion.so/6-0fecdb7c3c374eea97289e9e308f8f91</t>
+          <t>https://www.notion.so/6-3b58dea8d569439c9d2837bc5cb00b87</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>e64e264f-45f0-48db-8349-7eb369265ce0</t>
+          <t>0fecdb7c-3c37-4eea-9728-9e9e308f8f91</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-07-14T14:34:00.000Z</t>
+          <t>2024-07-15T04:38:00.000Z</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-07-20T13:34:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.notion.so/7-e64e264f45f048db83497eb369265ce0</t>
+          <t>https://www.notion.so/7-0fecdb7c3c374eea97289e9e308f8f91</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6c9a4fbe-94ba-4813-a444-2725e44cd033</t>
+          <t>e64e264f-45f0-48db-8349-7eb369265ce0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-07-13T09:28:00.000Z</t>
+          <t>2024-07-14T14:34:00.000Z</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.notion.so/8-6c9a4fbe94ba4813a4442725e44cd033</t>
+          <t>https://www.notion.so/8-e64e264f45f048db83497eb369265ce0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -2270,17 +2270,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5cd2df68-475f-4500-b2d7-678411a240a9</t>
+          <t>6c9a4fbe-94ba-4813-a444-2725e44cd033</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-07-12T09:53:00.000Z</t>
+          <t>2024-07-13T09:28:00.000Z</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.notion.so/9-5cd2df68475f4500b2d7678411a240a9</t>
+          <t>https://www.notion.so/9-6c9a4fbe94ba4813a4442725e44cd033</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -2469,17 +2469,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9afdbbb6-3c71-4c0c-9dde-e729964648b8</t>
+          <t>5cd2df68-475f-4500-b2d7-678411a240a9</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-07-11T06:12:00.000Z</t>
+          <t>2024-07-12T09:53:00.000Z</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.notion.so/10-9afdbbb63c714c0c9ddee729964648b8</t>
+          <t>https://www.notion.so/10-5cd2df68475f4500b2d7678411a240a9</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
@@ -2668,17 +2668,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>fb2d1794-0cdc-46f0-a9a1-07162fa1770c</t>
+          <t>9afdbbb6-3c71-4c0c-9dde-e729964648b8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-07-09T08:22:00.000Z</t>
+          <t>2024-07-11T06:12:00.000Z</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.notion.so/11-fb2d17940cdc46f0a9a107162fa1770c</t>
+          <t>https://www.notion.so/11-9afdbbb63c714c0c9ddee729964648b8</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -2867,17 +2867,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>107624f7-7695-4a1b-b0ba-d8f486d99ffc</t>
+          <t>fb2d1794-0cdc-46f0-a9a1-07162fa1770c</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-07-08T04:11:00.000Z</t>
+          <t>2024-07-09T08:22:00.000Z</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -2890,7 +2890,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.notion.so/12-107624f776954a1bb0bad8f486d99ffc</t>
+          <t>https://www.notion.so/12-fb2d17940cdc46f0a9a107162fa1770c</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
+          <t>107624f7-7695-4a1b-b0ba-d8f486d99ffc</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-07-06T08:51:00.000Z</t>
+          <t>2024-07-08T04:11:00.000Z</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -3089,7 +3089,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.notion.so/13-77beaf39139f468c8b7a9dfbffdc34ce</t>
+          <t>https://www.notion.so/13-107624f776954a1bb0bad8f486d99ffc</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -3265,17 +3265,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
+          <t>77beaf39-139f-468c-8b7a-9dfbffdc34ce</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-07-04T03:57:00.000Z</t>
+          <t>2024-07-06T08:51:00.000Z</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.notion.so/14-0344784760f74bcc9b55b672299a1911</t>
+          <t>https://www.notion.so/14-77beaf39139f468c8b7a9dfbffdc34ce</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -3464,17 +3464,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
+          <t>03447847-60f7-4bcc-9b55-b672299a1911</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-07-03T09:52:00.000Z</t>
+          <t>2024-07-04T03:57:00.000Z</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.notion.so/15-d37aca6076a9490aa5ce5ba95dc756e3</t>
+          <t>https://www.notion.so/15-0344784760f74bcc9b55b672299a1911</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -3663,17 +3663,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
+          <t>d37aca60-76a9-490a-a5ce-5ba95dc756e3</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-07-02T02:58:00.000Z</t>
+          <t>2024-07-03T09:52:00.000Z</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.notion.so/16-e0bee04d4ecb4601928c0d8895b609ff</t>
+          <t>https://www.notion.so/16-d37aca6076a9490aa5ce5ba95dc756e3</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
+          <t>e0bee04d-4ecb-4601-928c-0d8895b609ff</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-07-01T07:45:00.000Z</t>
+          <t>2024-07-02T02:58:00.000Z</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.notion.so/17-06f84bee3de04d8ea89d0d662e49da6f</t>
+          <t>https://www.notion.so/17-e0bee04d4ecb4601928c0d8895b609ff</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -4061,17 +4061,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
+          <t>06f84bee-3de0-4d8e-a89d-0d662e49da6f</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-06-30T09:08:00.000Z</t>
+          <t>2024-07-01T07:45:00.000Z</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.notion.so/18-9c68fce37d4f4432a9b2e94a31b35cb8</t>
+          <t>https://www.notion.so/18-06f84bee3de04d8ea89d0d662e49da6f</t>
         </is>
       </c>
       <c r="J19" t="inlineStr"/>
@@ -4260,17 +4260,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
+          <t>9c68fce3-7d4f-4432-a9b2-e94a31b35cb8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-06-29T09:34:00.000Z</t>
+          <t>2024-06-30T09:08:00.000Z</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.notion.so/19-f4840e299c1d43c3837e0d16a331afc5</t>
+          <t>https://www.notion.so/19-9c68fce37d4f4432a9b2e94a31b35cb8</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -4459,17 +4459,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
+          <t>f4840e29-9c1d-43c3-837e-0d16a331afc5</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2024-06-27T05:20:00.000Z</t>
+          <t>2024-06-29T09:34:00.000Z</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.notion.so/20-413abd2bd960425d830b670598ce73e3</t>
+          <t>https://www.notion.so/20-f4840e299c1d43c3837e0d16a331afc5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -4658,17 +4658,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
+          <t>413abd2b-d960-425d-830b-670598ce73e3</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2024-06-26T11:55:00.000Z</t>
+          <t>2024-06-27T05:20:00.000Z</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.notion.so/21-7f65d6ca1a4147e390c31c67b654a580</t>
+          <t>https://www.notion.so/21-413abd2bd960425d830b670598ce73e3</t>
         </is>
       </c>
       <c r="J22" t="inlineStr"/>
@@ -4857,17 +4857,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
+          <t>7f65d6ca-1a41-47e3-90c3-1c67b654a580</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2024-06-25T15:40:00.000Z</t>
+          <t>2024-06-26T11:55:00.000Z</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -4880,7 +4880,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.notion.so/22-5368b5a82d914fc3a5f194c7162f5048</t>
+          <t>https://www.notion.so/22-7f65d6ca1a4147e390c31c67b654a580</t>
         </is>
       </c>
       <c r="J23" t="inlineStr"/>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
+          <t>5368b5a8-2d91-4fc3-a5f1-94c7162f5048</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -5066,7 +5066,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -5079,7 +5079,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.notion.so/23-8701f2d293c34e0085672e3e7631cdb8</t>
+          <t>https://www.notion.so/23-5368b5a82d914fc3a5f194c7162f5048</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
+          <t>8701f2d2-93c3-4e00-8567-2e3e7631cdb8</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -5265,7 +5265,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.notion.so/24-456dae273fe84d68bdf84f10f987d889</t>
+          <t>https://www.notion.so/24-8701f2d293c34e0085672e3e7631cdb8</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
+          <t>456dae27-3fe8-4d68-bdf8-4f10f987d889</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -5477,7 +5477,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.notion.so/25-ccfa10878ca8496b8e932819f304be25</t>
+          <t>https://www.notion.so/25-456dae273fe84d68bdf84f10f987d889</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
+          <t>ccfa1087-8ca8-496b-8e93-2819f304be25</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.notion.so/26-1c8d62843aae418c92089c391cbbf64d</t>
+          <t>https://www.notion.so/26-ccfa10878ca8496b8e932819f304be25</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
+          <t>1c8d6284-3aae-418c-9208-9c391cbbf64d</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.notion.so/27-ac86b813bcdf4436856ff6d3737b416c</t>
+          <t>https://www.notion.so/27-1c8d62843aae418c92089c391cbbf64d</t>
         </is>
       </c>
       <c r="J28" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
+          <t>ac86b813-bcdf-4436-856f-f6d3737b416c</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.notion.so/28-8e3a71e5f9274e4fb215d54c0188294e</t>
+          <t>https://www.notion.so/28-ac86b813bcdf4436856ff6d3737b416c</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -6250,7 +6250,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
+          <t>8e3a71e5-f927-4e4f-b215-d54c0188294e</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -6260,7 +6260,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.notion.so/29-bc3f46b564954ce290fb3abd2ad49c48</t>
+          <t>https://www.notion.so/29-8e3a71e5f9274e4fb215d54c0188294e</t>
         </is>
       </c>
       <c r="J30" t="inlineStr"/>
@@ -6449,7 +6449,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
+          <t>bc3f46b5-6495-4ce2-90fb-3abd2ad49c48</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -6472,7 +6472,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.notion.so/30-2dcf2fedb2f345f787374acf8616b370</t>
+          <t>https://www.notion.so/30-bc3f46b564954ce290fb3abd2ad49c48</t>
         </is>
       </c>
       <c r="J31" t="inlineStr"/>
@@ -6648,7 +6648,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
+          <t>2dcf2fed-b2f3-45f7-8737-4acf8616b370</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -6658,7 +6658,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -6671,7 +6671,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.notion.so/31-887b24410fb94d5d86f359c23164bb5d</t>
+          <t>https://www.notion.so/31-2dcf2fedb2f345f787374acf8616b370</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -6847,7 +6847,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
+          <t>887b2441-0fb9-4d5d-86f3-59c23164bb5d</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -6857,7 +6857,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -6870,7 +6870,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.notion.so/32-b002fbe7cff2401fb9bad07fd6cc561f</t>
+          <t>https://www.notion.so/32-887b24410fb94d5d86f359c23164bb5d</t>
         </is>
       </c>
       <c r="J33" t="inlineStr"/>
@@ -7046,17 +7046,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
+          <t>b002fbe7-cff2-401f-b9ba-d07fd6cc561f</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-06-25T15:39:00.000Z</t>
+          <t>2024-06-25T15:40:00.000Z</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -7069,7 +7069,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://www.notion.so/33-df6bda30993c4e7aab4794d2c47b686c</t>
+          <t>https://www.notion.so/33-b002fbe7cff2401fb9bad07fd6cc561f</t>
         </is>
       </c>
       <c r="J34" t="inlineStr"/>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
+          <t>df6bda30-993c-4e7a-ab47-94d2c47b686c</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -7255,7 +7255,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -7268,7 +7268,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.notion.so/34-05ebb8d49dc141599836122e738bf488</t>
+          <t>https://www.notion.so/34-df6bda30993c4e7aab4794d2c47b686c</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
+          <t>05ebb8d4-9dc1-4159-9836-122e738bf488</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -7454,7 +7454,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -7467,7 +7467,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://www.notion.so/35-2ac05bc7172c4aa4b654799d67afe9e3</t>
+          <t>https://www.notion.so/35-05ebb8d49dc141599836122e738bf488</t>
         </is>
       </c>
       <c r="J36" t="inlineStr"/>
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
+          <t>2ac05bc7-172c-4aa4-b654-799d67afe9e3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:44:00.000Z</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://www.notion.so/36-ffe6c77991f74c50b15dd0453a138e44</t>
+          <t>https://www.notion.so/36-2ac05bc7172c4aa4b654799d67afe9e3</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
+          <t>ffe6c779-91f7-4c50-b15d-d0453a138e44</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7852,7 +7852,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://www.notion.so/37-2b0f762dd9a1460ab13f2736f1b47f93</t>
+          <t>https://www.notion.so/37-ffe6c77991f74c50b15dd0453a138e44</t>
         </is>
       </c>
       <c r="J38" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
+          <t>2b0f762d-d9a1-460a-b13f-2736f1b47f93</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -8051,7 +8051,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -8064,7 +8064,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://www.notion.so/38-8716b812f61b4f9c90a0142d28bdca52</t>
+          <t>https://www.notion.so/38-2b0f762dd9a1460ab13f2736f1b47f93</t>
         </is>
       </c>
       <c r="J39" t="inlineStr"/>
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
+          <t>8716b812-f61b-4f9c-90a0-142d28bdca52</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -8250,7 +8250,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://www.notion.so/39-670caeaf380a49d780a2f4774180a454</t>
+          <t>https://www.notion.so/39-8716b812f61b4f9c90a0142d28bdca52</t>
         </is>
       </c>
       <c r="J40" t="inlineStr"/>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
+          <t>670caeaf-380a-49d7-80a2-f4774180a454</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://www.notion.so/40-4159c13e192d4b3ca97a4b8514d8725c</t>
+          <t>https://www.notion.so/40-670caeaf380a49d780a2f4774180a454</t>
         </is>
       </c>
       <c r="J41" t="inlineStr"/>
@@ -8638,7 +8638,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
+          <t>4159c13e-192d-4b3c-a97a-4b8514d8725c</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://www.notion.so/41-cf3e7eac935546569394e931803f630d</t>
+          <t>https://www.notion.so/41-4159c13e192d4b3ca97a4b8514d8725c</t>
         </is>
       </c>
       <c r="J42" t="inlineStr"/>
@@ -8837,7 +8837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
+          <t>cf3e7eac-9355-4656-9394-e931803f630d</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8847,7 +8847,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://www.notion.so/42-9df7353497164a8ab24939853ee869da</t>
+          <t>https://www.notion.so/42-cf3e7eac935546569394e931803f630d</t>
         </is>
       </c>
       <c r="J43" t="inlineStr"/>
@@ -9036,7 +9036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
+          <t>9df73534-9716-4a8a-b249-39853ee869da</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://www.notion.so/43-5346b50987b446f79918eecb88e8cf6a</t>
+          <t>https://www.notion.so/43-9df7353497164a8ab24939853ee869da</t>
         </is>
       </c>
       <c r="J44" t="inlineStr"/>
@@ -9235,7 +9235,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
+          <t>5346b509-87b4-46f7-9918-eecb88e8cf6a</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -9258,7 +9258,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://www.notion.so/44-a5122c4330234baabe9f0dd89011734c</t>
+          <t>https://www.notion.so/44-5346b50987b446f79918eecb88e8cf6a</t>
         </is>
       </c>
       <c r="J45" t="inlineStr"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
+          <t>a5122c43-3023-4baa-be9f-0dd89011734c</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -9444,7 +9444,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -9457,7 +9457,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://www.notion.so/45-a532e7cf90914f2e9e8d88f03ae7f109</t>
+          <t>https://www.notion.so/45-a5122c4330234baabe9f0dd89011734c</t>
         </is>
       </c>
       <c r="J46" t="inlineStr"/>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
+          <t>a532e7cf-9091-4f2e-9e8d-88f03ae7f109</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -9643,7 +9643,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -9656,7 +9656,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://www.notion.so/46-ecbeca945cb643fdb3eaaa736eb36655</t>
+          <t>https://www.notion.so/46-a532e7cf90914f2e9e8d88f03ae7f109</t>
         </is>
       </c>
       <c r="J47" t="inlineStr"/>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
+          <t>ecbeca94-5cb6-43fd-b3ea-aa736eb36655</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -9842,7 +9842,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://www.notion.so/47-0cb9eb84b38a4c77b4fbc39974d76a86</t>
+          <t>https://www.notion.so/47-ecbeca945cb643fdb3eaaa736eb36655</t>
         </is>
       </c>
       <c r="J48" t="inlineStr"/>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
+          <t>0cb9eb84-b38a-4c77-b4fb-c39974d76a86</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://www.notion.so/48-71579228ff4f4c82ab8de40170d28c84</t>
+          <t>https://www.notion.so/48-0cb9eb84b38a4c77b4fbc39974d76a86</t>
         </is>
       </c>
       <c r="J49" t="inlineStr"/>
@@ -10230,7 +10230,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
+          <t>71579228-ff4f-4c82-ab8d-e40170d28c84</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10240,7 +10240,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -10253,7 +10253,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://www.notion.so/49-808bf9c3006a400293f08edfcc7f0f77</t>
+          <t>https://www.notion.so/49-71579228ff4f4c82ab8de40170d28c84</t>
         </is>
       </c>
       <c r="J50" t="inlineStr"/>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
+          <t>808bf9c3-006a-4002-93f0-8edfcc7f0f77</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10439,7 +10439,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://www.notion.so/50-f6aa15d581a744cdb711a7c11cd8091b</t>
+          <t>https://www.notion.so/50-808bf9c3006a400293f08edfcc7f0f77</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
+          <t>f6aa15d5-81a7-44cd-b711-a7c11cd8091b</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10638,7 +10638,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://www.notion.so/51-8f93fb5b6434414db1585a6d8373e0cb</t>
+          <t>https://www.notion.so/51-f6aa15d581a744cdb711a7c11cd8091b</t>
         </is>
       </c>
       <c r="J52" t="inlineStr"/>
@@ -10827,7 +10827,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
+          <t>8f93fb5b-6434-414d-b158-5a6d8373e0cb</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10837,7 +10837,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -10850,7 +10850,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://www.notion.so/52-5f697f46bc4547b0af9fb79d2f89615c</t>
+          <t>https://www.notion.so/52-8f93fb5b6434414db1585a6d8373e0cb</t>
         </is>
       </c>
       <c r="J53" t="inlineStr"/>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
+          <t>5f697f46-bc45-47b0-af9f-b79d2f89615c</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-07-20T13:35:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://www.notion.so/53-0d51e83ddaba4f7f98a5265e6f893acc</t>
+          <t>https://www.notion.so/53-5f697f46bc4547b0af9fb79d2f89615c</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
+          <t>0d51e83d-daba-4f7f-98a5-265e6f893acc</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -11248,7 +11248,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://www.notion.so/54-b6442ee624444519ba61ee66f711f543</t>
+          <t>https://www.notion.so/54-0d51e83ddaba4f7f98a5265e6f893acc</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
+          <t>b6442ee6-2444-4519-ba61-ee66f711f543</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -11434,7 +11434,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -11447,7 +11447,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://www.notion.so/55-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
+          <t>https://www.notion.so/55-b6442ee624444519ba61ee66f711f543</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
+          <t>5b30e0cb-e4f8-42e8-ac2f-3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://www.notion.so/56-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
+          <t>https://www.notion.so/56-5b30e0cbe4f842e8ac2f3ca7b7a6aaaa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr"/>
@@ -11822,7 +11822,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
+          <t>7be7f5b9-f6a1-4c0f-91ec-5883dd1adf3b</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -11845,7 +11845,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://www.notion.so/57-5ae18489d18540dbbfc41263a08c863e</t>
+          <t>https://www.notion.so/57-7be7f5b9f6a14c0f91ec5883dd1adf3b</t>
         </is>
       </c>
       <c r="J58" t="inlineStr"/>
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
+          <t>5ae18489-d185-40db-bfc4-1263a08c863e</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://www.notion.so/58-2cc2a8737fd94612a974d6e1f3cfcad0</t>
+          <t>https://www.notion.so/58-5ae18489d18540dbbfc41263a08c863e</t>
         </is>
       </c>
       <c r="J59" t="inlineStr"/>
@@ -12220,7 +12220,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
+          <t>2cc2a873-7fd9-4612-a974-d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -12243,7 +12243,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://www.notion.so/59-1bbc9ed697b3463aa7073252641dd198</t>
+          <t>https://www.notion.so/59-2cc2a8737fd94612a974d6e1f3cfcad0</t>
         </is>
       </c>
       <c r="J60" t="inlineStr"/>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
+          <t>1bbc9ed6-97b3-463a-a707-3252641dd198</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -12442,7 +12442,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://www.notion.so/60-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
+          <t>https://www.notion.so/60-1bbc9ed697b3463aa7073252641dd198</t>
         </is>
       </c>
       <c r="J61" t="inlineStr"/>
@@ -12618,7 +12618,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
+          <t>c0b0d935-ef9a-45f7-879b-558e9ce4fcf3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12628,7 +12628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -12641,7 +12641,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://www.notion.so/61-de2a36cf877144f0a9a3cd55abfe271b</t>
+          <t>https://www.notion.so/61-c0b0d935ef9a45f7879b558e9ce4fcf3</t>
         </is>
       </c>
       <c r="J62" t="inlineStr"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
+          <t>de2a36cf-8771-44f0-a9a3-cd55abfe271b</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12827,7 +12827,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -12840,7 +12840,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://www.notion.so/62-52391eb5b8b04d4ca021f5c63b61d834</t>
+          <t>https://www.notion.so/62-de2a36cf877144f0a9a3cd55abfe271b</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -13016,7 +13016,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
+          <t>52391eb5-b8b0-4d4c-a021-f5c63b61d834</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -13026,7 +13026,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -13039,7 +13039,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://www.notion.so/63-68bb50dcb72047b7998376df9b3742f6</t>
+          <t>https://www.notion.so/63-52391eb5b8b04d4ca021f5c63b61d834</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
+          <t>68bb50dc-b720-47b7-9983-76df9b3742f6</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://www.notion.so/64-58b1fa10c5cf4bcdbe34669b0c698923</t>
+          <t>https://www.notion.so/64-68bb50dcb72047b7998376df9b3742f6</t>
         </is>
       </c>
       <c r="J65" t="inlineStr"/>
@@ -13414,7 +13414,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
+          <t>58b1fa10-c5cf-4bcd-be34-669b0c698923</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -13424,7 +13424,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://www.notion.so/65-c3ede5ddeeba4a2687538586469f6e8a</t>
+          <t>https://www.notion.so/65-58b1fa10c5cf4bcdbe34669b0c698923</t>
         </is>
       </c>
       <c r="J66" t="inlineStr"/>
@@ -13613,7 +13613,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
+          <t>c3ede5dd-eeba-4a26-8753-8586469f6e8a</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -13636,7 +13636,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://www.notion.so/66-46806830e1bd4cb594a526deedae2a38</t>
+          <t>https://www.notion.so/66-c3ede5ddeeba4a2687538586469f6e8a</t>
         </is>
       </c>
       <c r="J67" t="inlineStr"/>
@@ -13812,7 +13812,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
+          <t>46806830-e1bd-4cb5-94a5-26deedae2a38</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -13822,7 +13822,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -13835,7 +13835,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://www.notion.so/67-2e1d33d8b8334ccaacee1f03482d66eb</t>
+          <t>https://www.notion.so/67-46806830e1bd4cb594a526deedae2a38</t>
         </is>
       </c>
       <c r="J68" t="inlineStr"/>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
+          <t>2e1d33d8-b833-4cca-acee-1f03482d66eb</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -14034,7 +14034,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://www.notion.so/68-96324ff37f5948f0b916fc6536c5dade</t>
+          <t>https://www.notion.so/68-2e1d33d8b8334ccaacee1f03482d66eb</t>
         </is>
       </c>
       <c r="J69" t="inlineStr"/>
@@ -14210,7 +14210,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
+          <t>96324ff3-7f59-48f0-b916-fc6536c5dade</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -14220,7 +14220,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://www.notion.so/69-0e7dfb28877148948e464365dc6f2ad2</t>
+          <t>https://www.notion.so/69-96324ff37f5948f0b916fc6536c5dade</t>
         </is>
       </c>
       <c r="J70" t="inlineStr"/>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
+          <t>0e7dfb28-8771-4894-8e46-4365dc6f2ad2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://www.notion.so/70-843f0e9037ff45919e450424e4cbac9e</t>
+          <t>https://www.notion.so/70-0e7dfb28877148948e464365dc6f2ad2</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
+          <t>843f0e90-37ff-4591-9e45-0424e4cbac9e</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -14631,7 +14631,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://www.notion.so/71-6049f3d742d048388a7a1856688cc253</t>
+          <t>https://www.notion.so/71-843f0e9037ff45919e450424e4cbac9e</t>
         </is>
       </c>
       <c r="J72" t="inlineStr"/>
@@ -14807,7 +14807,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
+          <t>6049f3d7-42d0-4838-8a7a-1856688cc253</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://www.notion.so/72-612cdb5927f9493bb67472aff3b5927b</t>
+          <t>https://www.notion.so/72-6049f3d742d048388a7a1856688cc253</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -15006,7 +15006,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
+          <t>612cdb59-27f9-493b-b674-72aff3b5927b</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -15029,7 +15029,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://www.notion.so/73-27085ca3d5144473a3bbda984c52e7e4</t>
+          <t>https://www.notion.so/73-612cdb5927f9493bb67472aff3b5927b</t>
         </is>
       </c>
       <c r="J74" t="inlineStr"/>
@@ -15205,7 +15205,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
+          <t>27085ca3-d514-4473-a3bb-da984c52e7e4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -15215,7 +15215,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://www.notion.so/74-5be9f11cc64f4f61bb71e7d2fbf96855</t>
+          <t>https://www.notion.so/74-27085ca3d5144473a3bbda984c52e7e4</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -15404,7 +15404,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
+          <t>5be9f11c-c64f-4f61-bb71-e7d2fbf96855</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -15414,7 +15414,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://www.notion.so/75-3f9e3e71188e48d5997a71070175e42b</t>
+          <t>https://www.notion.so/75-5be9f11cc64f4f61bb71e7d2fbf96855</t>
         </is>
       </c>
       <c r="J76" t="inlineStr"/>
@@ -15603,7 +15603,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
+          <t>3f9e3e71-188e-48d5-997a-71070175e42b</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -15613,7 +15613,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://www.notion.so/76-c4a99c5cf44e4039a0458ad12b4f6046</t>
+          <t>https://www.notion.so/76-3f9e3e71188e48d5997a71070175e42b</t>
         </is>
       </c>
       <c r="J77" t="inlineStr"/>
@@ -15802,17 +15802,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
+          <t>c4a99c5c-f44e-4039-a045-8ad12b4f6046</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2024-06-25T15:36:00.000Z</t>
+          <t>2024-06-25T15:39:00.000Z</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -15825,7 +15825,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://www.notion.so/77-214991f646494c4db5957aa6576c69ad</t>
+          <t>https://www.notion.so/77-c4a99c5cf44e4039a0458ad12b4f6046</t>
         </is>
       </c>
       <c r="J78" t="inlineStr"/>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
+          <t>214991f6-4649-4c4d-b595-7aa6576c69ad</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -16011,7 +16011,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://www.notion.so/78-d9f9ae69896d4f76b57208645f10e3fa</t>
+          <t>https://www.notion.so/78-214991f646494c4db5957aa6576c69ad</t>
         </is>
       </c>
       <c r="J79" t="inlineStr"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
+          <t>d9f9ae69-896d-4f76-b572-08645f10e3fa</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -16210,7 +16210,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -16223,7 +16223,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://www.notion.so/79-73f7f862f11441db92210fde8f9c580d</t>
+          <t>https://www.notion.so/79-d9f9ae69896d4f76b57208645f10e3fa</t>
         </is>
       </c>
       <c r="J80" t="inlineStr"/>
@@ -16399,7 +16399,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
+          <t>73f7f862-f114-41db-9221-0fde8f9c580d</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -16422,7 +16422,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://www.notion.so/80-631d954b83a847d48683983aad0b002d</t>
+          <t>https://www.notion.so/80-73f7f862f11441db92210fde8f9c580d</t>
         </is>
       </c>
       <c r="J81" t="inlineStr"/>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
+          <t>631d954b-83a8-47d4-8683-983aad0b002d</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -16608,7 +16608,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://www.notion.so/81-3e313c4511094d1996f73d46baff66af</t>
+          <t>https://www.notion.so/81-631d954b83a847d48683983aad0b002d</t>
         </is>
       </c>
       <c r="J82" t="inlineStr"/>
@@ -16797,17 +16797,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
+          <t>3e313c45-1109-4d19-96f7-3d46baff66af</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2024-06-25T08:24:00.000Z</t>
+          <t>2024-06-25T15:36:00.000Z</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -16820,7 +16820,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://www.notion.so/82-15dc290bde0b4ca9ba770946c5f13582</t>
+          <t>https://www.notion.so/82-3e313c4511094d1996f73d46baff66af</t>
         </is>
       </c>
       <c r="J83" t="inlineStr"/>
@@ -16831,7 +16831,7 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
@@ -16996,7 +16996,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
+          <t>15dc290b-de0b-4ca9-ba77-0946c5f13582</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -17019,7 +17019,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://www.notion.so/83-85a1185c5d12479f808c48ad22a864c1</t>
+          <t>https://www.notion.so/83-15dc290bde0b4ca9ba770946c5f13582</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -17195,7 +17195,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+          <t>85a1185c-5d12-479f-808c-48ad22a864c1</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-07-20T13:36:00.000Z</t>
+          <t>2024-07-21T16:45:00.000Z</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -17218,7 +17218,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://www.notion.so/84-b4c82aa77e7f4289b0ba1b14e683031d</t>
+          <t>https://www.notion.so/84-85a1185c5d12479f808c48ad22a864c1</t>
         </is>
       </c>
       <c r="J85" t="inlineStr"/>
@@ -17383,6 +17383,205 @@
       <c r="AU85" t="inlineStr">
         <is>
           <t>[{'type': 'text', 'text': {'content': '84', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '84', 'href': None}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>b4c82aa7-7e7f-4289-b0ba-1b14e683031d</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2024-06-25T08:24:00.000Z</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2024-07-21T16:46:00.000Z</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="b">
+        <v>0</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.notion.so/85-b4c82aa77e7f4289b0ba1b14e683031d</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>532a166e-c2d9-42ff-bed3-a363f43543fb</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>41cabcaf-915d-46a5-8eff-38727be27269</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>database_id</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>95908de9-fba9-4247-8bcd-04b57e56bd1b</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>JgG%7B</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Nk%3CD</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Q%5B%5Bp</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="Z86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>Vds%5C</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD86" t="inlineStr">
+        <is>
+          <t>bwGG</t>
+        </is>
+      </c>
+      <c r="AE86" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AF86" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t>kciy</t>
+        </is>
+      </c>
+      <c r="AH86" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="AI86" t="inlineStr">
+        <is>
+          <t>2024-07-21</t>
+        </is>
+      </c>
+      <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>nWGB</t>
+        </is>
+      </c>
+      <c r="AM86" t="inlineStr">
+        <is>
+          <t>formula</t>
+        </is>
+      </c>
+      <c r="AN86" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AO86" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AP86" t="inlineStr">
+        <is>
+          <t>pq%3Ci</t>
+        </is>
+      </c>
+      <c r="AQ86" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="AR86" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="AS86" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AT86" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="AU86" t="inlineStr">
+        <is>
+          <t>[{'type': 'text', 'text': {'content': '85', 'link': None}, 'annotations': {'bold': False, 'italic': False, 'strikethrough': False, 'underline': False, 'code': False, 'color': 'default'}, 'plain_text': '85', 'href': None}]</t>
         </is>
       </c>
     </row>
